--- a/Remote/ug16/Données/04/dist_meg_ug16_d04.xlsx
+++ b/Remote/ug16/Données/04/dist_meg_ug16_d04.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Mickaël\Documents\Office\Gaines rectangulaires\bases\ug16\Données\04\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Mickaël\Documents\GitHub\ductaironline\ductaironline\Remote\ug16\Données\04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB03BCF-402C-4B2F-8364-205FBD9A69BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA92C5B-A9C9-479E-A069-FA48FB1C3CFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B288C0A9-0311-4EE7-B3E1-F9A55327F99A}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="dist_mes" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="destmes">dist_mes!$A$4:$A$115</definedName>
+    <definedName name="destmes">dist_mes!$A$4:$A$103</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,347 +39,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
   <si>
     <t>Date</t>
   </si>
   <si>
-    <t xml:space="preserve">1 - Ain  </t>
-  </si>
-  <si>
-    <t>1 - Ain  Montagne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 - Aisne  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 - Allier  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 - Alpes-de-Haute-Provence  </t>
-  </si>
-  <si>
-    <t>4 - Alpes-de-Haute-Provence  Haute montagne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 - Hautes-Alpes  </t>
-  </si>
-  <si>
-    <t>5 - Hautes-Alpes  Haute montagne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 - Alpes-Maritimes  </t>
-  </si>
-  <si>
-    <t>6 - Alpes-Maritimes  Haute montagne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 - Ardeche  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 - Ardennes  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">9 - Ariege  </t>
-  </si>
-  <si>
-    <t>9 - Ariege  Haute montagne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 - Aube  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">11 - Aude  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">12 - Aveyron </t>
-  </si>
-  <si>
-    <t xml:space="preserve">13 - Bouches-du-Rhone </t>
-  </si>
-  <si>
-    <t xml:space="preserve">14 - Calvados </t>
-  </si>
-  <si>
-    <t xml:space="preserve">15 - Cantal </t>
-  </si>
-  <si>
-    <t xml:space="preserve">16 - Charente </t>
-  </si>
-  <si>
-    <t xml:space="preserve">17 - Charente-Maritime </t>
-  </si>
-  <si>
-    <t>17 - Charente-Maritime Ile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18 - Cher </t>
-  </si>
-  <si>
-    <t xml:space="preserve">19 - Correze </t>
-  </si>
-  <si>
-    <t xml:space="preserve">20 - Corse </t>
-  </si>
-  <si>
-    <t xml:space="preserve">21 - Cote-d'Or </t>
-  </si>
-  <si>
-    <t xml:space="preserve">22 - Cotes d'Armor </t>
-  </si>
-  <si>
-    <t>22 - Cotes d'Armor Ile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23 - Creuse </t>
-  </si>
-  <si>
-    <t xml:space="preserve">24 - Dordogne </t>
-  </si>
-  <si>
-    <t xml:space="preserve">25 - Doubs </t>
-  </si>
-  <si>
-    <t xml:space="preserve">26 - Drome </t>
-  </si>
-  <si>
-    <t xml:space="preserve">27 - Eure </t>
-  </si>
-  <si>
-    <t xml:space="preserve">28 - Eure-et-Loir </t>
-  </si>
-  <si>
-    <t xml:space="preserve">29 - Finistere </t>
-  </si>
-  <si>
-    <t>29 - Finistere Ile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30 - Gard </t>
-  </si>
-  <si>
-    <t xml:space="preserve">31 - Haute-Garonne </t>
-  </si>
-  <si>
-    <t xml:space="preserve">32 - Gers </t>
-  </si>
-  <si>
-    <t xml:space="preserve">33 - Gironde </t>
-  </si>
-  <si>
-    <t xml:space="preserve">34 - Herault </t>
-  </si>
-  <si>
-    <t xml:space="preserve">35 - Ille-et-Vilaine </t>
-  </si>
-  <si>
-    <t xml:space="preserve">36 - Indre </t>
-  </si>
-  <si>
-    <t xml:space="preserve">37 - Indre-et-Loire  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">38 - Isere </t>
-  </si>
-  <si>
-    <t>38 - Isere Haute montagne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39 - Jura </t>
-  </si>
-  <si>
-    <t xml:space="preserve">40 - Landes </t>
-  </si>
-  <si>
-    <t xml:space="preserve">41 - Loir-et-Cher </t>
-  </si>
-  <si>
-    <t xml:space="preserve">42 - Loire </t>
-  </si>
-  <si>
-    <t xml:space="preserve">43 - Haute-Loire </t>
-  </si>
-  <si>
-    <t xml:space="preserve">44 - Loire-Atlantique </t>
-  </si>
-  <si>
-    <t xml:space="preserve">45 - Loiret </t>
-  </si>
-  <si>
-    <t xml:space="preserve">46 - Lot </t>
-  </si>
-  <si>
-    <t xml:space="preserve">47 - Lot-et-Garonne </t>
-  </si>
-  <si>
-    <t xml:space="preserve">48 - Lozere </t>
-  </si>
-  <si>
-    <t xml:space="preserve">49 - Maine-et-Loire </t>
-  </si>
-  <si>
-    <t xml:space="preserve">50 - Manche </t>
-  </si>
-  <si>
-    <t>50 - Manche Ile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51 - Marne </t>
-  </si>
-  <si>
-    <t xml:space="preserve">52 - Haute-Marne </t>
-  </si>
-  <si>
-    <t xml:space="preserve">53 - Mayenne </t>
-  </si>
-  <si>
-    <t xml:space="preserve">54 - Meurthe-et-Moselle </t>
-  </si>
-  <si>
-    <t xml:space="preserve">55 - Meuse </t>
-  </si>
-  <si>
-    <t xml:space="preserve">56 - Morbihan </t>
-  </si>
-  <si>
-    <t>56 - Morbihan Ile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57 - Moselle </t>
-  </si>
-  <si>
-    <t xml:space="preserve">58 - Nievre </t>
-  </si>
-  <si>
-    <t xml:space="preserve">59 - Nord </t>
-  </si>
-  <si>
-    <t xml:space="preserve">60 - Oise </t>
-  </si>
-  <si>
-    <t xml:space="preserve">61 - Orne </t>
-  </si>
-  <si>
-    <t xml:space="preserve">62 - Pas-de-Calais </t>
-  </si>
-  <si>
-    <t xml:space="preserve">63 - Puy-de-Dome </t>
-  </si>
-  <si>
-    <t xml:space="preserve">64 - Pyrenees-Atlantiques </t>
-  </si>
-  <si>
-    <t>64 - Pyrenees-Atlantiques Haute montagne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65 - Hautes-Pyrenees </t>
-  </si>
-  <si>
-    <t>65 - Hautes-Pyrenees Haute montagne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66 - Pyrenees-Orientales </t>
-  </si>
-  <si>
-    <t>66 - Pyrenees-Orientales Haute montagne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67 - Bas-Rhin </t>
-  </si>
-  <si>
-    <t xml:space="preserve">68 - Haut-Rhin </t>
-  </si>
-  <si>
-    <t xml:space="preserve">69 - Rhone </t>
-  </si>
-  <si>
-    <t xml:space="preserve">70 - Haute-Saone </t>
-  </si>
-  <si>
-    <t xml:space="preserve">71 - Saone-et-Loire </t>
-  </si>
-  <si>
-    <t xml:space="preserve">72 - Sarthe </t>
-  </si>
-  <si>
-    <t xml:space="preserve">73 - Savoie </t>
-  </si>
-  <si>
-    <t>73 - Savoie Haute montagne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74 - Haute-Savoie </t>
-  </si>
-  <si>
-    <t>74 - Haute-Savoie Haute montagne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75 - Paris </t>
-  </si>
-  <si>
-    <t xml:space="preserve">76 - Seine-Maritime </t>
-  </si>
-  <si>
-    <t xml:space="preserve">77 - Seine-et-Marne </t>
-  </si>
-  <si>
-    <t xml:space="preserve">78 - Yvelines </t>
-  </si>
-  <si>
-    <t xml:space="preserve">79 - Deux-Sevres </t>
-  </si>
-  <si>
-    <t xml:space="preserve">80 - Somme </t>
-  </si>
-  <si>
-    <t xml:space="preserve">81 - Tarn </t>
-  </si>
-  <si>
-    <t xml:space="preserve">82 - Tarn-et-Garonne </t>
-  </si>
-  <si>
-    <t xml:space="preserve">83 - Var </t>
-  </si>
-  <si>
-    <t xml:space="preserve">84 - Vaucluse </t>
-  </si>
-  <si>
-    <t xml:space="preserve">85 - Vendee </t>
-  </si>
-  <si>
-    <t>85 - Vendee Ile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">86 - Vienne </t>
-  </si>
-  <si>
-    <t xml:space="preserve">87 - Haute-Vienne </t>
-  </si>
-  <si>
-    <t xml:space="preserve">88 - Vosges </t>
-  </si>
-  <si>
-    <t xml:space="preserve">89 - Yonne </t>
-  </si>
-  <si>
-    <t xml:space="preserve">90 - Terr. de Belfort </t>
-  </si>
-  <si>
-    <t xml:space="preserve">91 - Essonne </t>
-  </si>
-  <si>
-    <t xml:space="preserve">92 - Hauts-de-Seine </t>
-  </si>
-  <si>
-    <t xml:space="preserve">93 - Seine-St-Denis </t>
-  </si>
-  <si>
-    <t xml:space="preserve">94 - Val-de-Marne </t>
-  </si>
-  <si>
-    <t xml:space="preserve">95 - Val-D'Oise </t>
-  </si>
-  <si>
     <t>T1</t>
   </si>
   <si>
@@ -423,6 +87,300 @@
   </si>
   <si>
     <t>Départments</t>
+  </si>
+  <si>
+    <t>Fournisseur 1</t>
+  </si>
+  <si>
+    <t>Fournisseur 2</t>
+  </si>
+  <si>
+    <t>Fournisseur 3</t>
+  </si>
+  <si>
+    <t>01 - Ain</t>
+  </si>
+  <si>
+    <t>02 - Aisne</t>
+  </si>
+  <si>
+    <t>03 - Allier</t>
+  </si>
+  <si>
+    <t>04 - Alpes-de-Haute-Provence</t>
+  </si>
+  <si>
+    <t>05 - Hautes-Alpes</t>
+  </si>
+  <si>
+    <t>06 - Alpes-Maritimes</t>
+  </si>
+  <si>
+    <t>07 - Ardèche</t>
+  </si>
+  <si>
+    <t>08 - Ardennes</t>
+  </si>
+  <si>
+    <t>09 - Ariège</t>
+  </si>
+  <si>
+    <t>10 - Aube</t>
+  </si>
+  <si>
+    <t>11 - Aude</t>
+  </si>
+  <si>
+    <t>12 - Aveyron</t>
+  </si>
+  <si>
+    <t>13 - Bouches-du-Rhône</t>
+  </si>
+  <si>
+    <t>14 - Calvados</t>
+  </si>
+  <si>
+    <t>15 - Cantal</t>
+  </si>
+  <si>
+    <t>16 - Charente</t>
+  </si>
+  <si>
+    <t>17 - Charente-Maritime</t>
+  </si>
+  <si>
+    <t>18 - Cher</t>
+  </si>
+  <si>
+    <t>19 - Corrèze</t>
+  </si>
+  <si>
+    <t>20 - Corse</t>
+  </si>
+  <si>
+    <t>21 - Côte-d'Or</t>
+  </si>
+  <si>
+    <t>22 - Côtes-d'Armor</t>
+  </si>
+  <si>
+    <t>23 - Creuse</t>
+  </si>
+  <si>
+    <t>24 - Dordogne</t>
+  </si>
+  <si>
+    <t>25 - Doubs</t>
+  </si>
+  <si>
+    <t>26 - Drôme</t>
+  </si>
+  <si>
+    <t>27 - Eure</t>
+  </si>
+  <si>
+    <t>28 - Eure-et-Loir</t>
+  </si>
+  <si>
+    <t>29 - Finistère</t>
+  </si>
+  <si>
+    <t>30 - Gard</t>
+  </si>
+  <si>
+    <t>31 - Haute-Garonne</t>
+  </si>
+  <si>
+    <t>32 - Gers</t>
+  </si>
+  <si>
+    <t>33 - Gironde</t>
+  </si>
+  <si>
+    <t>34 - Hérault</t>
+  </si>
+  <si>
+    <t>35 - Ille-et-Vilaine</t>
+  </si>
+  <si>
+    <t>36 - Indre</t>
+  </si>
+  <si>
+    <t>37 - Indre-et-Loire</t>
+  </si>
+  <si>
+    <t>38 - Isère</t>
+  </si>
+  <si>
+    <t>39 - Jura</t>
+  </si>
+  <si>
+    <t>40 - Landes</t>
+  </si>
+  <si>
+    <t>41 - Loir-et-Cher</t>
+  </si>
+  <si>
+    <t>42 - Loire</t>
+  </si>
+  <si>
+    <t>43 - Haute-Loire</t>
+  </si>
+  <si>
+    <t>44 - Loire-Atlantique</t>
+  </si>
+  <si>
+    <t>45 - Loiret</t>
+  </si>
+  <si>
+    <t>46 - Lot</t>
+  </si>
+  <si>
+    <t>47 - Lot-et-Garonne</t>
+  </si>
+  <si>
+    <t>48 - Lozère</t>
+  </si>
+  <si>
+    <t>49 - Maine-et-Loire</t>
+  </si>
+  <si>
+    <t>50 - Manche</t>
+  </si>
+  <si>
+    <t>51 - Marne</t>
+  </si>
+  <si>
+    <t>52 - Haute-Marne</t>
+  </si>
+  <si>
+    <t>53 - Mayenne</t>
+  </si>
+  <si>
+    <t>54 - Meurthe-et-Moselle</t>
+  </si>
+  <si>
+    <t>55 - Meuse</t>
+  </si>
+  <si>
+    <t>56 - Morbihan</t>
+  </si>
+  <si>
+    <t>57 - Moselle</t>
+  </si>
+  <si>
+    <t>58 - Nièvre</t>
+  </si>
+  <si>
+    <t>59 - Nord</t>
+  </si>
+  <si>
+    <t>60 - Oise</t>
+  </si>
+  <si>
+    <t>61 - Orne</t>
+  </si>
+  <si>
+    <t>62 - Pas-de-Calais</t>
+  </si>
+  <si>
+    <t>63 - Puy-de-Dôme</t>
+  </si>
+  <si>
+    <t>64 - Pyrénées-Atlantiques</t>
+  </si>
+  <si>
+    <t>65 - Hautes-Pyrénées</t>
+  </si>
+  <si>
+    <t>66 - Pyrénées-Orientales</t>
+  </si>
+  <si>
+    <t>67 - Bas-Rhin</t>
+  </si>
+  <si>
+    <t>68 - Haut-Rhin</t>
+  </si>
+  <si>
+    <t>69 - Rhône</t>
+  </si>
+  <si>
+    <t>70 - Haute-Saône</t>
+  </si>
+  <si>
+    <t>71 - Saône-et-Loire</t>
+  </si>
+  <si>
+    <t>72 - Sarthe</t>
+  </si>
+  <si>
+    <t>73 - Savoie</t>
+  </si>
+  <si>
+    <t>74 - Haute-Savoie</t>
+  </si>
+  <si>
+    <t>75 - Paris</t>
+  </si>
+  <si>
+    <t>76 - Seine-Maritime</t>
+  </si>
+  <si>
+    <t>77 - Seine-et-Marne</t>
+  </si>
+  <si>
+    <t>78 - Yvelines</t>
+  </si>
+  <si>
+    <t>79 - Deux-Sèvres</t>
+  </si>
+  <si>
+    <t>80 - Somme</t>
+  </si>
+  <si>
+    <t>81 - Tarn</t>
+  </si>
+  <si>
+    <t>82 - Tarn-et-Garonne</t>
+  </si>
+  <si>
+    <t>83 - Var</t>
+  </si>
+  <si>
+    <t>84 - Vaucluse</t>
+  </si>
+  <si>
+    <t>85 - Vendée</t>
+  </si>
+  <si>
+    <t>86 - Vienne</t>
+  </si>
+  <si>
+    <t>87 - Haute-Vienne</t>
+  </si>
+  <si>
+    <t>88 - Vosges</t>
+  </si>
+  <si>
+    <t>89 - Yonne</t>
+  </si>
+  <si>
+    <t>90 - Territoire de Belfort</t>
+  </si>
+  <si>
+    <t>91 - Essonne</t>
+  </si>
+  <si>
+    <t>92 - Hauts-de-Seine</t>
+  </si>
+  <si>
+    <t>93 - Seine-Saint-Denis</t>
+  </si>
+  <si>
+    <t>94 - Val-de-Marne</t>
+  </si>
+  <si>
+    <t>95 - Val-d'Oise</t>
   </si>
 </sst>
 </file>
@@ -459,7 +417,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -523,11 +481,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -553,6 +524,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -891,10 +865,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E58A160B-6828-4715-B44A-1D633FB737A7}">
   <sheetPr codeName="Feuil7"/>
-  <dimension ref="A1:P115"/>
+  <dimension ref="A1:P106"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+      <selection activeCell="M108" sqref="M108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -905,56 +879,56 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>113</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>114</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>115</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>116</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>117</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>118</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>119</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>120</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>121</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>122</v>
+        <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>123</v>
+        <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="N1" t="s">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="13"/>
+      <c r="A2" s="16"/>
       <c r="B2" s="1">
         <v>10</v>
       </c>
@@ -999,7 +973,7 @@
       </c>
     </row>
     <row r="3" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="13"/>
+      <c r="A3" s="16"/>
       <c r="B3" s="6">
         <v>19</v>
       </c>
@@ -1045,5602 +1019,5142 @@
     </row>
     <row r="4" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="B4" s="11">
-        <v>35</v>
+        <v>43.99</v>
       </c>
       <c r="C4" s="11">
-        <v>40</v>
+        <v>59.01</v>
       </c>
       <c r="D4" s="11">
-        <v>45</v>
+        <v>72.06</v>
       </c>
       <c r="E4" s="11">
-        <v>45</v>
+        <v>73.5</v>
       </c>
       <c r="F4" s="11">
-        <v>50</v>
+        <v>82.66</v>
       </c>
       <c r="G4" s="11">
-        <v>55</v>
+        <v>90.69</v>
       </c>
       <c r="H4" s="11">
-        <v>55</v>
+        <v>99.56</v>
       </c>
       <c r="I4" s="11">
-        <v>55</v>
+        <v>108.01</v>
       </c>
       <c r="J4" s="11">
-        <v>60</v>
+        <v>116.32</v>
       </c>
       <c r="K4" s="11">
-        <v>60</v>
+        <v>116.32</v>
       </c>
       <c r="L4" s="11">
-        <v>55</v>
+        <v>116.32</v>
       </c>
       <c r="M4" s="11">
-        <v>45</v>
+        <v>116.32</v>
       </c>
       <c r="N4" s="11">
-        <v>40</v>
+        <v>116.32</v>
       </c>
       <c r="O4" s="11">
-        <v>35</v>
+        <v>116.32</v>
       </c>
       <c r="P4" s="12">
-        <v>43794</v>
+        <v>45686</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B5" s="11">
-        <v>45</v>
+        <v>38.380000000000003</v>
       </c>
       <c r="C5" s="11">
-        <v>50</v>
+        <v>48.23</v>
       </c>
       <c r="D5" s="11">
-        <v>50</v>
+        <v>57.95</v>
       </c>
       <c r="E5" s="11">
-        <v>55</v>
+        <v>59.04</v>
       </c>
       <c r="F5" s="11">
-        <v>60</v>
+        <v>66.75</v>
       </c>
       <c r="G5" s="11">
-        <v>65</v>
+        <v>73.33</v>
       </c>
       <c r="H5" s="11">
-        <v>65</v>
+        <v>79.78</v>
       </c>
       <c r="I5" s="11">
-        <v>70</v>
+        <v>86.52</v>
       </c>
       <c r="J5" s="11">
-        <v>75</v>
+        <v>93.39</v>
       </c>
       <c r="K5" s="11">
-        <v>70</v>
+        <v>93.39</v>
       </c>
       <c r="L5" s="11">
-        <v>65</v>
+        <v>93.39</v>
       </c>
       <c r="M5" s="11">
-        <v>55</v>
+        <v>93.39</v>
       </c>
       <c r="N5" s="11">
-        <v>45</v>
+        <v>93.39</v>
       </c>
       <c r="O5" s="11">
-        <v>45</v>
+        <v>93.39</v>
       </c>
       <c r="P5" s="12">
-        <v>43794</v>
+        <v>45686</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B6" s="11">
-        <v>30</v>
+        <v>45.36</v>
       </c>
       <c r="C6" s="11">
-        <v>30</v>
+        <v>58.26</v>
       </c>
       <c r="D6" s="11">
-        <v>35</v>
+        <v>70.680000000000007</v>
       </c>
       <c r="E6" s="11">
-        <v>40</v>
+        <v>72.34</v>
       </c>
       <c r="F6" s="11">
-        <v>40</v>
+        <v>81.209999999999994</v>
       </c>
       <c r="G6" s="11">
-        <v>45</v>
+        <v>88.95</v>
       </c>
       <c r="H6" s="11">
-        <v>45</v>
+        <v>96.98</v>
       </c>
       <c r="I6" s="11">
-        <v>45</v>
+        <v>104.86</v>
       </c>
       <c r="J6" s="11">
-        <v>50</v>
+        <v>113.17</v>
       </c>
       <c r="K6" s="11">
-        <v>45</v>
+        <v>113.17</v>
       </c>
       <c r="L6" s="11">
-        <v>45</v>
+        <v>113.17</v>
       </c>
       <c r="M6" s="11">
-        <v>35</v>
+        <v>113.17</v>
       </c>
       <c r="N6" s="11">
-        <v>30</v>
+        <v>113.17</v>
       </c>
       <c r="O6" s="11">
-        <v>30</v>
+        <v>113.17</v>
       </c>
       <c r="P6" s="12">
-        <v>43794</v>
+        <v>45686</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B7" s="11">
-        <v>30</v>
+        <v>61.43</v>
       </c>
       <c r="C7" s="11">
-        <v>35</v>
+        <v>78.25</v>
       </c>
       <c r="D7" s="11">
-        <v>40</v>
+        <v>96.94</v>
       </c>
       <c r="E7" s="11">
-        <v>40</v>
+        <v>99.14</v>
       </c>
       <c r="F7" s="11">
-        <v>45</v>
+        <v>110.88</v>
       </c>
       <c r="G7" s="11">
-        <v>45</v>
+        <v>121.2</v>
       </c>
       <c r="H7" s="11">
-        <v>50</v>
+        <v>132.35</v>
       </c>
       <c r="I7" s="11">
-        <v>50</v>
+        <v>142.97</v>
       </c>
       <c r="J7" s="11">
-        <v>55</v>
+        <v>154.41999999999999</v>
       </c>
       <c r="K7" s="11">
-        <v>50</v>
+        <v>154.41999999999999</v>
       </c>
       <c r="L7" s="11">
-        <v>50</v>
+        <v>154.41999999999999</v>
       </c>
       <c r="M7" s="11">
-        <v>40</v>
+        <v>154.41999999999999</v>
       </c>
       <c r="N7" s="11">
-        <v>35</v>
+        <v>154.41999999999999</v>
       </c>
       <c r="O7" s="11">
-        <v>30</v>
+        <v>154.41999999999999</v>
       </c>
       <c r="P7" s="12">
-        <v>43794</v>
+        <v>45686</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B8" s="11">
-        <v>50</v>
+        <v>61.43</v>
       </c>
       <c r="C8" s="11">
-        <v>55</v>
+        <v>78.25</v>
       </c>
       <c r="D8" s="11">
-        <v>60</v>
+        <v>96.94</v>
       </c>
       <c r="E8" s="11">
-        <v>65</v>
+        <v>99.14</v>
       </c>
       <c r="F8" s="11">
-        <v>70</v>
+        <v>110.88</v>
       </c>
       <c r="G8" s="11">
-        <v>75</v>
+        <v>121.2</v>
       </c>
       <c r="H8" s="11">
-        <v>75</v>
+        <v>132.35</v>
       </c>
       <c r="I8" s="11">
-        <v>80</v>
+        <v>142.97</v>
       </c>
       <c r="J8" s="11">
-        <v>85</v>
+        <v>154.41999999999999</v>
       </c>
       <c r="K8" s="11">
-        <v>80</v>
+        <v>154.41999999999999</v>
       </c>
       <c r="L8" s="11">
-        <v>75</v>
+        <v>154.41999999999999</v>
       </c>
       <c r="M8" s="11">
-        <v>60</v>
+        <v>154.41999999999999</v>
       </c>
       <c r="N8" s="11">
-        <v>55</v>
+        <v>154.41999999999999</v>
       </c>
       <c r="O8" s="11">
-        <v>50</v>
+        <v>154.41999999999999</v>
       </c>
       <c r="P8" s="12">
-        <v>43794</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>45686</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B9" s="11">
-        <v>60</v>
+        <v>56.18</v>
       </c>
       <c r="C9" s="11">
-        <v>65</v>
+        <v>71.69</v>
       </c>
       <c r="D9" s="11">
-        <v>70</v>
+        <v>88.22</v>
       </c>
       <c r="E9" s="11">
-        <v>75</v>
+        <v>90.09</v>
       </c>
       <c r="F9" s="11">
-        <v>85</v>
+        <v>101.12</v>
       </c>
       <c r="G9" s="11">
-        <v>90</v>
+        <v>110.87</v>
       </c>
       <c r="H9" s="11">
-        <v>90</v>
+        <v>120.77</v>
       </c>
       <c r="I9" s="11">
-        <v>95</v>
+        <v>130.54</v>
       </c>
       <c r="J9" s="11">
-        <v>100</v>
+        <v>140.6</v>
       </c>
       <c r="K9" s="11">
-        <v>95</v>
+        <v>140.6</v>
       </c>
       <c r="L9" s="11">
-        <v>90</v>
+        <v>140.6</v>
       </c>
       <c r="M9" s="11">
-        <v>75</v>
+        <v>140.6</v>
       </c>
       <c r="N9" s="11">
-        <v>65</v>
+        <v>140.6</v>
       </c>
       <c r="O9" s="11">
-        <v>60</v>
+        <v>140.6</v>
       </c>
       <c r="P9" s="12">
-        <v>43794</v>
+        <v>45686</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B10" s="11">
-        <v>45</v>
+        <v>52.82</v>
       </c>
       <c r="C10" s="11">
-        <v>50</v>
+        <v>67.05</v>
       </c>
       <c r="D10" s="11">
-        <v>55</v>
+        <v>82.08</v>
       </c>
       <c r="E10" s="11">
-        <v>60</v>
+        <v>83.95</v>
       </c>
       <c r="F10" s="11">
-        <v>65</v>
+        <v>93.82</v>
       </c>
       <c r="G10" s="11">
-        <v>70</v>
+        <v>103.27</v>
       </c>
       <c r="H10" s="11">
-        <v>70</v>
+        <v>112.31</v>
       </c>
       <c r="I10" s="11">
-        <v>75</v>
+        <v>121.2</v>
       </c>
       <c r="J10" s="11">
-        <v>80</v>
+        <v>131.04</v>
       </c>
       <c r="K10" s="11">
-        <v>75</v>
+        <v>131.04</v>
       </c>
       <c r="L10" s="11">
-        <v>70</v>
+        <v>131.04</v>
       </c>
       <c r="M10" s="11">
-        <v>60</v>
+        <v>131.04</v>
       </c>
       <c r="N10" s="11">
-        <v>50</v>
+        <v>131.04</v>
       </c>
       <c r="O10" s="11">
-        <v>45</v>
+        <v>131.04</v>
       </c>
       <c r="P10" s="12">
-        <v>43794</v>
+        <v>45686</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B11" s="11">
-        <v>55</v>
+        <v>42.9</v>
       </c>
       <c r="C11" s="11">
-        <v>65</v>
+        <v>52.05</v>
       </c>
       <c r="D11" s="11">
-        <v>65</v>
+        <v>63.26</v>
       </c>
       <c r="E11" s="11">
-        <v>75</v>
+        <v>64.459999999999994</v>
       </c>
       <c r="F11" s="11">
-        <v>80</v>
+        <v>72.47</v>
       </c>
       <c r="G11" s="11">
-        <v>85</v>
+        <v>79.48</v>
       </c>
       <c r="H11" s="11">
-        <v>85</v>
+        <v>86.97</v>
       </c>
       <c r="I11" s="11">
-        <v>90</v>
+        <v>93.82</v>
       </c>
       <c r="J11" s="11">
-        <v>95</v>
+        <v>101.7</v>
       </c>
       <c r="K11" s="11">
-        <v>90</v>
+        <v>101.7</v>
       </c>
       <c r="L11" s="11">
-        <v>85</v>
+        <v>101.7</v>
       </c>
       <c r="M11" s="11">
-        <v>70</v>
+        <v>101.7</v>
       </c>
       <c r="N11" s="11">
-        <v>60</v>
+        <v>101.7</v>
       </c>
       <c r="O11" s="11">
-        <v>55</v>
+        <v>101.7</v>
       </c>
       <c r="P11" s="12">
-        <v>43794</v>
+        <v>45686</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B12" s="11">
-        <v>50</v>
+        <v>54.76</v>
       </c>
       <c r="C12" s="11">
-        <v>55</v>
+        <v>69.930000000000007</v>
       </c>
       <c r="D12" s="11">
-        <v>60</v>
+        <v>85.39</v>
       </c>
       <c r="E12" s="11">
-        <v>65</v>
+        <v>87.81</v>
       </c>
       <c r="F12" s="11">
-        <v>70</v>
+        <v>98.12</v>
       </c>
       <c r="G12" s="11">
-        <v>75</v>
+        <v>107.72</v>
       </c>
       <c r="H12" s="11">
-        <v>80</v>
+        <v>117.16</v>
       </c>
       <c r="I12" s="11">
-        <v>80</v>
+        <v>126.93</v>
       </c>
       <c r="J12" s="11">
-        <v>90</v>
+        <v>136.78</v>
       </c>
       <c r="K12" s="11">
-        <v>85</v>
+        <v>136.78</v>
       </c>
       <c r="L12" s="11">
-        <v>75</v>
+        <v>136.78</v>
       </c>
       <c r="M12" s="11">
-        <v>65</v>
+        <v>136.78</v>
       </c>
       <c r="N12" s="11">
-        <v>55</v>
+        <v>136.78</v>
       </c>
       <c r="O12" s="11">
-        <v>50</v>
+        <v>136.78</v>
       </c>
       <c r="P12" s="12">
-        <v>43794</v>
+        <v>45686</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="B13" s="11">
-        <v>60</v>
+        <v>39.5</v>
       </c>
       <c r="C13" s="11">
-        <v>70</v>
+        <v>49.3</v>
       </c>
       <c r="D13" s="11">
-        <v>75</v>
+        <v>59.9</v>
       </c>
       <c r="E13" s="11">
-        <v>80</v>
+        <v>61.05</v>
       </c>
       <c r="F13" s="11">
-        <v>85</v>
+        <v>68.650000000000006</v>
       </c>
       <c r="G13" s="11">
-        <v>90</v>
+        <v>75.31</v>
       </c>
       <c r="H13" s="11">
-        <v>95</v>
+        <v>82.39</v>
       </c>
       <c r="I13" s="11">
-        <v>100</v>
+        <v>88.89</v>
       </c>
       <c r="J13" s="11">
-        <v>105</v>
+        <v>96.34</v>
       </c>
       <c r="K13" s="11">
-        <v>100</v>
+        <v>96.34</v>
       </c>
       <c r="L13" s="11">
-        <v>95</v>
+        <v>96.34</v>
       </c>
       <c r="M13" s="11">
-        <v>75</v>
+        <v>96.34</v>
       </c>
       <c r="N13" s="11">
-        <v>65</v>
+        <v>96.34</v>
       </c>
       <c r="O13" s="11">
-        <v>60</v>
+        <v>96.34</v>
       </c>
       <c r="P13" s="12">
-        <v>43794</v>
+        <v>45686</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B14" s="11">
-        <v>45</v>
+        <v>54.76</v>
       </c>
       <c r="C14" s="11">
-        <v>45</v>
+        <v>69.930000000000007</v>
       </c>
       <c r="D14" s="11">
-        <v>50</v>
+        <v>85.39</v>
       </c>
       <c r="E14" s="11">
-        <v>55</v>
+        <v>87.81</v>
       </c>
       <c r="F14" s="11">
-        <v>60</v>
+        <v>98.12</v>
       </c>
       <c r="G14" s="11">
-        <v>65</v>
+        <v>107.72</v>
       </c>
       <c r="H14" s="11">
-        <v>65</v>
+        <v>117.16</v>
       </c>
       <c r="I14" s="11">
-        <v>70</v>
+        <v>126.93</v>
       </c>
       <c r="J14" s="11">
-        <v>70</v>
+        <v>136.78</v>
       </c>
       <c r="K14" s="11">
-        <v>70</v>
+        <v>136.78</v>
       </c>
       <c r="L14" s="11">
-        <v>65</v>
+        <v>136.78</v>
       </c>
       <c r="M14" s="11">
-        <v>55</v>
+        <v>136.78</v>
       </c>
       <c r="N14" s="11">
-        <v>45</v>
+        <v>136.78</v>
       </c>
       <c r="O14" s="11">
-        <v>45</v>
+        <v>136.78</v>
       </c>
       <c r="P14" s="12">
-        <v>43794</v>
+        <v>45686</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="B15" s="11">
-        <v>35</v>
+        <v>54.76</v>
       </c>
       <c r="C15" s="11">
-        <v>35</v>
+        <v>69.930000000000007</v>
       </c>
       <c r="D15" s="11">
-        <v>40</v>
+        <v>85.39</v>
       </c>
       <c r="E15" s="11">
-        <v>40</v>
+        <v>87.81</v>
       </c>
       <c r="F15" s="11">
-        <v>45</v>
+        <v>98.12</v>
       </c>
       <c r="G15" s="11">
-        <v>50</v>
+        <v>107.72</v>
       </c>
       <c r="H15" s="11">
-        <v>50</v>
+        <v>117.16</v>
       </c>
       <c r="I15" s="11">
-        <v>50</v>
+        <v>126.93</v>
       </c>
       <c r="J15" s="11">
-        <v>55</v>
+        <v>136.78</v>
       </c>
       <c r="K15" s="11">
-        <v>55</v>
+        <v>136.78</v>
       </c>
       <c r="L15" s="11">
-        <v>50</v>
+        <v>136.78</v>
       </c>
       <c r="M15" s="11">
-        <v>40</v>
+        <v>136.78</v>
       </c>
       <c r="N15" s="11">
-        <v>35</v>
+        <v>136.78</v>
       </c>
       <c r="O15" s="11">
-        <v>35</v>
+        <v>136.78</v>
       </c>
       <c r="P15" s="12">
-        <v>43794</v>
+        <v>45686</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B16" s="11">
-        <v>45</v>
+        <v>47.98</v>
       </c>
       <c r="C16" s="11">
-        <v>50</v>
+        <v>61.64</v>
       </c>
       <c r="D16" s="11">
-        <v>55</v>
+        <v>75.16</v>
       </c>
       <c r="E16" s="11">
-        <v>60</v>
+        <v>76.94</v>
       </c>
       <c r="F16" s="11">
-        <v>65</v>
+        <v>86.04</v>
       </c>
       <c r="G16" s="11">
-        <v>65</v>
+        <v>94.73</v>
       </c>
       <c r="H16" s="11">
-        <v>70</v>
+        <v>102.87</v>
       </c>
       <c r="I16" s="11">
-        <v>70</v>
+        <v>111.13</v>
       </c>
       <c r="J16" s="11">
-        <v>75</v>
+        <v>120.25</v>
       </c>
       <c r="K16" s="11">
-        <v>75</v>
+        <v>120.25</v>
       </c>
       <c r="L16" s="11">
-        <v>65</v>
+        <v>120.25</v>
       </c>
       <c r="M16" s="11">
-        <v>55</v>
+        <v>120.25</v>
       </c>
       <c r="N16" s="11">
-        <v>50</v>
+        <v>120.25</v>
       </c>
       <c r="O16" s="11">
-        <v>45</v>
+        <v>120.25</v>
       </c>
       <c r="P16" s="12">
-        <v>43794</v>
+        <v>45686</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="B17" s="11">
-        <v>55</v>
+        <v>11.23</v>
       </c>
       <c r="C17" s="11">
-        <v>60</v>
+        <v>14.22</v>
       </c>
       <c r="D17" s="11">
-        <v>65</v>
+        <v>17.670000000000002</v>
       </c>
       <c r="E17" s="11">
-        <v>70</v>
+        <v>18.329999999999998</v>
       </c>
       <c r="F17" s="11">
-        <v>75</v>
+        <v>21.57</v>
       </c>
       <c r="G17" s="11">
-        <v>80</v>
+        <v>21.85</v>
       </c>
       <c r="H17" s="11">
-        <v>85</v>
+        <v>22.27</v>
       </c>
       <c r="I17" s="11">
-        <v>85</v>
+        <v>22.68</v>
       </c>
       <c r="J17" s="11">
-        <v>90</v>
+        <v>24.41</v>
       </c>
       <c r="K17" s="11">
-        <v>85</v>
+        <v>24.41</v>
       </c>
       <c r="L17" s="11">
-        <v>80</v>
+        <v>24.41</v>
       </c>
       <c r="M17" s="11">
-        <v>65</v>
+        <v>24.41</v>
       </c>
       <c r="N17" s="11">
-        <v>60</v>
+        <v>24.41</v>
       </c>
       <c r="O17" s="11">
-        <v>55</v>
+        <v>24.41</v>
       </c>
       <c r="P17" s="12">
-        <v>43794</v>
+        <v>45686</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="B18" s="11">
-        <v>30</v>
+        <v>50.22</v>
       </c>
       <c r="C18" s="11">
-        <v>30</v>
+        <v>64.010000000000005</v>
       </c>
       <c r="D18" s="11">
-        <v>35</v>
+        <v>78.25</v>
       </c>
       <c r="E18" s="11">
-        <v>40</v>
+        <v>80.069999999999993</v>
       </c>
       <c r="F18" s="11">
-        <v>40</v>
+        <v>89.67</v>
       </c>
       <c r="G18" s="11">
-        <v>45</v>
+        <v>98.12</v>
       </c>
       <c r="H18" s="11">
-        <v>45</v>
+        <v>107.01</v>
       </c>
       <c r="I18" s="11">
-        <v>45</v>
+        <v>116.03</v>
       </c>
       <c r="J18" s="11">
-        <v>50</v>
+        <v>124.91</v>
       </c>
       <c r="K18" s="11">
-        <v>45</v>
+        <v>124.91</v>
       </c>
       <c r="L18" s="11">
-        <v>45</v>
+        <v>124.91</v>
       </c>
       <c r="M18" s="11">
-        <v>35</v>
+        <v>124.91</v>
       </c>
       <c r="N18" s="11">
-        <v>30</v>
+        <v>124.91</v>
       </c>
       <c r="O18" s="11">
-        <v>30</v>
+        <v>124.91</v>
       </c>
       <c r="P18" s="12">
-        <v>43794</v>
+        <v>45686</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="B19" s="11">
-        <v>45</v>
+        <v>40.96</v>
       </c>
       <c r="C19" s="11">
-        <v>50</v>
+        <v>50.81</v>
       </c>
       <c r="D19" s="11">
-        <v>55</v>
+        <v>61.73</v>
       </c>
       <c r="E19" s="11">
-        <v>55</v>
+        <v>63.04</v>
       </c>
       <c r="F19" s="11">
-        <v>60</v>
+        <v>70.75</v>
       </c>
       <c r="G19" s="11">
-        <v>65</v>
+        <v>77.77</v>
       </c>
       <c r="H19" s="11">
-        <v>70</v>
+        <v>84.94</v>
       </c>
       <c r="I19" s="11">
-        <v>70</v>
+        <v>91.55</v>
       </c>
       <c r="J19" s="11">
-        <v>75</v>
+        <v>99.4</v>
       </c>
       <c r="K19" s="11">
-        <v>70</v>
+        <v>99.4</v>
       </c>
       <c r="L19" s="11">
-        <v>65</v>
+        <v>99.4</v>
       </c>
       <c r="M19" s="11">
-        <v>55</v>
+        <v>99.4</v>
       </c>
       <c r="N19" s="11">
-        <v>50</v>
+        <v>99.4</v>
       </c>
       <c r="O19" s="11">
-        <v>45</v>
+        <v>99.4</v>
       </c>
       <c r="P19" s="12">
-        <v>43794</v>
+        <v>45686</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="B20" s="11">
-        <v>40</v>
+        <v>40.96</v>
       </c>
       <c r="C20" s="11">
-        <v>45</v>
+        <v>50.81</v>
       </c>
       <c r="D20" s="11">
-        <v>45</v>
+        <v>61.73</v>
       </c>
       <c r="E20" s="11">
-        <v>50</v>
+        <v>63.04</v>
       </c>
       <c r="F20" s="11">
-        <v>55</v>
+        <v>70.75</v>
       </c>
       <c r="G20" s="11">
-        <v>60</v>
+        <v>77.77</v>
       </c>
       <c r="H20" s="11">
-        <v>60</v>
+        <v>84.94</v>
       </c>
       <c r="I20" s="11">
-        <v>60</v>
+        <v>91.55</v>
       </c>
       <c r="J20" s="11">
-        <v>65</v>
+        <v>99.4</v>
       </c>
       <c r="K20" s="11">
-        <v>65</v>
+        <v>99.4</v>
       </c>
       <c r="L20" s="11">
-        <v>60</v>
+        <v>99.4</v>
       </c>
       <c r="M20" s="11">
-        <v>50</v>
+        <v>99.4</v>
       </c>
       <c r="N20" s="11">
-        <v>40</v>
+        <v>99.4</v>
       </c>
       <c r="O20" s="11">
-        <v>40</v>
+        <v>99.4</v>
       </c>
       <c r="P20" s="12">
-        <v>43794</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>45686</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="B21" s="11">
-        <v>45</v>
+        <v>33.31</v>
       </c>
       <c r="C21" s="11">
-        <v>50</v>
+        <v>41.53</v>
       </c>
       <c r="D21" s="11">
-        <v>55</v>
+        <v>50.13</v>
       </c>
       <c r="E21" s="11">
-        <v>60</v>
+        <v>51.15</v>
       </c>
       <c r="F21" s="11">
-        <v>65</v>
+        <v>57.53</v>
       </c>
       <c r="G21" s="11">
-        <v>70</v>
+        <v>63.38</v>
       </c>
       <c r="H21" s="11">
-        <v>70</v>
+        <v>68.81</v>
       </c>
       <c r="I21" s="11">
-        <v>75</v>
+        <v>74.64</v>
       </c>
       <c r="J21" s="11">
-        <v>80</v>
+        <v>80.61</v>
       </c>
       <c r="K21" s="11">
-        <v>75</v>
+        <v>80.61</v>
       </c>
       <c r="L21" s="11">
-        <v>70</v>
+        <v>80.61</v>
       </c>
       <c r="M21" s="11">
-        <v>60</v>
+        <v>80.61</v>
       </c>
       <c r="N21" s="11">
-        <v>50</v>
+        <v>80.61</v>
       </c>
       <c r="O21" s="11">
-        <v>45</v>
+        <v>80.61</v>
       </c>
       <c r="P21" s="12">
-        <v>43794</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
+        <v>45686</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="B22" s="11">
-        <v>20</v>
+        <v>45.99</v>
       </c>
       <c r="C22" s="11">
-        <v>20</v>
+        <v>58.26</v>
       </c>
       <c r="D22" s="11">
-        <v>20</v>
+        <v>70.680000000000007</v>
       </c>
       <c r="E22" s="11">
-        <v>25</v>
+        <v>72.34</v>
       </c>
       <c r="F22" s="11">
-        <v>25</v>
+        <v>81.209999999999994</v>
       </c>
       <c r="G22" s="11">
-        <v>25</v>
+        <v>88.95</v>
       </c>
       <c r="H22" s="11">
-        <v>30</v>
+        <v>96.98</v>
       </c>
       <c r="I22" s="11">
-        <v>30</v>
+        <v>104.86</v>
       </c>
       <c r="J22" s="11">
-        <v>30</v>
+        <v>113.17</v>
       </c>
       <c r="K22" s="11">
-        <v>30</v>
+        <v>113.17</v>
       </c>
       <c r="L22" s="11">
-        <v>30</v>
+        <v>113.17</v>
       </c>
       <c r="M22" s="11">
-        <v>25</v>
+        <v>113.17</v>
       </c>
       <c r="N22" s="11">
-        <v>20</v>
+        <v>113.17</v>
       </c>
       <c r="O22" s="11">
-        <v>20</v>
+        <v>113.17</v>
       </c>
       <c r="P22" s="12">
-        <v>43794</v>
+        <v>45686</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="B23" s="11">
-        <v>35</v>
+        <v>113.6</v>
       </c>
       <c r="C23" s="11">
-        <v>40</v>
+        <v>146.21</v>
       </c>
       <c r="D23" s="11">
-        <v>45</v>
+        <v>179.12</v>
       </c>
       <c r="E23" s="11">
-        <v>50</v>
+        <v>183.35</v>
       </c>
       <c r="F23" s="11">
-        <v>50</v>
+        <v>205.27</v>
       </c>
       <c r="G23" s="11">
-        <v>55</v>
+        <v>224.75</v>
       </c>
       <c r="H23" s="11">
-        <v>55</v>
+        <v>244.52</v>
       </c>
       <c r="I23" s="11">
-        <v>60</v>
+        <v>264.29000000000002</v>
       </c>
       <c r="J23" s="11">
-        <v>65</v>
+        <v>285.35000000000002</v>
       </c>
       <c r="K23" s="11">
-        <v>60</v>
+        <v>285.35000000000002</v>
       </c>
       <c r="L23" s="11">
-        <v>55</v>
+        <v>285.35000000000002</v>
       </c>
       <c r="M23" s="11">
-        <v>45</v>
+        <v>285.35000000000002</v>
       </c>
       <c r="N23" s="11">
-        <v>40</v>
+        <v>285.35000000000002</v>
       </c>
       <c r="O23" s="11">
-        <v>35</v>
+        <v>285.35000000000002</v>
       </c>
       <c r="P23" s="12">
-        <v>43794</v>
+        <v>45686</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="B24" s="11">
-        <v>30</v>
+        <v>41.53</v>
       </c>
       <c r="C24" s="11">
-        <v>35</v>
+        <v>52.29</v>
       </c>
       <c r="D24" s="11">
-        <v>35</v>
+        <v>63.36</v>
       </c>
       <c r="E24" s="11">
-        <v>40</v>
+        <v>64.739999999999995</v>
       </c>
       <c r="F24" s="11">
-        <v>40</v>
+        <v>72.86</v>
       </c>
       <c r="G24" s="11">
-        <v>45</v>
+        <v>79.790000000000006</v>
       </c>
       <c r="H24" s="11">
-        <v>45</v>
+        <v>86.99</v>
       </c>
       <c r="I24" s="11">
-        <v>45</v>
+        <v>94.33</v>
       </c>
       <c r="J24" s="11">
-        <v>50</v>
+        <v>101.79</v>
       </c>
       <c r="K24" s="11">
-        <v>50</v>
+        <v>101.79</v>
       </c>
       <c r="L24" s="11">
-        <v>45</v>
+        <v>101.79</v>
       </c>
       <c r="M24" s="11">
-        <v>35</v>
+        <v>101.79</v>
       </c>
       <c r="N24" s="11">
-        <v>30</v>
+        <v>101.79</v>
       </c>
       <c r="O24" s="11">
-        <v>30</v>
+        <v>101.79</v>
       </c>
       <c r="P24" s="12">
-        <v>43794</v>
+        <v>45686</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="B25" s="11">
-        <v>30</v>
+        <v>30.63</v>
       </c>
       <c r="C25" s="11">
-        <v>30</v>
+        <v>37.450000000000003</v>
       </c>
       <c r="D25" s="11">
-        <v>35</v>
+        <v>44.28</v>
       </c>
       <c r="E25" s="11">
-        <v>35</v>
+        <v>44.69</v>
       </c>
       <c r="F25" s="11">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G25" s="11">
-        <v>40</v>
+        <v>56.01</v>
       </c>
       <c r="H25" s="11">
-        <v>45</v>
+        <v>61.18</v>
       </c>
       <c r="I25" s="11">
-        <v>45</v>
+        <v>66.47</v>
       </c>
       <c r="J25" s="11">
-        <v>50</v>
+        <v>72.040000000000006</v>
       </c>
       <c r="K25" s="11">
-        <v>45</v>
+        <v>72.040000000000006</v>
       </c>
       <c r="L25" s="11">
-        <v>45</v>
+        <v>72.040000000000006</v>
       </c>
       <c r="M25" s="11">
-        <v>35</v>
+        <v>72.040000000000006</v>
       </c>
       <c r="N25" s="11">
-        <v>30</v>
+        <v>72.040000000000006</v>
       </c>
       <c r="O25" s="11">
-        <v>30</v>
+        <v>72.040000000000006</v>
       </c>
       <c r="P25" s="12">
-        <v>43794</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>45686</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="B26" s="11">
-        <v>35</v>
+        <v>45.99</v>
       </c>
       <c r="C26" s="11">
-        <v>40</v>
+        <v>58.26</v>
       </c>
       <c r="D26" s="11">
-        <v>40</v>
+        <v>70.680000000000007</v>
       </c>
       <c r="E26" s="11">
-        <v>45</v>
+        <v>72.34</v>
       </c>
       <c r="F26" s="11">
-        <v>50</v>
+        <v>81.209999999999994</v>
       </c>
       <c r="G26" s="11">
-        <v>50</v>
+        <v>88.95</v>
       </c>
       <c r="H26" s="11">
-        <v>50</v>
+        <v>96.98</v>
       </c>
       <c r="I26" s="11">
-        <v>55</v>
+        <v>104.86</v>
       </c>
       <c r="J26" s="11">
-        <v>60</v>
+        <v>113.17</v>
       </c>
       <c r="K26" s="11">
-        <v>55</v>
+        <v>113.17</v>
       </c>
       <c r="L26" s="11">
-        <v>50</v>
+        <v>113.17</v>
       </c>
       <c r="M26" s="11">
-        <v>45</v>
+        <v>113.17</v>
       </c>
       <c r="N26" s="11">
-        <v>35</v>
+        <v>113.17</v>
       </c>
       <c r="O26" s="11">
-        <v>35</v>
+        <v>113.17</v>
       </c>
       <c r="P26" s="12">
-        <v>43794</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>45686</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="B27" s="11">
-        <v>25</v>
+        <v>45.99</v>
       </c>
       <c r="C27" s="11">
-        <v>30</v>
+        <v>58.26</v>
       </c>
       <c r="D27" s="11">
-        <v>30</v>
+        <v>70.680000000000007</v>
       </c>
       <c r="E27" s="11">
-        <v>30</v>
+        <v>72.34</v>
       </c>
       <c r="F27" s="11">
-        <v>35</v>
+        <v>81.209999999999994</v>
       </c>
       <c r="G27" s="11">
-        <v>35</v>
+        <v>88.95</v>
       </c>
       <c r="H27" s="11">
-        <v>40</v>
+        <v>96.98</v>
       </c>
       <c r="I27" s="11">
-        <v>40</v>
+        <v>104.86</v>
       </c>
       <c r="J27" s="11">
-        <v>40</v>
+        <v>113.17</v>
       </c>
       <c r="K27" s="11">
-        <v>40</v>
+        <v>113.17</v>
       </c>
       <c r="L27" s="11">
-        <v>35</v>
+        <v>113.17</v>
       </c>
       <c r="M27" s="11">
-        <v>30</v>
+        <v>113.17</v>
       </c>
       <c r="N27" s="11">
-        <v>25</v>
+        <v>113.17</v>
       </c>
       <c r="O27" s="11">
-        <v>25</v>
+        <v>113.17</v>
       </c>
       <c r="P27" s="12">
-        <v>43794</v>
+        <v>45686</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="B28" s="11">
-        <v>35</v>
+        <v>42.99</v>
       </c>
       <c r="C28" s="11">
-        <v>40</v>
+        <v>57.79</v>
       </c>
       <c r="D28" s="11">
-        <v>40</v>
+        <v>70.55</v>
       </c>
       <c r="E28" s="11">
-        <v>45</v>
+        <v>71.930000000000007</v>
       </c>
       <c r="F28" s="11">
-        <v>50</v>
+        <v>81.02</v>
       </c>
       <c r="G28" s="11">
-        <v>50</v>
+        <v>88.89</v>
       </c>
       <c r="H28" s="11">
-        <v>55</v>
+        <v>97.44</v>
       </c>
       <c r="I28" s="11">
-        <v>55</v>
+        <v>104.63</v>
       </c>
       <c r="J28" s="11">
-        <v>60</v>
+        <v>112.9</v>
       </c>
       <c r="K28" s="11">
-        <v>55</v>
+        <v>112.9</v>
       </c>
       <c r="L28" s="11">
-        <v>50</v>
+        <v>112.9</v>
       </c>
       <c r="M28" s="11">
-        <v>45</v>
+        <v>112.9</v>
       </c>
       <c r="N28" s="11">
-        <v>35</v>
+        <v>112.9</v>
       </c>
       <c r="O28" s="11">
-        <v>35</v>
+        <v>112.9</v>
       </c>
       <c r="P28" s="12">
-        <v>43794</v>
+        <v>45686</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="B29" s="11">
-        <v>120</v>
+        <v>50.04</v>
       </c>
       <c r="C29" s="11">
-        <v>135</v>
+        <v>63.51</v>
       </c>
       <c r="D29" s="11">
-        <v>145</v>
+        <v>77.760000000000005</v>
       </c>
       <c r="E29" s="11">
-        <v>160</v>
+        <v>79.53</v>
       </c>
       <c r="F29" s="11">
-        <v>170</v>
+        <v>88.89</v>
       </c>
       <c r="G29" s="11">
-        <v>180</v>
+        <v>97.84</v>
       </c>
       <c r="H29" s="11">
-        <v>185</v>
+        <v>106.4</v>
       </c>
       <c r="I29" s="11">
-        <v>195</v>
+        <v>114.82</v>
       </c>
       <c r="J29" s="11">
-        <v>210</v>
+        <v>124.15</v>
       </c>
       <c r="K29" s="11">
-        <v>195</v>
+        <v>124.15</v>
       </c>
       <c r="L29" s="11">
-        <v>185</v>
+        <v>124.15</v>
       </c>
       <c r="M29" s="11">
-        <v>150</v>
+        <v>124.15</v>
       </c>
       <c r="N29" s="11">
-        <v>135</v>
+        <v>124.15</v>
       </c>
       <c r="O29" s="11">
-        <v>120</v>
+        <v>124.15</v>
       </c>
       <c r="P29" s="12">
-        <v>43794</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
+        <v>45686</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="B30" s="11">
-        <v>35</v>
+        <v>27.77</v>
       </c>
       <c r="C30" s="11">
-        <v>35</v>
+        <v>33.979999999999997</v>
       </c>
       <c r="D30" s="11">
-        <v>40</v>
+        <v>39.89</v>
       </c>
       <c r="E30" s="11">
-        <v>45</v>
+        <v>42.49</v>
       </c>
       <c r="F30" s="11">
-        <v>45</v>
+        <v>48.23</v>
       </c>
       <c r="G30" s="11">
-        <v>50</v>
+        <v>53.23</v>
       </c>
       <c r="H30" s="11">
-        <v>50</v>
+        <v>58.23</v>
       </c>
       <c r="I30" s="11">
-        <v>55</v>
+        <v>63.24</v>
       </c>
       <c r="J30" s="11">
-        <v>55</v>
+        <v>68.39</v>
       </c>
       <c r="K30" s="11">
-        <v>55</v>
+        <v>68.39</v>
       </c>
       <c r="L30" s="11">
-        <v>50</v>
+        <v>68.39</v>
       </c>
       <c r="M30" s="11">
-        <v>40</v>
+        <v>68.39</v>
       </c>
       <c r="N30" s="11">
-        <v>35</v>
+        <v>68.39</v>
       </c>
       <c r="O30" s="11">
-        <v>35</v>
+        <v>68.39</v>
       </c>
       <c r="P30" s="12">
-        <v>43794</v>
+        <v>45686</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="B31" s="11">
-        <v>25</v>
+        <v>32.159999999999997</v>
       </c>
       <c r="C31" s="11">
-        <v>25</v>
+        <v>39.43</v>
       </c>
       <c r="D31" s="11">
-        <v>25</v>
+        <v>47.02</v>
       </c>
       <c r="E31" s="11">
-        <v>30</v>
+        <v>47.71</v>
       </c>
       <c r="F31" s="11">
-        <v>30</v>
+        <v>53.99</v>
       </c>
       <c r="G31" s="11">
-        <v>35</v>
+        <v>59.43</v>
       </c>
       <c r="H31" s="11">
-        <v>35</v>
+        <v>64.88</v>
       </c>
       <c r="I31" s="11">
-        <v>35</v>
+        <v>70.48</v>
       </c>
       <c r="J31" s="11">
-        <v>40</v>
+        <v>76.23</v>
       </c>
       <c r="K31" s="11">
-        <v>35</v>
+        <v>76.23</v>
       </c>
       <c r="L31" s="11">
-        <v>35</v>
+        <v>76.23</v>
       </c>
       <c r="M31" s="11">
-        <v>30</v>
+        <v>76.23</v>
       </c>
       <c r="N31" s="11">
-        <v>25</v>
+        <v>76.23</v>
       </c>
       <c r="O31" s="11">
-        <v>25</v>
+        <v>76.23</v>
       </c>
       <c r="P31" s="12">
-        <v>43794</v>
+        <v>45686</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="B32" s="11">
-        <v>30</v>
+        <v>30.46</v>
       </c>
       <c r="C32" s="11">
-        <v>30</v>
+        <v>37.35</v>
       </c>
       <c r="D32" s="11">
-        <v>35</v>
+        <v>44.56</v>
       </c>
       <c r="E32" s="11">
-        <v>35</v>
+        <v>45.19</v>
       </c>
       <c r="F32" s="11">
-        <v>40</v>
+        <v>51.15</v>
       </c>
       <c r="G32" s="11">
-        <v>40</v>
+        <v>56.31</v>
       </c>
       <c r="H32" s="11">
-        <v>40</v>
+        <v>61.47</v>
       </c>
       <c r="I32" s="11">
-        <v>45</v>
+        <v>66.760000000000005</v>
       </c>
       <c r="J32" s="11">
-        <v>45</v>
+        <v>72.2</v>
       </c>
       <c r="K32" s="11">
-        <v>45</v>
+        <v>72.2</v>
       </c>
       <c r="L32" s="11">
-        <v>40</v>
+        <v>72.2</v>
       </c>
       <c r="M32" s="11">
-        <v>35</v>
+        <v>72.2</v>
       </c>
       <c r="N32" s="11">
-        <v>30</v>
+        <v>72.2</v>
       </c>
       <c r="O32" s="11">
-        <v>30</v>
+        <v>72.2</v>
       </c>
       <c r="P32" s="12">
-        <v>43794</v>
+        <v>45686</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="B33" s="11">
-        <v>30</v>
+        <v>52.01</v>
       </c>
       <c r="C33" s="11">
-        <v>35</v>
+        <v>66.25</v>
       </c>
       <c r="D33" s="11">
-        <v>40</v>
+        <v>80.89</v>
       </c>
       <c r="E33" s="11">
-        <v>40</v>
+        <v>83.21</v>
       </c>
       <c r="F33" s="11">
-        <v>45</v>
+        <v>92.96</v>
       </c>
       <c r="G33" s="11">
-        <v>45</v>
+        <v>102.05</v>
       </c>
       <c r="H33" s="11">
-        <v>50</v>
+        <v>110.98</v>
       </c>
       <c r="I33" s="11">
-        <v>50</v>
+        <v>120.25</v>
       </c>
       <c r="J33" s="11">
-        <v>55</v>
+        <v>129.58000000000001</v>
       </c>
       <c r="K33" s="11">
-        <v>50</v>
+        <v>129.58000000000001</v>
       </c>
       <c r="L33" s="11">
-        <v>50</v>
+        <v>129.58000000000001</v>
       </c>
       <c r="M33" s="11">
-        <v>40</v>
+        <v>129.58000000000001</v>
       </c>
       <c r="N33" s="11">
-        <v>35</v>
+        <v>129.58000000000001</v>
       </c>
       <c r="O33" s="11">
-        <v>30</v>
+        <v>129.58000000000001</v>
       </c>
       <c r="P33" s="12">
-        <v>43794</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
+        <v>45686</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="B34" s="11">
-        <v>35</v>
+        <v>42.8</v>
       </c>
       <c r="C34" s="11">
-        <v>35</v>
+        <v>54.15</v>
       </c>
       <c r="D34" s="11">
-        <v>40</v>
+        <v>65.52</v>
       </c>
       <c r="E34" s="11">
-        <v>45</v>
+        <v>69.33</v>
       </c>
       <c r="F34" s="11">
-        <v>45</v>
+        <v>76.94</v>
       </c>
       <c r="G34" s="11">
-        <v>50</v>
+        <v>84.27</v>
       </c>
       <c r="H34" s="11">
-        <v>50</v>
+        <v>91.88</v>
       </c>
       <c r="I34" s="11">
-        <v>55</v>
+        <v>99.34</v>
       </c>
       <c r="J34" s="11">
-        <v>55</v>
+        <v>107.21</v>
       </c>
       <c r="K34" s="11">
-        <v>55</v>
+        <v>107.21</v>
       </c>
       <c r="L34" s="11">
-        <v>50</v>
+        <v>107.21</v>
       </c>
       <c r="M34" s="11">
-        <v>40</v>
+        <v>107.21</v>
       </c>
       <c r="N34" s="11">
-        <v>35</v>
+        <v>107.21</v>
       </c>
       <c r="O34" s="11">
-        <v>35</v>
+        <v>107.21</v>
       </c>
       <c r="P34" s="12">
-        <v>43794</v>
+        <v>45686</v>
       </c>
     </row>
     <row r="35" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="B35" s="11">
-        <v>35</v>
+        <v>50.22</v>
       </c>
       <c r="C35" s="11">
-        <v>40</v>
+        <v>64.010000000000005</v>
       </c>
       <c r="D35" s="11">
-        <v>40</v>
+        <v>78.25</v>
       </c>
       <c r="E35" s="11">
-        <v>45</v>
+        <v>80.069999999999993</v>
       </c>
       <c r="F35" s="11">
-        <v>50</v>
+        <v>89.68</v>
       </c>
       <c r="G35" s="11">
-        <v>55</v>
+        <v>98.12</v>
       </c>
       <c r="H35" s="11">
-        <v>55</v>
+        <v>107.01</v>
       </c>
       <c r="I35" s="11">
-        <v>55</v>
+        <v>116.03</v>
       </c>
       <c r="J35" s="11">
-        <v>60</v>
+        <v>124.91</v>
       </c>
       <c r="K35" s="11">
-        <v>55</v>
+        <v>124.91</v>
       </c>
       <c r="L35" s="11">
-        <v>55</v>
+        <v>124.91</v>
       </c>
       <c r="M35" s="11">
-        <v>45</v>
+        <v>124.91</v>
       </c>
       <c r="N35" s="11">
-        <v>40</v>
+        <v>124.91</v>
       </c>
       <c r="O35" s="11">
-        <v>35</v>
+        <v>124.91</v>
       </c>
       <c r="P35" s="12">
-        <v>43794</v>
+        <v>45686</v>
       </c>
     </row>
     <row r="36" spans="1:16" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="B36" s="11">
-        <v>40</v>
+        <v>38.950000000000003</v>
       </c>
       <c r="C36" s="11">
-        <v>45</v>
+        <v>48.43</v>
       </c>
       <c r="D36" s="11">
-        <v>45</v>
+        <v>59.9</v>
       </c>
       <c r="E36" s="11">
-        <v>50</v>
+        <v>61.05</v>
       </c>
       <c r="F36" s="11">
-        <v>55</v>
+        <v>68.650000000000006</v>
       </c>
       <c r="G36" s="11">
-        <v>55</v>
+        <v>75.31</v>
       </c>
       <c r="H36" s="11">
-        <v>60</v>
+        <v>82.39</v>
       </c>
       <c r="I36" s="11">
-        <v>60</v>
+        <v>88.89</v>
       </c>
       <c r="J36" s="11">
-        <v>65</v>
+        <v>96.34</v>
       </c>
       <c r="K36" s="11">
-        <v>65</v>
+        <v>96.34</v>
       </c>
       <c r="L36" s="11">
-        <v>60</v>
+        <v>96.34</v>
       </c>
       <c r="M36" s="11">
-        <v>50</v>
+        <v>96.34</v>
       </c>
       <c r="N36" s="11">
-        <v>40</v>
+        <v>96.34</v>
       </c>
       <c r="O36" s="11">
-        <v>40</v>
+        <v>96.34</v>
       </c>
       <c r="P36" s="12">
-        <v>43794</v>
+        <v>45686</v>
       </c>
     </row>
     <row r="37" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="B37" s="11">
-        <v>20</v>
+        <v>56.88</v>
       </c>
       <c r="C37" s="11">
-        <v>20</v>
+        <v>72.97</v>
       </c>
       <c r="D37" s="11">
-        <v>25</v>
+        <v>89.35</v>
       </c>
       <c r="E37" s="11">
-        <v>25</v>
+        <v>91.55</v>
       </c>
       <c r="F37" s="11">
-        <v>30</v>
+        <v>102.57</v>
       </c>
       <c r="G37" s="11">
-        <v>30</v>
+        <v>112.31</v>
       </c>
       <c r="H37" s="11">
-        <v>30</v>
+        <v>122.47</v>
       </c>
       <c r="I37" s="11">
-        <v>30</v>
+        <v>132.09</v>
       </c>
       <c r="J37" s="11">
-        <v>35</v>
+        <v>142.66</v>
       </c>
       <c r="K37" s="11">
-        <v>30</v>
+        <v>142.66</v>
       </c>
       <c r="L37" s="11">
-        <v>30</v>
+        <v>142.66</v>
       </c>
       <c r="M37" s="11">
-        <v>25</v>
+        <v>142.66</v>
       </c>
       <c r="N37" s="11">
-        <v>20</v>
+        <v>142.66</v>
       </c>
       <c r="O37" s="11">
-        <v>20</v>
+        <v>142.66</v>
       </c>
       <c r="P37" s="12">
-        <v>43794</v>
+        <v>45686</v>
       </c>
     </row>
     <row r="38" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="B38" s="11">
-        <v>25</v>
+        <v>27.47</v>
       </c>
       <c r="C38" s="11">
-        <v>25</v>
+        <v>33.520000000000003</v>
       </c>
       <c r="D38" s="11">
-        <v>30</v>
+        <v>39.42</v>
       </c>
       <c r="E38" s="11">
-        <v>30</v>
+        <v>42.16</v>
       </c>
       <c r="F38" s="11">
-        <v>35</v>
+        <v>47.92</v>
       </c>
       <c r="G38" s="11">
-        <v>35</v>
+        <v>52.82</v>
       </c>
       <c r="H38" s="11">
-        <v>35</v>
+        <v>57.82</v>
       </c>
       <c r="I38" s="11">
-        <v>35</v>
+        <v>62.63</v>
       </c>
       <c r="J38" s="11">
-        <v>40</v>
+        <v>67.94</v>
       </c>
       <c r="K38" s="11">
-        <v>40</v>
+        <v>67.94</v>
       </c>
       <c r="L38" s="11">
-        <v>35</v>
+        <v>67.94</v>
       </c>
       <c r="M38" s="11">
-        <v>30</v>
+        <v>67.94</v>
       </c>
       <c r="N38" s="11">
-        <v>25</v>
+        <v>67.94</v>
       </c>
       <c r="O38" s="11">
-        <v>25</v>
+        <v>67.94</v>
       </c>
       <c r="P38" s="12">
-        <v>43794</v>
+        <v>45686</v>
       </c>
     </row>
     <row r="39" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="B39" s="11">
-        <v>25</v>
+        <v>33.520000000000003</v>
       </c>
       <c r="C39" s="11">
-        <v>30</v>
+        <v>41.86</v>
       </c>
       <c r="D39" s="11">
-        <v>30</v>
+        <v>50.06</v>
       </c>
       <c r="E39" s="11">
-        <v>35</v>
+        <v>50.41</v>
       </c>
       <c r="F39" s="11">
-        <v>35</v>
+        <v>57.42</v>
       </c>
       <c r="G39" s="11">
-        <v>40</v>
+        <v>63.16</v>
       </c>
       <c r="H39" s="11">
-        <v>40</v>
+        <v>69.19</v>
       </c>
       <c r="I39" s="11">
-        <v>45</v>
+        <v>74.78</v>
       </c>
       <c r="J39" s="11">
-        <v>45</v>
+        <v>80.650000000000006</v>
       </c>
       <c r="K39" s="11">
-        <v>45</v>
+        <v>80.650000000000006</v>
       </c>
       <c r="L39" s="11">
-        <v>40</v>
+        <v>80.650000000000006</v>
       </c>
       <c r="M39" s="11">
-        <v>35</v>
+        <v>80.650000000000006</v>
       </c>
       <c r="N39" s="11">
-        <v>30</v>
+        <v>80.650000000000006</v>
       </c>
       <c r="O39" s="11">
-        <v>25</v>
+        <v>80.650000000000006</v>
       </c>
       <c r="P39" s="12">
-        <v>43794</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>45686</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="B40" s="11">
-        <v>30</v>
+        <v>30.33</v>
       </c>
       <c r="C40" s="11">
-        <v>35</v>
+        <v>37.229999999999997</v>
       </c>
       <c r="D40" s="11">
-        <v>40</v>
+        <v>43.83</v>
       </c>
       <c r="E40" s="11">
-        <v>40</v>
+        <v>43.28</v>
       </c>
       <c r="F40" s="11">
-        <v>45</v>
+        <v>48.58</v>
       </c>
       <c r="G40" s="11">
-        <v>45</v>
+        <v>52.67</v>
       </c>
       <c r="H40" s="11">
-        <v>50</v>
+        <v>57.26</v>
       </c>
       <c r="I40" s="11">
-        <v>50</v>
+        <v>61.2</v>
       </c>
       <c r="J40" s="11">
-        <v>55</v>
+        <v>65.28</v>
       </c>
       <c r="K40" s="11">
-        <v>50</v>
+        <v>65.28</v>
       </c>
       <c r="L40" s="11">
-        <v>50</v>
+        <v>65.28</v>
       </c>
       <c r="M40" s="11">
-        <v>40</v>
+        <v>65.28</v>
       </c>
       <c r="N40" s="11">
-        <v>35</v>
+        <v>65.28</v>
       </c>
       <c r="O40" s="11">
-        <v>30</v>
+        <v>65.28</v>
       </c>
       <c r="P40" s="12">
-        <v>43794</v>
+        <v>45686</v>
       </c>
     </row>
     <row r="41" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="B41" s="11">
-        <v>40</v>
+        <v>47.98</v>
       </c>
       <c r="C41" s="11">
-        <v>45</v>
+        <v>61.64</v>
       </c>
       <c r="D41" s="11">
-        <v>50</v>
+        <v>75.16</v>
       </c>
       <c r="E41" s="11">
-        <v>55</v>
+        <v>76.94</v>
       </c>
       <c r="F41" s="11">
-        <v>60</v>
+        <v>86.04</v>
       </c>
       <c r="G41" s="11">
-        <v>60</v>
+        <v>94.73</v>
       </c>
       <c r="H41" s="11">
-        <v>65</v>
+        <v>102.87</v>
       </c>
       <c r="I41" s="11">
-        <v>65</v>
+        <v>111.13</v>
       </c>
       <c r="J41" s="11">
-        <v>70</v>
+        <v>120.25</v>
       </c>
       <c r="K41" s="11">
-        <v>70</v>
+        <v>120.25</v>
       </c>
       <c r="L41" s="11">
-        <v>65</v>
+        <v>120.25</v>
       </c>
       <c r="M41" s="11">
-        <v>50</v>
+        <v>120.25</v>
       </c>
       <c r="N41" s="11">
-        <v>45</v>
+        <v>120.25</v>
       </c>
       <c r="O41" s="11">
-        <v>40</v>
+        <v>120.25</v>
       </c>
       <c r="P41" s="12">
-        <v>43794</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>45686</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="B42" s="11">
-        <v>40</v>
+        <v>45.36</v>
       </c>
       <c r="C42" s="11">
-        <v>45</v>
+        <v>60.99</v>
       </c>
       <c r="D42" s="11">
-        <v>45</v>
+        <v>74.48</v>
       </c>
       <c r="E42" s="11">
-        <v>50</v>
+        <v>75.930000000000007</v>
       </c>
       <c r="F42" s="11">
-        <v>55</v>
+        <v>85.52</v>
       </c>
       <c r="G42" s="11">
-        <v>55</v>
+        <v>93.82</v>
       </c>
       <c r="H42" s="11">
-        <v>60</v>
+        <v>102.85</v>
       </c>
       <c r="I42" s="11">
-        <v>60</v>
+        <v>110.42</v>
       </c>
       <c r="J42" s="11">
-        <v>65</v>
+        <v>119.17</v>
       </c>
       <c r="K42" s="11">
-        <v>60</v>
+        <v>119.17</v>
       </c>
       <c r="L42" s="11">
-        <v>60</v>
+        <v>119.17</v>
       </c>
       <c r="M42" s="11">
-        <v>50</v>
+        <v>119.17</v>
       </c>
       <c r="N42" s="11">
-        <v>40</v>
+        <v>119.17</v>
       </c>
       <c r="O42" s="11">
-        <v>40</v>
+        <v>119.17</v>
       </c>
       <c r="P42" s="12">
-        <v>43794</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
+        <v>45686</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="B43" s="11">
-        <v>40</v>
+        <v>45.36</v>
       </c>
       <c r="C43" s="11">
-        <v>45</v>
+        <v>60.99</v>
       </c>
       <c r="D43" s="11">
-        <v>45</v>
+        <v>74.48</v>
       </c>
       <c r="E43" s="11">
-        <v>50</v>
+        <v>75.930000000000007</v>
       </c>
       <c r="F43" s="11">
-        <v>55</v>
+        <v>85.52</v>
       </c>
       <c r="G43" s="11">
-        <v>60</v>
+        <v>93.82</v>
       </c>
       <c r="H43" s="11">
-        <v>60</v>
+        <v>102.85</v>
       </c>
       <c r="I43" s="11">
-        <v>65</v>
+        <v>110.42</v>
       </c>
       <c r="J43" s="11">
-        <v>65</v>
+        <v>119.17</v>
       </c>
       <c r="K43" s="11">
-        <v>65</v>
+        <v>119.17</v>
       </c>
       <c r="L43" s="11">
-        <v>60</v>
+        <v>119.17</v>
       </c>
       <c r="M43" s="11">
-        <v>50</v>
+        <v>119.17</v>
       </c>
       <c r="N43" s="11">
-        <v>45</v>
+        <v>119.17</v>
       </c>
       <c r="O43" s="11">
-        <v>40</v>
+        <v>119.17</v>
       </c>
       <c r="P43" s="12">
-        <v>43794</v>
+        <v>45686</v>
       </c>
     </row>
     <row r="44" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="B44" s="11">
-        <v>30</v>
+        <v>37.32</v>
       </c>
       <c r="C44" s="11">
-        <v>35</v>
+        <v>46.42</v>
       </c>
       <c r="D44" s="11">
-        <v>40</v>
+        <v>55.67</v>
       </c>
       <c r="E44" s="11">
-        <v>40</v>
+        <v>56.01</v>
       </c>
       <c r="F44" s="11">
-        <v>45</v>
+        <v>63.88</v>
       </c>
       <c r="G44" s="11">
-        <v>50</v>
+        <v>70.2</v>
       </c>
       <c r="H44" s="11">
-        <v>50</v>
+        <v>76.91</v>
       </c>
       <c r="I44" s="11">
-        <v>50</v>
+        <v>83.06</v>
       </c>
       <c r="J44" s="11">
-        <v>55</v>
+        <v>89.82</v>
       </c>
       <c r="K44" s="11">
-        <v>50</v>
+        <v>89.82</v>
       </c>
       <c r="L44" s="11">
-        <v>50</v>
+        <v>89.82</v>
       </c>
       <c r="M44" s="11">
-        <v>40</v>
+        <v>89.82</v>
       </c>
       <c r="N44" s="11">
-        <v>35</v>
+        <v>89.82</v>
       </c>
       <c r="O44" s="11">
-        <v>30</v>
+        <v>89.82</v>
       </c>
       <c r="P44" s="12">
-        <v>43794</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
+        <v>45686</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="B45" s="11">
-        <v>45</v>
+        <v>47.58</v>
       </c>
       <c r="C45" s="11">
-        <v>50</v>
+        <v>60.64</v>
       </c>
       <c r="D45" s="11">
-        <v>55</v>
+        <v>74.13</v>
       </c>
       <c r="E45" s="11">
-        <v>55</v>
+        <v>75.86</v>
       </c>
       <c r="F45" s="11">
-        <v>60</v>
+        <v>84.95</v>
       </c>
       <c r="G45" s="11">
-        <v>65</v>
+        <v>92.96</v>
       </c>
       <c r="H45" s="11">
-        <v>70</v>
+        <v>101.37</v>
       </c>
       <c r="I45" s="11">
-        <v>70</v>
+        <v>109.91</v>
       </c>
       <c r="J45" s="11">
-        <v>75</v>
+        <v>118.35</v>
       </c>
       <c r="K45" s="11">
-        <v>70</v>
+        <v>118.35</v>
       </c>
       <c r="L45" s="11">
-        <v>65</v>
+        <v>118.35</v>
       </c>
       <c r="M45" s="11">
-        <v>55</v>
+        <v>118.35</v>
       </c>
       <c r="N45" s="11">
-        <v>50</v>
+        <v>118.35</v>
       </c>
       <c r="O45" s="11">
-        <v>45</v>
+        <v>118.35</v>
       </c>
       <c r="P45" s="12">
-        <v>43794</v>
+        <v>45686</v>
       </c>
     </row>
     <row r="46" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="B46" s="11">
-        <v>20</v>
+        <v>54.91</v>
       </c>
       <c r="C46" s="11">
-        <v>25</v>
+        <v>72.8</v>
       </c>
       <c r="D46" s="11">
-        <v>25</v>
+        <v>85.39</v>
       </c>
       <c r="E46" s="11">
-        <v>25</v>
+        <v>87.81</v>
       </c>
       <c r="F46" s="11">
-        <v>30</v>
+        <v>98.12</v>
       </c>
       <c r="G46" s="11">
-        <v>30</v>
+        <v>107.72</v>
       </c>
       <c r="H46" s="11">
-        <v>30</v>
+        <v>117.16</v>
       </c>
       <c r="I46" s="11">
-        <v>35</v>
+        <v>126.19</v>
       </c>
       <c r="J46" s="11">
-        <v>35</v>
+        <v>136.78</v>
       </c>
       <c r="K46" s="11">
-        <v>35</v>
+        <v>136.78</v>
       </c>
       <c r="L46" s="11">
-        <v>30</v>
+        <v>136.78</v>
       </c>
       <c r="M46" s="11">
-        <v>25</v>
+        <v>136.78</v>
       </c>
       <c r="N46" s="11">
-        <v>20</v>
+        <v>136.78</v>
       </c>
       <c r="O46" s="11">
-        <v>20</v>
+        <v>136.78</v>
       </c>
       <c r="P46" s="12">
-        <v>43794</v>
+        <v>45686</v>
       </c>
     </row>
     <row r="47" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="B47" s="11">
-        <v>25</v>
+        <v>28.03</v>
       </c>
       <c r="C47" s="11">
-        <v>25</v>
+        <v>34.630000000000003</v>
       </c>
       <c r="D47" s="11">
-        <v>30</v>
+        <v>40.82</v>
       </c>
       <c r="E47" s="11">
-        <v>30</v>
+        <v>41.14</v>
       </c>
       <c r="F47" s="11">
-        <v>35</v>
+        <v>46.82</v>
       </c>
       <c r="G47" s="11">
-        <v>35</v>
+        <v>51.43</v>
       </c>
       <c r="H47" s="11">
-        <v>35</v>
+        <v>56.2</v>
       </c>
       <c r="I47" s="11">
-        <v>40</v>
+        <v>60.93</v>
       </c>
       <c r="J47" s="11">
-        <v>40</v>
+        <v>64.48</v>
       </c>
       <c r="K47" s="11">
-        <v>40</v>
+        <v>64.48</v>
       </c>
       <c r="L47" s="11">
-        <v>35</v>
+        <v>64.48</v>
       </c>
       <c r="M47" s="11">
-        <v>30</v>
+        <v>64.48</v>
       </c>
       <c r="N47" s="11">
-        <v>25</v>
+        <v>64.48</v>
       </c>
       <c r="O47" s="11">
-        <v>25</v>
+        <v>64.48</v>
       </c>
       <c r="P47" s="12">
-        <v>43794</v>
+        <v>45686</v>
       </c>
     </row>
     <row r="48" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="B48" s="11">
-        <v>25</v>
+        <v>35.36</v>
       </c>
       <c r="C48" s="11">
-        <v>25</v>
+        <v>43.97</v>
       </c>
       <c r="D48" s="11">
-        <v>30</v>
+        <v>52.74</v>
       </c>
       <c r="E48" s="11">
-        <v>30</v>
+        <v>53.06</v>
       </c>
       <c r="F48" s="11">
-        <v>35</v>
+        <v>60.53</v>
       </c>
       <c r="G48" s="11">
-        <v>35</v>
+        <v>66.489999999999995</v>
       </c>
       <c r="H48" s="11">
-        <v>35</v>
+        <v>72.86</v>
       </c>
       <c r="I48" s="11">
-        <v>40</v>
+        <v>78.709999999999994</v>
       </c>
       <c r="J48" s="11">
-        <v>40</v>
+        <v>85.1</v>
       </c>
       <c r="K48" s="11">
-        <v>40</v>
+        <v>85.1</v>
       </c>
       <c r="L48" s="11">
-        <v>35</v>
+        <v>85.1</v>
       </c>
       <c r="M48" s="11">
-        <v>30</v>
+        <v>85.1</v>
       </c>
       <c r="N48" s="11">
-        <v>25</v>
+        <v>85.1</v>
       </c>
       <c r="O48" s="11">
-        <v>25</v>
+        <v>85.1</v>
       </c>
       <c r="P48" s="12">
-        <v>43794</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>45686</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="B49" s="11">
-        <v>40</v>
+        <v>50.22</v>
       </c>
       <c r="C49" s="11">
-        <v>45</v>
+        <v>64.010000000000005</v>
       </c>
       <c r="D49" s="11">
-        <v>50</v>
+        <v>78.25</v>
       </c>
       <c r="E49" s="11">
-        <v>50</v>
+        <v>80.069999999999993</v>
       </c>
       <c r="F49" s="11">
-        <v>55</v>
+        <v>89.67</v>
       </c>
       <c r="G49" s="11">
-        <v>60</v>
+        <v>98.12</v>
       </c>
       <c r="H49" s="11">
-        <v>60</v>
+        <v>107.01</v>
       </c>
       <c r="I49" s="11">
+        <v>116.03</v>
+      </c>
+      <c r="J49" s="11">
+        <v>124.91</v>
+      </c>
+      <c r="K49" s="11">
+        <v>124.91</v>
+      </c>
+      <c r="L49" s="11">
+        <v>124.91</v>
+      </c>
+      <c r="M49" s="11">
+        <v>124.91</v>
+      </c>
+      <c r="N49" s="11">
+        <v>124.91</v>
+      </c>
+      <c r="O49" s="11">
+        <v>124.91</v>
+      </c>
+      <c r="P49" s="12">
+        <v>45686</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="J49" s="11">
-        <v>70</v>
-      </c>
-      <c r="K49" s="11">
-        <v>65</v>
-      </c>
-      <c r="L49" s="11">
-        <v>60</v>
-      </c>
-      <c r="M49" s="11">
-        <v>50</v>
-      </c>
-      <c r="N49" s="11">
-        <v>45</v>
-      </c>
-      <c r="O49" s="11">
-        <v>40</v>
-      </c>
-      <c r="P49" s="12">
-        <v>43794</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="10" t="s">
-        <v>47</v>
-      </c>
       <c r="B50" s="11">
-        <v>50</v>
+        <v>45.36</v>
       </c>
       <c r="C50" s="11">
-        <v>55</v>
+        <v>60.99</v>
       </c>
       <c r="D50" s="11">
-        <v>55</v>
+        <v>74.48</v>
       </c>
       <c r="E50" s="11">
-        <v>60</v>
+        <v>75.930000000000007</v>
       </c>
       <c r="F50" s="11">
-        <v>65</v>
+        <v>85.52</v>
       </c>
       <c r="G50" s="11">
-        <v>70</v>
+        <v>93.82</v>
       </c>
       <c r="H50" s="11">
-        <v>75</v>
+        <v>102.85</v>
       </c>
       <c r="I50" s="11">
-        <v>75</v>
+        <v>110.42</v>
       </c>
       <c r="J50" s="11">
-        <v>80</v>
+        <v>119.17</v>
       </c>
       <c r="K50" s="11">
-        <v>80</v>
+        <v>119.17</v>
       </c>
       <c r="L50" s="11">
-        <v>70</v>
+        <v>119.17</v>
       </c>
       <c r="M50" s="11">
-        <v>60</v>
+        <v>119.17</v>
       </c>
       <c r="N50" s="11">
-        <v>50</v>
+        <v>119.17</v>
       </c>
       <c r="O50" s="11">
-        <v>50</v>
+        <v>119.17</v>
       </c>
       <c r="P50" s="12">
-        <v>43794</v>
+        <v>45686</v>
       </c>
     </row>
     <row r="51" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="B51" s="11">
-        <v>40</v>
+        <v>56.88</v>
       </c>
       <c r="C51" s="11">
-        <v>45</v>
+        <v>72.97</v>
       </c>
       <c r="D51" s="11">
-        <v>45</v>
+        <v>89.35</v>
       </c>
       <c r="E51" s="11">
-        <v>50</v>
+        <v>91.55</v>
       </c>
       <c r="F51" s="11">
-        <v>55</v>
+        <v>102.57</v>
       </c>
       <c r="G51" s="11">
-        <v>55</v>
+        <v>112.31</v>
       </c>
       <c r="H51" s="11">
-        <v>60</v>
+        <v>122.47</v>
       </c>
       <c r="I51" s="11">
-        <v>60</v>
+        <v>132.09</v>
       </c>
       <c r="J51" s="11">
-        <v>65</v>
+        <v>142.66</v>
       </c>
       <c r="K51" s="11">
-        <v>60</v>
+        <v>142.66</v>
       </c>
       <c r="L51" s="11">
-        <v>60</v>
+        <v>142.66</v>
       </c>
       <c r="M51" s="11">
-        <v>50</v>
+        <v>142.66</v>
       </c>
       <c r="N51" s="11">
-        <v>40</v>
+        <v>142.66</v>
       </c>
       <c r="O51" s="11">
-        <v>40</v>
+        <v>142.66</v>
       </c>
       <c r="P51" s="12">
-        <v>43794</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>45686</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="B52" s="11">
-        <v>40</v>
+        <v>30.33</v>
       </c>
       <c r="C52" s="11">
-        <v>40</v>
+        <v>37.229999999999997</v>
       </c>
       <c r="D52" s="11">
-        <v>45</v>
+        <v>43.83</v>
       </c>
       <c r="E52" s="11">
-        <v>50</v>
+        <v>44.64</v>
       </c>
       <c r="F52" s="11">
-        <v>55</v>
+        <v>50.76</v>
       </c>
       <c r="G52" s="11">
-        <v>55</v>
+        <v>55.93</v>
       </c>
       <c r="H52" s="11">
-        <v>60</v>
+        <v>60.93</v>
       </c>
       <c r="I52" s="11">
-        <v>60</v>
+        <v>66.12</v>
       </c>
       <c r="J52" s="11">
-        <v>65</v>
+        <v>71.66</v>
       </c>
       <c r="K52" s="11">
-        <v>60</v>
+        <v>71.66</v>
       </c>
       <c r="L52" s="11">
-        <v>55</v>
+        <v>71.66</v>
       </c>
       <c r="M52" s="11">
-        <v>45</v>
+        <v>71.66</v>
       </c>
       <c r="N52" s="11">
-        <v>40</v>
+        <v>71.66</v>
       </c>
       <c r="O52" s="11">
-        <v>40</v>
+        <v>71.66</v>
       </c>
       <c r="P52" s="12">
-        <v>43794</v>
+        <v>45686</v>
       </c>
     </row>
     <row r="53" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="B53" s="11">
-        <v>25</v>
+        <v>17.309999999999999</v>
       </c>
       <c r="C53" s="11">
-        <v>30</v>
+        <v>20.81</v>
       </c>
       <c r="D53" s="11">
-        <v>30</v>
+        <v>23.76</v>
       </c>
       <c r="E53" s="11">
-        <v>30</v>
+        <v>25.45</v>
       </c>
       <c r="F53" s="11">
-        <v>35</v>
+        <v>29.12</v>
       </c>
       <c r="G53" s="11">
-        <v>35</v>
+        <v>32.08</v>
       </c>
       <c r="H53" s="11">
-        <v>40</v>
+        <v>35.03</v>
       </c>
       <c r="I53" s="11">
-        <v>40</v>
+        <v>38.26</v>
       </c>
       <c r="J53" s="11">
-        <v>40</v>
+        <v>41.51</v>
       </c>
       <c r="K53" s="11">
-        <v>40</v>
+        <v>41.51</v>
       </c>
       <c r="L53" s="11">
-        <v>35</v>
+        <v>41.51</v>
       </c>
       <c r="M53" s="11">
-        <v>30</v>
+        <v>41.51</v>
       </c>
       <c r="N53" s="11">
-        <v>25</v>
+        <v>41.51</v>
       </c>
       <c r="O53" s="11">
-        <v>25</v>
+        <v>41.51</v>
       </c>
       <c r="P53" s="12">
-        <v>43794</v>
+        <v>45686</v>
       </c>
     </row>
     <row r="54" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="B54" s="11">
-        <v>35</v>
+        <v>41.7</v>
       </c>
       <c r="C54" s="11">
-        <v>40</v>
+        <v>52.07</v>
       </c>
       <c r="D54" s="11">
-        <v>45</v>
+        <v>63.26</v>
       </c>
       <c r="E54" s="11">
-        <v>45</v>
+        <v>64.459999999999994</v>
       </c>
       <c r="F54" s="11">
-        <v>50</v>
+        <v>72.47</v>
       </c>
       <c r="G54" s="11">
-        <v>55</v>
+        <v>79.48</v>
       </c>
       <c r="H54" s="11">
-        <v>55</v>
+        <v>86.97</v>
       </c>
       <c r="I54" s="11">
-        <v>60</v>
+        <v>93.82</v>
       </c>
       <c r="J54" s="11">
-        <v>60</v>
+        <v>101.7</v>
       </c>
       <c r="K54" s="11">
-        <v>60</v>
+        <v>101.7</v>
       </c>
       <c r="L54" s="11">
-        <v>55</v>
+        <v>101.7</v>
       </c>
       <c r="M54" s="11">
-        <v>45</v>
+        <v>101.7</v>
       </c>
       <c r="N54" s="11">
-        <v>40</v>
+        <v>101.7</v>
       </c>
       <c r="O54" s="11">
-        <v>35</v>
+        <v>101.7</v>
       </c>
       <c r="P54" s="12">
-        <v>43794</v>
+        <v>45686</v>
       </c>
     </row>
     <row r="55" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="B55" s="11">
-        <v>40</v>
+        <v>45.99</v>
       </c>
       <c r="C55" s="11">
-        <v>45</v>
+        <v>58.26</v>
       </c>
       <c r="D55" s="11">
-        <v>45</v>
+        <v>70.680000000000007</v>
       </c>
       <c r="E55" s="11">
-        <v>50</v>
+        <v>72.34</v>
       </c>
       <c r="F55" s="11">
-        <v>55</v>
+        <v>81.209999999999994</v>
       </c>
       <c r="G55" s="11">
-        <v>55</v>
+        <v>88.95</v>
       </c>
       <c r="H55" s="11">
-        <v>60</v>
+        <v>96.98</v>
       </c>
       <c r="I55" s="11">
-        <v>60</v>
+        <v>104.86</v>
       </c>
       <c r="J55" s="11">
-        <v>65</v>
+        <v>113.17</v>
       </c>
       <c r="K55" s="11">
-        <v>60</v>
+        <v>113.17</v>
       </c>
       <c r="L55" s="11">
-        <v>60</v>
+        <v>113.17</v>
       </c>
       <c r="M55" s="11">
-        <v>50</v>
+        <v>113.17</v>
       </c>
       <c r="N55" s="11">
-        <v>40</v>
+        <v>113.17</v>
       </c>
       <c r="O55" s="11">
-        <v>40</v>
+        <v>113.17</v>
       </c>
       <c r="P55" s="12">
-        <v>43794</v>
+        <v>45686</v>
       </c>
     </row>
     <row r="56" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="B56" s="11">
-        <v>25</v>
+        <v>30.63</v>
       </c>
       <c r="C56" s="11">
-        <v>25</v>
+        <v>37.450000000000003</v>
       </c>
       <c r="D56" s="11">
-        <v>30</v>
+        <v>44.28</v>
       </c>
       <c r="E56" s="11">
-        <v>30</v>
+        <v>44.69</v>
       </c>
       <c r="F56" s="11">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="G56" s="11">
-        <v>35</v>
+        <v>56.01</v>
       </c>
       <c r="H56" s="11">
-        <v>35</v>
+        <v>61.18</v>
       </c>
       <c r="I56" s="11">
-        <v>40</v>
+        <v>66.47</v>
       </c>
       <c r="J56" s="11">
-        <v>40</v>
+        <v>72.040000000000006</v>
       </c>
       <c r="K56" s="11">
-        <v>40</v>
+        <v>72.040000000000006</v>
       </c>
       <c r="L56" s="11">
-        <v>35</v>
+        <v>72.040000000000006</v>
       </c>
       <c r="M56" s="11">
-        <v>30</v>
+        <v>72.040000000000006</v>
       </c>
       <c r="N56" s="11">
-        <v>25</v>
+        <v>72.040000000000006</v>
       </c>
       <c r="O56" s="11">
-        <v>25</v>
+        <v>72.040000000000006</v>
       </c>
       <c r="P56" s="12">
-        <v>43794</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>45686</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="B57" s="11">
-        <v>25</v>
+        <v>43.56</v>
       </c>
       <c r="C57" s="11">
-        <v>30</v>
+        <v>55.18</v>
       </c>
       <c r="D57" s="11">
-        <v>30</v>
+        <v>66.959999999999994</v>
       </c>
       <c r="E57" s="11">
-        <v>35</v>
+        <v>68.540000000000006</v>
       </c>
       <c r="F57" s="11">
-        <v>35</v>
+        <v>769.43</v>
       </c>
       <c r="G57" s="11">
-        <v>40</v>
+        <v>84.27</v>
       </c>
       <c r="H57" s="11">
-        <v>40</v>
+        <v>91.88</v>
       </c>
       <c r="I57" s="11">
-        <v>40</v>
+        <v>99.34</v>
       </c>
       <c r="J57" s="11">
-        <v>45</v>
+        <v>107.21</v>
       </c>
       <c r="K57" s="11">
-        <v>40</v>
+        <v>107.21</v>
       </c>
       <c r="L57" s="11">
-        <v>40</v>
+        <v>107.21</v>
       </c>
       <c r="M57" s="11">
-        <v>30</v>
+        <v>107.21</v>
       </c>
       <c r="N57" s="11">
-        <v>30</v>
+        <v>107.21</v>
       </c>
       <c r="O57" s="11">
-        <v>25</v>
+        <v>107.21</v>
       </c>
       <c r="P57" s="12">
-        <v>43794</v>
+        <v>45686</v>
       </c>
     </row>
     <row r="58" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="B58" s="11">
-        <v>35</v>
+        <v>45.99</v>
       </c>
       <c r="C58" s="11">
-        <v>40</v>
+        <v>58.26</v>
       </c>
       <c r="D58" s="11">
-        <v>45</v>
+        <v>70.680000000000007</v>
       </c>
       <c r="E58" s="11">
-        <v>50</v>
+        <v>72.34</v>
       </c>
       <c r="F58" s="11">
-        <v>50</v>
+        <v>81.209999999999994</v>
       </c>
       <c r="G58" s="11">
-        <v>55</v>
+        <v>88.95</v>
       </c>
       <c r="H58" s="11">
-        <v>55</v>
+        <v>96.98</v>
       </c>
       <c r="I58" s="11">
-        <v>60</v>
+        <v>104.86</v>
       </c>
       <c r="J58" s="11">
-        <v>65</v>
+        <v>113.17</v>
       </c>
       <c r="K58" s="11">
-        <v>60</v>
+        <v>113.17</v>
       </c>
       <c r="L58" s="11">
-        <v>55</v>
+        <v>113.17</v>
       </c>
       <c r="M58" s="11">
-        <v>45</v>
+        <v>113.17</v>
       </c>
       <c r="N58" s="11">
-        <v>40</v>
+        <v>113.17</v>
       </c>
       <c r="O58" s="11">
-        <v>35</v>
+        <v>113.17</v>
       </c>
       <c r="P58" s="12">
-        <v>43794</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>45686</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="B59" s="11">
-        <v>35</v>
+        <v>31.04</v>
       </c>
       <c r="C59" s="11">
-        <v>40</v>
+        <v>38.35</v>
       </c>
       <c r="D59" s="11">
-        <v>45</v>
+        <v>45.55</v>
       </c>
       <c r="E59" s="11">
-        <v>45</v>
+        <v>46.14</v>
       </c>
       <c r="F59" s="11">
-        <v>50</v>
+        <v>52.4</v>
       </c>
       <c r="G59" s="11">
-        <v>55</v>
+        <v>57.8</v>
       </c>
       <c r="H59" s="11">
-        <v>55</v>
+        <v>62.83</v>
       </c>
       <c r="I59" s="11">
-        <v>60</v>
+        <v>68.25</v>
       </c>
       <c r="J59" s="11">
-        <v>60</v>
+        <v>73.95</v>
       </c>
       <c r="K59" s="11">
-        <v>60</v>
+        <v>73.95</v>
       </c>
       <c r="L59" s="11">
-        <v>55</v>
+        <v>73.95</v>
       </c>
       <c r="M59" s="11">
-        <v>45</v>
+        <v>73.95</v>
       </c>
       <c r="N59" s="11">
-        <v>40</v>
+        <v>73.95</v>
       </c>
       <c r="O59" s="11">
-        <v>35</v>
+        <v>73.95</v>
       </c>
       <c r="P59" s="12">
-        <v>43794</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
+        <v>45686</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="B60" s="11">
-        <v>40</v>
+        <v>42.99</v>
       </c>
       <c r="C60" s="11">
-        <v>45</v>
+        <v>57.79</v>
       </c>
       <c r="D60" s="11">
-        <v>50</v>
+        <v>70.55</v>
       </c>
       <c r="E60" s="11">
-        <v>50</v>
+        <v>71.930000000000007</v>
       </c>
       <c r="F60" s="11">
-        <v>55</v>
+        <v>81.02</v>
       </c>
       <c r="G60" s="11">
-        <v>60</v>
+        <v>88.89</v>
       </c>
       <c r="H60" s="11">
-        <v>60</v>
+        <v>97.44</v>
       </c>
       <c r="I60" s="11">
-        <v>65</v>
+        <v>104.63</v>
       </c>
       <c r="J60" s="11">
-        <v>70</v>
+        <v>112.9</v>
       </c>
       <c r="K60" s="11">
-        <v>65</v>
+        <v>112.9</v>
       </c>
       <c r="L60" s="11">
-        <v>60</v>
+        <v>112.9</v>
       </c>
       <c r="M60" s="11">
-        <v>50</v>
+        <v>112.9</v>
       </c>
       <c r="N60" s="11">
-        <v>45</v>
+        <v>112.9</v>
       </c>
       <c r="O60" s="11">
-        <v>40</v>
+        <v>112.9</v>
       </c>
       <c r="P60" s="12">
-        <v>43794</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
+        <v>45686</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="B61" s="11">
-        <v>25</v>
+        <v>38.380000000000003</v>
       </c>
       <c r="C61" s="11">
-        <v>25</v>
+        <v>47.93</v>
       </c>
       <c r="D61" s="11">
-        <v>25</v>
+        <v>58.26</v>
       </c>
       <c r="E61" s="11">
-        <v>30</v>
+        <v>59.32</v>
       </c>
       <c r="F61" s="11">
-        <v>30</v>
+        <v>66.900000000000006</v>
       </c>
       <c r="G61" s="11">
-        <v>35</v>
+        <v>73.19</v>
       </c>
       <c r="H61" s="11">
-        <v>35</v>
+        <v>80.069999999999993</v>
       </c>
       <c r="I61" s="11">
-        <v>35</v>
+        <v>86.09</v>
       </c>
       <c r="J61" s="11">
-        <v>40</v>
+        <v>93.39</v>
       </c>
       <c r="K61" s="11">
-        <v>35</v>
+        <v>93.39</v>
       </c>
       <c r="L61" s="11">
-        <v>35</v>
+        <v>93.39</v>
       </c>
       <c r="M61" s="11">
-        <v>30</v>
+        <v>93.39</v>
       </c>
       <c r="N61" s="11">
-        <v>25</v>
+        <v>93.39</v>
       </c>
       <c r="O61" s="11">
-        <v>25</v>
+        <v>93.39</v>
       </c>
       <c r="P61" s="12">
-        <v>43794</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
+        <v>45686</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="B62" s="11">
-        <v>20</v>
+        <v>32.47</v>
       </c>
       <c r="C62" s="11">
-        <v>20</v>
+        <v>40.08</v>
       </c>
       <c r="D62" s="11">
-        <v>20</v>
+        <v>48.29</v>
       </c>
       <c r="E62" s="11">
-        <v>25</v>
+        <v>48.72</v>
       </c>
       <c r="F62" s="11">
-        <v>25</v>
+        <v>55.23</v>
       </c>
       <c r="G62" s="11">
-        <v>25</v>
+        <v>60.67</v>
       </c>
       <c r="H62" s="11">
-        <v>25</v>
+        <v>66.209999999999994</v>
       </c>
       <c r="I62" s="11">
-        <v>30</v>
+        <v>71.790000000000006</v>
       </c>
       <c r="J62" s="11">
-        <v>30</v>
+        <v>77.34</v>
       </c>
       <c r="K62" s="11">
-        <v>30</v>
+        <v>77.34</v>
       </c>
       <c r="L62" s="11">
-        <v>25</v>
+        <v>77.34</v>
       </c>
       <c r="M62" s="11">
-        <v>20</v>
+        <v>77.34</v>
       </c>
       <c r="N62" s="11">
-        <v>20</v>
+        <v>77.34</v>
       </c>
       <c r="O62" s="11">
-        <v>20</v>
+        <v>77.34</v>
       </c>
       <c r="P62" s="12">
-        <v>43794</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
+        <v>45686</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="B63" s="11">
-        <v>20</v>
+        <v>37.32</v>
       </c>
       <c r="C63" s="11">
-        <v>25</v>
+        <v>46.42</v>
       </c>
       <c r="D63" s="11">
-        <v>25</v>
+        <v>55.67</v>
       </c>
       <c r="E63" s="11">
-        <v>25</v>
+        <v>56.01</v>
       </c>
       <c r="F63" s="11">
-        <v>30</v>
+        <v>63.88</v>
       </c>
       <c r="G63" s="11">
-        <v>30</v>
+        <v>70.2</v>
       </c>
       <c r="H63" s="11">
-        <v>30</v>
+        <v>76.91</v>
       </c>
       <c r="I63" s="11">
-        <v>35</v>
+        <v>83.06</v>
       </c>
       <c r="J63" s="11">
-        <v>35</v>
+        <v>89.82</v>
       </c>
       <c r="K63" s="11">
-        <v>35</v>
+        <v>89.82</v>
       </c>
       <c r="L63" s="11">
-        <v>30</v>
+        <v>89.82</v>
       </c>
       <c r="M63" s="11">
-        <v>25</v>
+        <v>89.82</v>
       </c>
       <c r="N63" s="11">
-        <v>25</v>
+        <v>89.82</v>
       </c>
       <c r="O63" s="11">
-        <v>20</v>
+        <v>89.82</v>
       </c>
       <c r="P63" s="12">
-        <v>43794</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
+        <v>45686</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="B64" s="11">
-        <v>30</v>
+        <v>24.01</v>
       </c>
       <c r="C64" s="11">
-        <v>35</v>
+        <v>28.18</v>
       </c>
       <c r="D64" s="11">
-        <v>35</v>
+        <v>33.17</v>
       </c>
       <c r="E64" s="11">
-        <v>40</v>
+        <v>35.39</v>
       </c>
       <c r="F64" s="11">
-        <v>40</v>
+        <v>40.51</v>
       </c>
       <c r="G64" s="11">
-        <v>45</v>
+        <v>44.67</v>
       </c>
       <c r="H64" s="11">
-        <v>45</v>
+        <v>48.99</v>
       </c>
       <c r="I64" s="11">
-        <v>45</v>
+        <v>53.32</v>
       </c>
       <c r="J64" s="11">
-        <v>50</v>
+        <v>57.81</v>
       </c>
       <c r="K64" s="11">
-        <v>50</v>
+        <v>57.81</v>
       </c>
       <c r="L64" s="11">
-        <v>45</v>
+        <v>57.81</v>
       </c>
       <c r="M64" s="11">
-        <v>35</v>
+        <v>57.81</v>
       </c>
       <c r="N64" s="11">
-        <v>30</v>
+        <v>57.81</v>
       </c>
       <c r="O64" s="11">
-        <v>30</v>
+        <v>57.81</v>
       </c>
       <c r="P64" s="12">
-        <v>43794</v>
+        <v>45686</v>
       </c>
     </row>
     <row r="65" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="10" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="B65" s="11">
-        <v>35</v>
+        <v>37.229999999999997</v>
       </c>
       <c r="C65" s="11">
-        <v>40</v>
+        <v>46.72</v>
       </c>
       <c r="D65" s="11">
-        <v>40</v>
+        <v>56.32</v>
       </c>
       <c r="E65" s="11">
-        <v>45</v>
+        <v>57.26</v>
       </c>
       <c r="F65" s="11">
-        <v>45</v>
+        <v>64.59</v>
       </c>
       <c r="G65" s="11">
-        <v>50</v>
+        <v>70.98</v>
       </c>
       <c r="H65" s="11">
-        <v>50</v>
+        <v>77.34</v>
       </c>
       <c r="I65" s="11">
-        <v>55</v>
+        <v>83.99</v>
       </c>
       <c r="J65" s="11">
-        <v>60</v>
+        <v>90.39</v>
       </c>
       <c r="K65" s="11">
-        <v>55</v>
+        <v>92.96</v>
       </c>
       <c r="L65" s="11">
-        <v>50</v>
+        <v>92.96</v>
       </c>
       <c r="M65" s="11">
-        <v>40</v>
+        <v>92.96</v>
       </c>
       <c r="N65" s="11">
-        <v>35</v>
+        <v>92.96</v>
       </c>
       <c r="O65" s="11">
-        <v>35</v>
+        <v>92.96</v>
       </c>
       <c r="P65" s="12">
-        <v>43794</v>
+        <v>45686</v>
       </c>
     </row>
     <row r="66" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="B66" s="11">
-        <v>20</v>
+        <v>42.99</v>
       </c>
       <c r="C66" s="11">
-        <v>25</v>
+        <v>57.79</v>
       </c>
       <c r="D66" s="11">
-        <v>25</v>
+        <v>70.55</v>
       </c>
       <c r="E66" s="11">
-        <v>25</v>
+        <v>71.930000000000007</v>
       </c>
       <c r="F66" s="11">
-        <v>30</v>
+        <v>81.02</v>
       </c>
       <c r="G66" s="11">
-        <v>30</v>
+        <v>88.89</v>
       </c>
       <c r="H66" s="11">
-        <v>30</v>
+        <v>97.44</v>
       </c>
       <c r="I66" s="11">
-        <v>35</v>
+        <v>104.63</v>
       </c>
       <c r="J66" s="11">
-        <v>35</v>
+        <v>112.9</v>
       </c>
       <c r="K66" s="11">
-        <v>35</v>
+        <v>116.03</v>
       </c>
       <c r="L66" s="11">
-        <v>30</v>
+        <v>116.03</v>
       </c>
       <c r="M66" s="11">
-        <v>25</v>
+        <v>116.03</v>
       </c>
       <c r="N66" s="11">
-        <v>20</v>
+        <v>116.03</v>
       </c>
       <c r="O66" s="11">
-        <v>20</v>
+        <v>116.03</v>
       </c>
       <c r="P66" s="12">
-        <v>43794</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>45686</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="B67" s="11">
-        <v>35</v>
+        <v>50.04</v>
       </c>
       <c r="C67" s="11">
-        <v>35</v>
+        <v>63.51</v>
       </c>
       <c r="D67" s="11">
-        <v>40</v>
+        <v>77.760000000000005</v>
       </c>
       <c r="E67" s="11">
-        <v>45</v>
+        <v>79.53</v>
       </c>
       <c r="F67" s="11">
-        <v>45</v>
+        <v>88.89</v>
       </c>
       <c r="G67" s="11">
-        <v>50</v>
+        <v>97.84</v>
       </c>
       <c r="H67" s="11">
-        <v>50</v>
+        <v>106.4</v>
       </c>
       <c r="I67" s="11">
-        <v>55</v>
+        <v>114.82</v>
       </c>
       <c r="J67" s="11">
-        <v>55</v>
+        <v>124.15</v>
       </c>
       <c r="K67" s="11">
-        <v>55</v>
+        <v>127.28</v>
       </c>
       <c r="L67" s="11">
-        <v>50</v>
+        <v>127.28</v>
       </c>
       <c r="M67" s="11">
-        <v>40</v>
+        <v>127.28</v>
       </c>
       <c r="N67" s="11">
-        <v>35</v>
+        <v>127.28</v>
       </c>
       <c r="O67" s="11">
-        <v>35</v>
+        <v>127.28</v>
       </c>
       <c r="P67" s="12">
-        <v>43794</v>
+        <v>45686</v>
       </c>
     </row>
     <row r="68" spans="1:16" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="B68" s="11">
-        <v>35</v>
+        <v>54.91</v>
       </c>
       <c r="C68" s="11">
-        <v>40</v>
+        <v>69.930000000000007</v>
       </c>
       <c r="D68" s="11">
-        <v>40</v>
+        <v>85.39</v>
       </c>
       <c r="E68" s="11">
-        <v>45</v>
+        <v>87.81</v>
       </c>
       <c r="F68" s="11">
-        <v>50</v>
+        <v>98.12</v>
       </c>
       <c r="G68" s="11">
-        <v>50</v>
+        <v>107.72</v>
       </c>
       <c r="H68" s="11">
-        <v>55</v>
+        <v>117.16</v>
       </c>
       <c r="I68" s="11">
-        <v>55</v>
+        <v>126.93</v>
       </c>
       <c r="J68" s="11">
-        <v>60</v>
+        <v>136.78</v>
       </c>
       <c r="K68" s="11">
-        <v>55</v>
+        <v>136.78</v>
       </c>
       <c r="L68" s="11">
-        <v>50</v>
+        <v>136.78</v>
       </c>
       <c r="M68" s="11">
-        <v>45</v>
+        <v>136.78</v>
       </c>
       <c r="N68" s="11">
-        <v>35</v>
+        <v>136.78</v>
       </c>
       <c r="O68" s="11">
-        <v>35</v>
+        <v>136.78</v>
       </c>
       <c r="P68" s="12">
-        <v>43794</v>
+        <v>45686</v>
       </c>
     </row>
     <row r="69" spans="1:16" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="10" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="B69" s="11">
-        <v>25</v>
+        <v>56.18</v>
       </c>
       <c r="C69" s="11">
-        <v>30</v>
+        <v>71.69</v>
       </c>
       <c r="D69" s="11">
-        <v>30</v>
+        <v>88.22</v>
       </c>
       <c r="E69" s="11">
-        <v>35</v>
+        <v>90.09</v>
       </c>
       <c r="F69" s="11">
-        <v>35</v>
+        <v>101.12</v>
       </c>
       <c r="G69" s="11">
-        <v>40</v>
+        <v>110.98</v>
       </c>
       <c r="H69" s="11">
-        <v>40</v>
+        <v>120.77</v>
       </c>
       <c r="I69" s="11">
-        <v>40</v>
+        <v>130.54</v>
       </c>
       <c r="J69" s="11">
-        <v>45</v>
+        <v>140.6</v>
       </c>
       <c r="K69" s="11">
-        <v>40</v>
+        <v>140.6</v>
       </c>
       <c r="L69" s="11">
-        <v>40</v>
+        <v>140.6</v>
       </c>
       <c r="M69" s="11">
-        <v>30</v>
+        <v>140.6</v>
       </c>
       <c r="N69" s="11">
-        <v>30</v>
+        <v>140.6</v>
       </c>
       <c r="O69" s="11">
-        <v>25</v>
+        <v>140.6</v>
       </c>
       <c r="P69" s="12">
-        <v>43794</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>45686</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="10" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="B70" s="11">
-        <v>30</v>
+        <v>42.8</v>
       </c>
       <c r="C70" s="11">
-        <v>35</v>
+        <v>53.88</v>
       </c>
       <c r="D70" s="11">
-        <v>35</v>
+        <v>65.52</v>
       </c>
       <c r="E70" s="11">
-        <v>40</v>
+        <v>67.180000000000007</v>
       </c>
       <c r="F70" s="11">
-        <v>45</v>
+        <v>75.459999999999994</v>
       </c>
       <c r="G70" s="11">
-        <v>45</v>
+        <v>82.66</v>
       </c>
       <c r="H70" s="11">
-        <v>45</v>
+        <v>90.23</v>
       </c>
       <c r="I70" s="11">
-        <v>50</v>
+        <v>97.44</v>
       </c>
       <c r="J70" s="11">
-        <v>50</v>
+        <v>106.13</v>
       </c>
       <c r="K70" s="11">
-        <v>50</v>
+        <v>106.13</v>
       </c>
       <c r="L70" s="11">
-        <v>45</v>
+        <v>106.13</v>
       </c>
       <c r="M70" s="11">
-        <v>40</v>
+        <v>106.13</v>
       </c>
       <c r="N70" s="11">
-        <v>35</v>
+        <v>106.13</v>
       </c>
       <c r="O70" s="11">
-        <v>30</v>
+        <v>106.13</v>
       </c>
       <c r="P70" s="12">
-        <v>43794</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>45686</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="10" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="B71" s="11">
-        <v>35</v>
+        <v>47.58</v>
       </c>
       <c r="C71" s="11">
-        <v>35</v>
+        <v>60.64</v>
       </c>
       <c r="D71" s="11">
-        <v>40</v>
+        <v>74.13</v>
       </c>
       <c r="E71" s="11">
-        <v>45</v>
+        <v>75.86</v>
       </c>
       <c r="F71" s="11">
-        <v>45</v>
+        <v>84.95</v>
       </c>
       <c r="G71" s="11">
-        <v>50</v>
+        <v>92.96</v>
       </c>
       <c r="H71" s="11">
-        <v>50</v>
+        <v>101.37</v>
       </c>
       <c r="I71" s="11">
-        <v>55</v>
+        <v>109.91</v>
       </c>
       <c r="J71" s="11">
-        <v>60</v>
+        <v>118.35</v>
       </c>
       <c r="K71" s="11">
-        <v>55</v>
+        <v>118.35</v>
       </c>
       <c r="L71" s="11">
-        <v>50</v>
+        <v>118.35</v>
       </c>
       <c r="M71" s="11">
-        <v>40</v>
+        <v>118.35</v>
       </c>
       <c r="N71" s="11">
-        <v>35</v>
+        <v>118.35</v>
       </c>
       <c r="O71" s="11">
-        <v>35</v>
+        <v>118.35</v>
       </c>
       <c r="P71" s="12">
-        <v>43794</v>
+        <v>45686</v>
       </c>
     </row>
     <row r="72" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="B72" s="11">
-        <v>30</v>
+        <v>41.95</v>
       </c>
       <c r="C72" s="11">
-        <v>30</v>
+        <v>52.58</v>
       </c>
       <c r="D72" s="11">
-        <v>35</v>
+        <v>64.23</v>
       </c>
       <c r="E72" s="11">
-        <v>35</v>
+        <v>65.69</v>
       </c>
       <c r="F72" s="11">
-        <v>40</v>
+        <v>73.83</v>
       </c>
       <c r="G72" s="11">
-        <v>40</v>
+        <v>80.72</v>
       </c>
       <c r="H72" s="11">
-        <v>45</v>
+        <v>88.07</v>
       </c>
       <c r="I72" s="11">
-        <v>45</v>
+        <v>95.27</v>
       </c>
       <c r="J72" s="11">
-        <v>45</v>
+        <v>102.74</v>
       </c>
       <c r="K72" s="11">
-        <v>45</v>
+        <v>102.74</v>
       </c>
       <c r="L72" s="11">
-        <v>40</v>
+        <v>102.74</v>
       </c>
       <c r="M72" s="11">
-        <v>35</v>
+        <v>102.74</v>
       </c>
       <c r="N72" s="11">
-        <v>30</v>
+        <v>102.74</v>
       </c>
       <c r="O72" s="11">
-        <v>30</v>
+        <v>102.74</v>
       </c>
       <c r="P72" s="12">
-        <v>43794</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
+        <v>45686</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="10" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="B73" s="11">
-        <v>30</v>
+        <v>45.36</v>
       </c>
       <c r="C73" s="11">
-        <v>35</v>
+        <v>60.99</v>
       </c>
       <c r="D73" s="11">
-        <v>35</v>
+        <v>74.48</v>
       </c>
       <c r="E73" s="11">
-        <v>40</v>
+        <v>75.930000000000007</v>
       </c>
       <c r="F73" s="11">
-        <v>40</v>
+        <v>85.52</v>
       </c>
       <c r="G73" s="11">
-        <v>45</v>
+        <v>93.82</v>
       </c>
       <c r="H73" s="11">
-        <v>45</v>
+        <v>102.85</v>
       </c>
       <c r="I73" s="11">
-        <v>50</v>
+        <v>110.42</v>
       </c>
       <c r="J73" s="11">
-        <v>50</v>
+        <v>119.17</v>
       </c>
       <c r="K73" s="11">
-        <v>50</v>
+        <v>119.17</v>
       </c>
       <c r="L73" s="11">
-        <v>45</v>
+        <v>119.17</v>
       </c>
       <c r="M73" s="11">
-        <v>40</v>
+        <v>119.17</v>
       </c>
       <c r="N73" s="11">
-        <v>35</v>
+        <v>119.17</v>
       </c>
       <c r="O73" s="11">
-        <v>30</v>
+        <v>119.17</v>
       </c>
       <c r="P73" s="12">
-        <v>43794</v>
+        <v>45686</v>
       </c>
     </row>
     <row r="74" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="B74" s="11">
-        <v>20</v>
+        <v>45.99</v>
       </c>
       <c r="C74" s="11">
-        <v>25</v>
+        <v>58.26</v>
       </c>
       <c r="D74" s="11">
-        <v>25</v>
+        <v>70.680000000000007</v>
       </c>
       <c r="E74" s="11">
-        <v>30</v>
+        <v>72.34</v>
       </c>
       <c r="F74" s="11">
-        <v>30</v>
+        <v>81.209999999999994</v>
       </c>
       <c r="G74" s="11">
-        <v>35</v>
+        <v>88.95</v>
       </c>
       <c r="H74" s="11">
-        <v>35</v>
+        <v>96.98</v>
       </c>
       <c r="I74" s="11">
-        <v>35</v>
+        <v>104.86</v>
       </c>
       <c r="J74" s="11">
-        <v>40</v>
+        <v>113.17</v>
       </c>
       <c r="K74" s="11">
-        <v>35</v>
+        <v>113.17</v>
       </c>
       <c r="L74" s="11">
-        <v>35</v>
+        <v>113.17</v>
       </c>
       <c r="M74" s="11">
-        <v>30</v>
+        <v>113.17</v>
       </c>
       <c r="N74" s="11">
-        <v>25</v>
+        <v>113.17</v>
       </c>
       <c r="O74" s="11">
-        <v>20</v>
+        <v>113.17</v>
       </c>
       <c r="P74" s="12">
-        <v>43794</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>45686</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="B75" s="11">
-        <v>25</v>
+        <v>26.54</v>
       </c>
       <c r="C75" s="11">
-        <v>25</v>
+        <v>32.47</v>
       </c>
       <c r="D75" s="11">
-        <v>25</v>
+        <v>38.53</v>
       </c>
       <c r="E75" s="11">
-        <v>30</v>
+        <v>38.82</v>
       </c>
       <c r="F75" s="11">
-        <v>30</v>
+        <v>44.4</v>
       </c>
       <c r="G75" s="11">
-        <v>35</v>
+        <v>47.71</v>
       </c>
       <c r="H75" s="11">
-        <v>35</v>
+        <v>52.28</v>
       </c>
       <c r="I75" s="11">
-        <v>35</v>
+        <v>56.58</v>
       </c>
       <c r="J75" s="11">
-        <v>40</v>
+        <v>59.43</v>
       </c>
       <c r="K75" s="11">
-        <v>35</v>
+        <v>59.43</v>
       </c>
       <c r="L75" s="11">
-        <v>35</v>
+        <v>59.43</v>
       </c>
       <c r="M75" s="11">
-        <v>30</v>
+        <v>59.43</v>
       </c>
       <c r="N75" s="11">
-        <v>25</v>
+        <v>59.43</v>
       </c>
       <c r="O75" s="11">
-        <v>25</v>
+        <v>59.43</v>
       </c>
       <c r="P75" s="12">
-        <v>43794</v>
-      </c>
-    </row>
-    <row r="76" spans="1:16" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>45686</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="B76" s="11">
-        <v>25</v>
+        <v>50.04</v>
       </c>
       <c r="C76" s="11">
-        <v>30</v>
+        <v>63.51</v>
       </c>
       <c r="D76" s="11">
-        <v>30</v>
+        <v>77.760000000000005</v>
       </c>
       <c r="E76" s="11">
-        <v>35</v>
+        <v>79.53</v>
       </c>
       <c r="F76" s="11">
-        <v>40</v>
+        <v>88.89</v>
       </c>
       <c r="G76" s="11">
-        <v>40</v>
+        <v>97.84</v>
       </c>
       <c r="H76" s="11">
-        <v>40</v>
+        <v>106.4</v>
       </c>
       <c r="I76" s="11">
-        <v>45</v>
+        <v>114.82</v>
       </c>
       <c r="J76" s="11">
-        <v>45</v>
+        <v>124.15</v>
       </c>
       <c r="K76" s="11">
-        <v>45</v>
+        <v>124.15</v>
       </c>
       <c r="L76" s="11">
-        <v>40</v>
+        <v>124.15</v>
       </c>
       <c r="M76" s="11">
-        <v>35</v>
+        <v>124.15</v>
       </c>
       <c r="N76" s="11">
-        <v>30</v>
+        <v>124.15</v>
       </c>
       <c r="O76" s="11">
-        <v>25</v>
+        <v>124.15</v>
       </c>
       <c r="P76" s="12">
-        <v>43794</v>
-      </c>
-    </row>
-    <row r="77" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
+        <v>45686</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="10" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="B77" s="11">
-        <v>35</v>
+        <v>52.82</v>
       </c>
       <c r="C77" s="11">
-        <v>40</v>
+        <v>67.05</v>
       </c>
       <c r="D77" s="11">
-        <v>40</v>
+        <v>82.08</v>
       </c>
       <c r="E77" s="11">
-        <v>45</v>
+        <v>83.95</v>
       </c>
       <c r="F77" s="11">
-        <v>50</v>
+        <v>93.82</v>
       </c>
       <c r="G77" s="11">
-        <v>50</v>
+        <v>103.27</v>
       </c>
       <c r="H77" s="11">
-        <v>55</v>
+        <v>112.31</v>
       </c>
       <c r="I77" s="11">
-        <v>55</v>
+        <v>121.2</v>
       </c>
       <c r="J77" s="11">
-        <v>60</v>
+        <v>131.04</v>
       </c>
       <c r="K77" s="11">
-        <v>55</v>
+        <v>131.04</v>
       </c>
       <c r="L77" s="11">
-        <v>50</v>
+        <v>131.04</v>
       </c>
       <c r="M77" s="11">
-        <v>45</v>
+        <v>131.04</v>
       </c>
       <c r="N77" s="11">
-        <v>40</v>
+        <v>131.04</v>
       </c>
       <c r="O77" s="11">
-        <v>35</v>
+        <v>131.04</v>
       </c>
       <c r="P77" s="12">
-        <v>43794</v>
+        <v>45686</v>
       </c>
     </row>
     <row r="78" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="10" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="B78" s="11">
-        <v>40</v>
+        <v>30.63</v>
       </c>
       <c r="C78" s="11">
-        <v>45</v>
+        <v>37.450000000000003</v>
       </c>
       <c r="D78" s="11">
-        <v>50</v>
+        <v>44.28</v>
       </c>
       <c r="E78" s="11">
-        <v>50</v>
+        <v>44.69</v>
       </c>
       <c r="F78" s="11">
-        <v>55</v>
+        <v>51.15</v>
       </c>
       <c r="G78" s="11">
-        <v>60</v>
+        <v>56.01</v>
       </c>
       <c r="H78" s="11">
-        <v>60</v>
+        <v>61.18</v>
       </c>
       <c r="I78" s="11">
-        <v>65</v>
+        <v>66.47</v>
       </c>
       <c r="J78" s="11">
-        <v>70</v>
+        <v>72.040000000000006</v>
       </c>
       <c r="K78" s="11">
-        <v>65</v>
+        <v>72.040000000000006</v>
       </c>
       <c r="L78" s="11">
-        <v>60</v>
+        <v>72.040000000000006</v>
       </c>
       <c r="M78" s="11">
-        <v>50</v>
+        <v>72.040000000000006</v>
       </c>
       <c r="N78" s="11">
-        <v>45</v>
+        <v>72.040000000000006</v>
       </c>
       <c r="O78" s="11">
-        <v>40</v>
+        <v>72.040000000000006</v>
       </c>
       <c r="P78" s="12">
-        <v>43794</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>45686</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="10" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="B79" s="11">
-        <v>50</v>
+        <v>27.47</v>
       </c>
       <c r="C79" s="11">
-        <v>55</v>
+        <v>33.520000000000003</v>
       </c>
       <c r="D79" s="11">
-        <v>55</v>
+        <v>39.42</v>
       </c>
       <c r="E79" s="11">
-        <v>60</v>
+        <v>42.16</v>
       </c>
       <c r="F79" s="11">
-        <v>65</v>
+        <v>47.92</v>
       </c>
       <c r="G79" s="11">
-        <v>70</v>
+        <v>52.82</v>
       </c>
       <c r="H79" s="11">
-        <v>75</v>
+        <v>57.82</v>
       </c>
       <c r="I79" s="11">
-        <v>75</v>
+        <v>62.63</v>
       </c>
       <c r="J79" s="11">
-        <v>80</v>
+        <v>67.94</v>
       </c>
       <c r="K79" s="11">
-        <v>80</v>
+        <v>67.94</v>
       </c>
       <c r="L79" s="11">
-        <v>70</v>
+        <v>67.94</v>
       </c>
       <c r="M79" s="11">
-        <v>60</v>
+        <v>67.94</v>
       </c>
       <c r="N79" s="11">
-        <v>50</v>
+        <v>67.94</v>
       </c>
       <c r="O79" s="11">
-        <v>50</v>
+        <v>67.94</v>
       </c>
       <c r="P79" s="12">
-        <v>43794</v>
+        <v>45686</v>
       </c>
     </row>
     <row r="80" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="10" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="B80" s="11">
-        <v>40</v>
+        <v>32.25</v>
       </c>
       <c r="C80" s="11">
-        <v>45</v>
+        <v>39.43</v>
       </c>
       <c r="D80" s="11">
-        <v>50</v>
+        <v>46.6</v>
       </c>
       <c r="E80" s="11">
-        <v>55</v>
+        <v>50.12</v>
       </c>
       <c r="F80" s="11">
-        <v>60</v>
+        <v>56.85</v>
       </c>
       <c r="G80" s="11">
-        <v>60</v>
+        <v>62.42</v>
       </c>
       <c r="H80" s="11">
-        <v>65</v>
+        <v>68.180000000000007</v>
       </c>
       <c r="I80" s="11">
-        <v>65</v>
+        <v>74.08</v>
       </c>
       <c r="J80" s="11">
-        <v>70</v>
+        <v>80.290000000000006</v>
       </c>
       <c r="K80" s="11">
-        <v>65</v>
+        <v>80.290000000000006</v>
       </c>
       <c r="L80" s="11">
-        <v>60</v>
+        <v>80.290000000000006</v>
       </c>
       <c r="M80" s="11">
-        <v>50</v>
+        <v>80.290000000000006</v>
       </c>
       <c r="N80" s="11">
-        <v>45</v>
+        <v>80.290000000000006</v>
       </c>
       <c r="O80" s="11">
-        <v>40</v>
+        <v>80.290000000000006</v>
       </c>
       <c r="P80" s="12">
-        <v>43794</v>
+        <v>45686</v>
       </c>
     </row>
     <row r="81" spans="1:16" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="10" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="B81" s="11">
-        <v>50</v>
+        <v>32.25</v>
       </c>
       <c r="C81" s="11">
-        <v>55</v>
+        <v>39.43</v>
       </c>
       <c r="D81" s="11">
-        <v>60</v>
+        <v>46.6</v>
       </c>
       <c r="E81" s="11">
-        <v>65</v>
+        <v>50.12</v>
       </c>
       <c r="F81" s="11">
-        <v>70</v>
+        <v>56.85</v>
       </c>
       <c r="G81" s="11">
-        <v>75</v>
+        <v>62.42</v>
       </c>
       <c r="H81" s="11">
-        <v>75</v>
+        <v>68.180000000000007</v>
       </c>
       <c r="I81" s="11">
-        <v>80</v>
+        <v>74.08</v>
       </c>
       <c r="J81" s="11">
-        <v>85</v>
+        <v>80.290000000000006</v>
       </c>
       <c r="K81" s="11">
-        <v>80</v>
+        <v>80.290000000000006</v>
       </c>
       <c r="L81" s="11">
-        <v>75</v>
+        <v>80.290000000000006</v>
       </c>
       <c r="M81" s="11">
-        <v>60</v>
+        <v>80.290000000000006</v>
       </c>
       <c r="N81" s="11">
-        <v>55</v>
+        <v>80.290000000000006</v>
       </c>
       <c r="O81" s="11">
-        <v>50</v>
+        <v>80.290000000000006</v>
       </c>
       <c r="P81" s="12">
-        <v>43794</v>
-      </c>
-    </row>
-    <row r="82" spans="1:16" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>45686</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="10" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="B82" s="11">
-        <v>45</v>
+        <v>39.29</v>
       </c>
       <c r="C82" s="11">
-        <v>50</v>
+        <v>49.32</v>
       </c>
       <c r="D82" s="11">
-        <v>55</v>
+        <v>59.43</v>
       </c>
       <c r="E82" s="11">
-        <v>60</v>
+        <v>60.45</v>
       </c>
       <c r="F82" s="11">
-        <v>65</v>
+        <v>68.180000000000007</v>
       </c>
       <c r="G82" s="11">
-        <v>70</v>
+        <v>74.930000000000007</v>
       </c>
       <c r="H82" s="11">
-        <v>70</v>
+        <v>81.63</v>
       </c>
       <c r="I82" s="11">
-        <v>75</v>
+        <v>88.67</v>
       </c>
       <c r="J82" s="11">
-        <v>80</v>
+        <v>95.42</v>
       </c>
       <c r="K82" s="11">
-        <v>75</v>
+        <v>95.42</v>
       </c>
       <c r="L82" s="11">
-        <v>70</v>
+        <v>95.42</v>
       </c>
       <c r="M82" s="11">
-        <v>60</v>
+        <v>95.42</v>
       </c>
       <c r="N82" s="11">
-        <v>50</v>
+        <v>95.42</v>
       </c>
       <c r="O82" s="11">
-        <v>45</v>
+        <v>95.42</v>
       </c>
       <c r="P82" s="12">
-        <v>43794</v>
-      </c>
-    </row>
-    <row r="83" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
+        <v>45686</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="10" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="B83" s="11">
-        <v>55</v>
+        <v>37.32</v>
       </c>
       <c r="C83" s="11">
-        <v>65</v>
+        <v>46.42</v>
       </c>
       <c r="D83" s="11">
-        <v>70</v>
+        <v>55.67</v>
       </c>
       <c r="E83" s="11">
-        <v>75</v>
+        <v>56.01</v>
       </c>
       <c r="F83" s="11">
-        <v>80</v>
+        <v>63.88</v>
       </c>
       <c r="G83" s="11">
-        <v>85</v>
+        <v>70.2</v>
       </c>
       <c r="H83" s="11">
-        <v>85</v>
+        <v>76.91</v>
       </c>
       <c r="I83" s="11">
-        <v>90</v>
+        <v>83.06</v>
       </c>
       <c r="J83" s="11">
-        <v>95</v>
+        <v>89.82</v>
       </c>
       <c r="K83" s="11">
-        <v>90</v>
+        <v>89.82</v>
       </c>
       <c r="L83" s="11">
-        <v>85</v>
+        <v>89.82</v>
       </c>
       <c r="M83" s="11">
-        <v>70</v>
+        <v>89.82</v>
       </c>
       <c r="N83" s="11">
-        <v>60</v>
+        <v>89.82</v>
       </c>
       <c r="O83" s="11">
-        <v>55</v>
+        <v>89.82</v>
       </c>
       <c r="P83" s="12">
-        <v>43794</v>
+        <v>45686</v>
       </c>
     </row>
     <row r="84" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="10" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="B84" s="11">
-        <v>40</v>
+        <v>54.91</v>
       </c>
       <c r="C84" s="11">
-        <v>45</v>
+        <v>69.930000000000007</v>
       </c>
       <c r="D84" s="11">
-        <v>45</v>
+        <v>85.39</v>
       </c>
       <c r="E84" s="11">
-        <v>50</v>
+        <v>87.81</v>
       </c>
       <c r="F84" s="11">
-        <v>55</v>
+        <v>98.12</v>
       </c>
       <c r="G84" s="11">
-        <v>60</v>
+        <v>107.55</v>
       </c>
       <c r="H84" s="11">
-        <v>60</v>
+        <v>117.14</v>
       </c>
       <c r="I84" s="11">
-        <v>65</v>
+        <v>126.93</v>
       </c>
       <c r="J84" s="11">
-        <v>70</v>
+        <v>136.78</v>
       </c>
       <c r="K84" s="11">
-        <v>65</v>
+        <v>136.78</v>
       </c>
       <c r="L84" s="11">
-        <v>60</v>
+        <v>136.78</v>
       </c>
       <c r="M84" s="11">
-        <v>50</v>
+        <v>136.78</v>
       </c>
       <c r="N84" s="11">
-        <v>45</v>
+        <v>136.78</v>
       </c>
       <c r="O84" s="11">
-        <v>40</v>
+        <v>136.78</v>
       </c>
       <c r="P84" s="12">
-        <v>43794</v>
-      </c>
-    </row>
-    <row r="85" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
+        <v>45686</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="10" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="B85" s="11">
-        <v>40</v>
+        <v>52.82</v>
       </c>
       <c r="C85" s="11">
-        <v>40</v>
+        <v>67.05</v>
       </c>
       <c r="D85" s="11">
-        <v>45</v>
+        <v>82.08</v>
       </c>
       <c r="E85" s="11">
-        <v>50</v>
+        <v>83.95</v>
       </c>
       <c r="F85" s="11">
-        <v>50</v>
+        <v>93.82</v>
       </c>
       <c r="G85" s="11">
-        <v>55</v>
+        <v>103.27</v>
       </c>
       <c r="H85" s="11">
-        <v>55</v>
+        <v>112.31</v>
       </c>
       <c r="I85" s="11">
-        <v>60</v>
+        <v>121.2</v>
       </c>
       <c r="J85" s="11">
-        <v>65</v>
+        <v>131.04</v>
       </c>
       <c r="K85" s="11">
-        <v>60</v>
+        <v>131.04</v>
       </c>
       <c r="L85" s="11">
-        <v>55</v>
+        <v>131.04</v>
       </c>
       <c r="M85" s="11">
-        <v>45</v>
+        <v>131.04</v>
       </c>
       <c r="N85" s="11">
-        <v>40</v>
+        <v>131.04</v>
       </c>
       <c r="O85" s="11">
-        <v>40</v>
+        <v>131.04</v>
       </c>
       <c r="P85" s="12">
-        <v>43794</v>
-      </c>
-    </row>
-    <row r="86" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
+        <v>45686</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="10" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="B86" s="11">
-        <v>40</v>
+        <v>61.43</v>
       </c>
       <c r="C86" s="11">
-        <v>45</v>
+        <v>78.25</v>
       </c>
       <c r="D86" s="11">
-        <v>45</v>
+        <v>96.94</v>
       </c>
       <c r="E86" s="11">
-        <v>50</v>
+        <v>88.7</v>
       </c>
       <c r="F86" s="11">
-        <v>55</v>
+        <v>110.88</v>
       </c>
       <c r="G86" s="11">
-        <v>60</v>
+        <v>121.2</v>
       </c>
       <c r="H86" s="11">
-        <v>60</v>
+        <v>132.35</v>
       </c>
       <c r="I86" s="11">
-        <v>65</v>
+        <v>142.97</v>
       </c>
       <c r="J86" s="11">
-        <v>65</v>
+        <v>154.41999999999999</v>
       </c>
       <c r="K86" s="11">
-        <v>65</v>
+        <v>154.41999999999999</v>
       </c>
       <c r="L86" s="11">
-        <v>60</v>
+        <v>154.41999999999999</v>
       </c>
       <c r="M86" s="11">
-        <v>50</v>
+        <v>154.41999999999999</v>
       </c>
       <c r="N86" s="11">
-        <v>45</v>
+        <v>154.41999999999999</v>
       </c>
       <c r="O86" s="11">
-        <v>40</v>
+        <v>154.41999999999999</v>
       </c>
       <c r="P86" s="12">
-        <v>43794</v>
+        <v>45686</v>
       </c>
     </row>
     <row r="87" spans="1:16" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="10" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="B87" s="11">
-        <v>35</v>
+        <v>54.91</v>
       </c>
       <c r="C87" s="11">
-        <v>40</v>
+        <v>69.930000000000007</v>
       </c>
       <c r="D87" s="11">
-        <v>45</v>
+        <v>85.39</v>
       </c>
       <c r="E87" s="11">
-        <v>50</v>
+        <v>87.81</v>
       </c>
       <c r="F87" s="11">
-        <v>50</v>
+        <v>98.13</v>
       </c>
       <c r="G87" s="11">
-        <v>55</v>
+        <v>107.72</v>
       </c>
       <c r="H87" s="11">
-        <v>55</v>
+        <v>117.16</v>
       </c>
       <c r="I87" s="11">
-        <v>60</v>
+        <v>126.93</v>
       </c>
       <c r="J87" s="11">
-        <v>65</v>
+        <v>136.78</v>
       </c>
       <c r="K87" s="11">
-        <v>60</v>
+        <v>136.78</v>
       </c>
       <c r="L87" s="11">
-        <v>55</v>
+        <v>136.78</v>
       </c>
       <c r="M87" s="11">
-        <v>45</v>
+        <v>136.78</v>
       </c>
       <c r="N87" s="11">
-        <v>40</v>
+        <v>136.78</v>
       </c>
       <c r="O87" s="11">
-        <v>35</v>
+        <v>136.78</v>
       </c>
       <c r="P87" s="12">
-        <v>43794</v>
+        <v>45686</v>
       </c>
     </row>
     <row r="88" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="10" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="B88" s="11">
-        <v>35</v>
+        <v>39.29</v>
       </c>
       <c r="C88" s="11">
-        <v>40</v>
+        <v>49.32</v>
       </c>
       <c r="D88" s="11">
-        <v>45</v>
+        <v>59.43</v>
       </c>
       <c r="E88" s="11">
-        <v>45</v>
+        <v>60.45</v>
       </c>
       <c r="F88" s="11">
-        <v>50</v>
+        <v>68.180000000000007</v>
       </c>
       <c r="G88" s="11">
-        <v>55</v>
+        <v>74.930000000000007</v>
       </c>
       <c r="H88" s="11">
-        <v>55</v>
+        <v>81.63</v>
       </c>
       <c r="I88" s="11">
-        <v>55</v>
+        <v>88.67</v>
       </c>
       <c r="J88" s="11">
-        <v>60</v>
+        <v>95.42</v>
       </c>
       <c r="K88" s="11">
-        <v>60</v>
+        <v>95.42</v>
       </c>
       <c r="L88" s="11">
-        <v>55</v>
+        <v>95.42</v>
       </c>
       <c r="M88" s="11">
-        <v>45</v>
+        <v>95.42</v>
       </c>
       <c r="N88" s="11">
-        <v>40</v>
+        <v>95.42</v>
       </c>
       <c r="O88" s="11">
-        <v>35</v>
+        <v>95.42</v>
       </c>
       <c r="P88" s="12">
-        <v>43794</v>
-      </c>
-    </row>
-    <row r="89" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
+        <v>45686</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A89" s="10" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="B89" s="11">
-        <v>20</v>
+        <v>33.479999999999997</v>
       </c>
       <c r="C89" s="11">
-        <v>25</v>
+        <v>41.95</v>
       </c>
       <c r="D89" s="11">
-        <v>25</v>
+        <v>50.74</v>
       </c>
       <c r="E89" s="11">
-        <v>30</v>
+        <v>51.57</v>
       </c>
       <c r="F89" s="11">
-        <v>30</v>
+        <v>57.95</v>
       </c>
       <c r="G89" s="11">
-        <v>30</v>
+        <v>63.92</v>
       </c>
       <c r="H89" s="11">
-        <v>35</v>
+        <v>69.48</v>
       </c>
       <c r="I89" s="11">
-        <v>35</v>
+        <v>75.31</v>
       </c>
       <c r="J89" s="11">
-        <v>35</v>
+        <v>81.430000000000007</v>
       </c>
       <c r="K89" s="11">
-        <v>35</v>
+        <v>81.430000000000007</v>
       </c>
       <c r="L89" s="11">
-        <v>35</v>
+        <v>81.430000000000007</v>
       </c>
       <c r="M89" s="11">
-        <v>25</v>
+        <v>81.430000000000007</v>
       </c>
       <c r="N89" s="11">
-        <v>25</v>
+        <v>81.430000000000007</v>
       </c>
       <c r="O89" s="11">
-        <v>20</v>
+        <v>81.430000000000007</v>
       </c>
       <c r="P89" s="12">
-        <v>43794</v>
-      </c>
-    </row>
-    <row r="90" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
+        <v>45686</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A90" s="10" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="B90" s="11">
-        <v>40</v>
+        <v>39.29</v>
       </c>
       <c r="C90" s="11">
-        <v>45</v>
+        <v>49.32</v>
       </c>
       <c r="D90" s="11">
-        <v>50</v>
+        <v>60.37</v>
       </c>
       <c r="E90" s="11">
-        <v>55</v>
+        <v>61.18</v>
       </c>
       <c r="F90" s="11">
-        <v>55</v>
+        <v>69.19</v>
       </c>
       <c r="G90" s="11">
-        <v>60</v>
+        <v>75.930000000000007</v>
       </c>
       <c r="H90" s="11">
-        <v>65</v>
+        <v>82.51</v>
       </c>
       <c r="I90" s="11">
-        <v>65</v>
+        <v>89.25</v>
       </c>
       <c r="J90" s="11">
-        <v>70</v>
+        <v>96.53</v>
       </c>
       <c r="K90" s="11">
-        <v>65</v>
+        <v>96.53</v>
       </c>
       <c r="L90" s="11">
-        <v>60</v>
+        <v>96.53</v>
       </c>
       <c r="M90" s="11">
-        <v>50</v>
+        <v>96.53</v>
       </c>
       <c r="N90" s="11">
-        <v>45</v>
+        <v>96.53</v>
       </c>
       <c r="O90" s="11">
-        <v>40</v>
+        <v>96.53</v>
       </c>
       <c r="P90" s="12">
-        <v>43794</v>
-      </c>
-    </row>
-    <row r="91" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
+        <v>45686</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A91" s="10" t="s">
-        <v>88</v>
+        <v>106</v>
       </c>
       <c r="B91" s="11">
-        <v>50</v>
+        <v>45.99</v>
       </c>
       <c r="C91" s="11">
-        <v>55</v>
+        <v>58.26</v>
       </c>
       <c r="D91" s="11">
-        <v>60</v>
+        <v>70.680000000000007</v>
       </c>
       <c r="E91" s="11">
-        <v>65</v>
+        <v>72.34</v>
       </c>
       <c r="F91" s="11">
-        <v>70</v>
+        <v>81.209999999999994</v>
       </c>
       <c r="G91" s="11">
-        <v>75</v>
+        <v>88.95</v>
       </c>
       <c r="H91" s="11">
-        <v>75</v>
+        <v>96.98</v>
       </c>
       <c r="I91" s="11">
-        <v>80</v>
+        <v>104.86</v>
       </c>
       <c r="J91" s="11">
-        <v>85</v>
+        <v>113.17</v>
       </c>
       <c r="K91" s="11">
-        <v>80</v>
+        <v>113.17</v>
       </c>
       <c r="L91" s="11">
-        <v>75</v>
+        <v>113.17</v>
       </c>
       <c r="M91" s="11">
-        <v>60</v>
+        <v>113.17</v>
       </c>
       <c r="N91" s="11">
-        <v>55</v>
+        <v>113.17</v>
       </c>
       <c r="O91" s="11">
-        <v>50</v>
+        <v>113.17</v>
       </c>
       <c r="P91" s="12">
-        <v>43794</v>
-      </c>
-    </row>
-    <row r="92" spans="1:16" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>45686</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="B92" s="11">
-        <v>40</v>
+        <v>39.29</v>
       </c>
       <c r="C92" s="11">
-        <v>45</v>
+        <v>49.32</v>
       </c>
       <c r="D92" s="11">
-        <v>50</v>
+        <v>59.43</v>
       </c>
       <c r="E92" s="11">
-        <v>55</v>
+        <v>60.45</v>
       </c>
       <c r="F92" s="11">
-        <v>55</v>
+        <v>68.180000000000007</v>
       </c>
       <c r="G92" s="11">
-        <v>60</v>
+        <v>74.930000000000007</v>
       </c>
       <c r="H92" s="11">
-        <v>65</v>
+        <v>81.63</v>
       </c>
       <c r="I92" s="11">
-        <v>65</v>
+        <v>88.67</v>
       </c>
       <c r="J92" s="11">
-        <v>70</v>
+        <v>95.42</v>
       </c>
       <c r="K92" s="11">
-        <v>65</v>
+        <v>95.42</v>
       </c>
       <c r="L92" s="11">
-        <v>60</v>
+        <v>95.42</v>
       </c>
       <c r="M92" s="11">
-        <v>50</v>
+        <v>95.42</v>
       </c>
       <c r="N92" s="11">
-        <v>45</v>
+        <v>95.42</v>
       </c>
       <c r="O92" s="11">
-        <v>40</v>
+        <v>95.42</v>
       </c>
       <c r="P92" s="12">
-        <v>43794</v>
-      </c>
-    </row>
-    <row r="93" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
+        <v>45686</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A93" s="10" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="B93" s="11">
-        <v>50</v>
+        <v>45.99</v>
       </c>
       <c r="C93" s="11">
-        <v>55</v>
+        <v>58.26</v>
       </c>
       <c r="D93" s="11">
-        <v>60</v>
+        <v>70.680000000000007</v>
       </c>
       <c r="E93" s="11">
-        <v>65</v>
+        <v>72.34</v>
       </c>
       <c r="F93" s="11">
-        <v>70</v>
+        <v>81.209999999999994</v>
       </c>
       <c r="G93" s="11">
-        <v>75</v>
+        <v>88.95</v>
       </c>
       <c r="H93" s="11">
-        <v>75</v>
+        <v>96.98</v>
       </c>
       <c r="I93" s="11">
-        <v>80</v>
+        <v>104.86</v>
       </c>
       <c r="J93" s="11">
-        <v>85</v>
+        <v>113.17</v>
       </c>
       <c r="K93" s="11">
-        <v>80</v>
+        <v>113.17</v>
       </c>
       <c r="L93" s="11">
-        <v>75</v>
+        <v>113.17</v>
       </c>
       <c r="M93" s="11">
-        <v>60</v>
+        <v>113.17</v>
       </c>
       <c r="N93" s="11">
-        <v>55</v>
+        <v>113.17</v>
       </c>
       <c r="O93" s="11">
-        <v>50</v>
+        <v>113.17</v>
       </c>
       <c r="P93" s="12">
-        <v>43794</v>
-      </c>
-    </row>
-    <row r="94" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
+        <v>45686</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A94" s="10" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="B94" s="11">
-        <v>30</v>
+        <v>32.25</v>
       </c>
       <c r="C94" s="11">
-        <v>35</v>
+        <v>39.43</v>
       </c>
       <c r="D94" s="11">
-        <v>35</v>
+        <v>46.6</v>
       </c>
       <c r="E94" s="11">
-        <v>40</v>
+        <v>50.12</v>
       </c>
       <c r="F94" s="11">
-        <v>40</v>
+        <v>56.85</v>
       </c>
       <c r="G94" s="11">
-        <v>45</v>
+        <v>62.42</v>
       </c>
       <c r="H94" s="11">
-        <v>45</v>
+        <v>68.180000000000007</v>
       </c>
       <c r="I94" s="11">
-        <v>50</v>
+        <v>74.08</v>
       </c>
       <c r="J94" s="11">
-        <v>50</v>
+        <v>80.290000000000006</v>
       </c>
       <c r="K94" s="11">
-        <v>50</v>
+        <v>80.290000000000006</v>
       </c>
       <c r="L94" s="11">
-        <v>45</v>
+        <v>80.290000000000006</v>
       </c>
       <c r="M94" s="11">
-        <v>35</v>
+        <v>80.290000000000006</v>
       </c>
       <c r="N94" s="11">
-        <v>35</v>
+        <v>80.290000000000006</v>
       </c>
       <c r="O94" s="11">
-        <v>30</v>
+        <v>80.290000000000006</v>
       </c>
       <c r="P94" s="12">
-        <v>43794</v>
-      </c>
-    </row>
-    <row r="95" spans="1:16" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>45686</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A95" s="10" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="B95" s="11">
-        <v>20</v>
+        <v>32.25</v>
       </c>
       <c r="C95" s="11">
-        <v>20</v>
+        <v>39.43</v>
       </c>
       <c r="D95" s="11">
-        <v>25</v>
+        <v>46.6</v>
       </c>
       <c r="E95" s="11">
-        <v>25</v>
+        <v>50.12</v>
       </c>
       <c r="F95" s="11">
-        <v>30</v>
+        <v>56.85</v>
       </c>
       <c r="G95" s="11">
-        <v>30</v>
+        <v>62.42</v>
       </c>
       <c r="H95" s="11">
-        <v>30</v>
+        <v>68.180000000000007</v>
       </c>
       <c r="I95" s="11">
-        <v>30</v>
+        <v>74.08</v>
       </c>
       <c r="J95" s="11">
-        <v>35</v>
+        <v>80.290000000000006</v>
       </c>
       <c r="K95" s="11">
-        <v>30</v>
+        <v>80.290000000000006</v>
       </c>
       <c r="L95" s="11">
-        <v>30</v>
+        <v>80.290000000000006</v>
       </c>
       <c r="M95" s="11">
-        <v>25</v>
+        <v>80.290000000000006</v>
       </c>
       <c r="N95" s="11">
-        <v>20</v>
+        <v>80.290000000000006</v>
       </c>
       <c r="O95" s="11">
-        <v>20</v>
+        <v>80.290000000000006</v>
       </c>
       <c r="P95" s="12">
-        <v>43794</v>
-      </c>
-    </row>
-    <row r="96" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
+        <v>45686</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A96" s="10" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="B96" s="11">
-        <v>30</v>
+        <v>32.25</v>
       </c>
       <c r="C96" s="11">
-        <v>35</v>
+        <v>39.43</v>
       </c>
       <c r="D96" s="11">
-        <v>35</v>
+        <v>46.6</v>
       </c>
       <c r="E96" s="11">
-        <v>40</v>
+        <v>50.12</v>
       </c>
       <c r="F96" s="11">
-        <v>40</v>
+        <v>56.85</v>
       </c>
       <c r="G96" s="11">
-        <v>45</v>
+        <v>62.42</v>
       </c>
       <c r="H96" s="11">
-        <v>45</v>
+        <v>68.180000000000007</v>
       </c>
       <c r="I96" s="11">
-        <v>50</v>
+        <v>74.08</v>
       </c>
       <c r="J96" s="11">
-        <v>50</v>
+        <v>80.290000000000006</v>
       </c>
       <c r="K96" s="11">
-        <v>50</v>
+        <v>80.290000000000006</v>
       </c>
       <c r="L96" s="11">
-        <v>45</v>
+        <v>80.290000000000006</v>
       </c>
       <c r="M96" s="11">
-        <v>35</v>
+        <v>80.290000000000006</v>
       </c>
       <c r="N96" s="11">
-        <v>35</v>
+        <v>80.290000000000006</v>
       </c>
       <c r="O96" s="11">
-        <v>30</v>
+        <v>80.290000000000006</v>
       </c>
       <c r="P96" s="12">
-        <v>43794</v>
-      </c>
-    </row>
-    <row r="97" spans="1:16" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>45686</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A97" s="10" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="B97" s="11">
-        <v>30</v>
+        <v>32.25</v>
       </c>
       <c r="C97" s="11">
-        <v>35</v>
+        <v>39.43</v>
       </c>
       <c r="D97" s="11">
-        <v>40</v>
+        <v>46.6</v>
       </c>
       <c r="E97" s="11">
-        <v>40</v>
+        <v>50.12</v>
       </c>
       <c r="F97" s="11">
-        <v>45</v>
+        <v>56.85</v>
       </c>
       <c r="G97" s="11">
-        <v>45</v>
+        <v>62.42</v>
       </c>
       <c r="H97" s="11">
-        <v>50</v>
+        <v>68.180000000000007</v>
       </c>
       <c r="I97" s="11">
-        <v>50</v>
+        <v>74.08</v>
       </c>
       <c r="J97" s="11">
-        <v>55</v>
+        <v>80.290000000000006</v>
       </c>
       <c r="K97" s="11">
-        <v>50</v>
+        <v>80.290000000000006</v>
       </c>
       <c r="L97" s="11">
-        <v>45</v>
+        <v>80.290000000000006</v>
       </c>
       <c r="M97" s="11">
-        <v>40</v>
+        <v>80.290000000000006</v>
       </c>
       <c r="N97" s="11">
-        <v>35</v>
+        <v>80.290000000000006</v>
       </c>
       <c r="O97" s="11">
-        <v>30</v>
+        <v>80.290000000000006</v>
       </c>
       <c r="P97" s="12">
-        <v>43794</v>
-      </c>
-    </row>
-    <row r="98" spans="1:16" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="B98" s="11">
-        <v>25</v>
-      </c>
-      <c r="C98" s="11">
-        <v>30</v>
-      </c>
-      <c r="D98" s="11">
-        <v>30</v>
-      </c>
-      <c r="E98" s="11">
-        <v>35</v>
-      </c>
-      <c r="F98" s="11">
-        <v>40</v>
-      </c>
-      <c r="G98" s="11">
-        <v>40</v>
-      </c>
-      <c r="H98" s="11">
-        <v>40</v>
-      </c>
-      <c r="I98" s="11">
-        <v>45</v>
-      </c>
-      <c r="J98" s="11">
-        <v>45</v>
-      </c>
-      <c r="K98" s="11">
-        <v>45</v>
-      </c>
-      <c r="L98" s="11">
-        <v>40</v>
-      </c>
-      <c r="M98" s="11">
-        <v>35</v>
-      </c>
-      <c r="N98" s="11">
-        <v>30</v>
-      </c>
-      <c r="O98" s="11">
-        <v>25</v>
+        <v>45686</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A98" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="B98" s="14">
+        <v>32.25</v>
+      </c>
+      <c r="C98" s="14">
+        <v>39.43</v>
+      </c>
+      <c r="D98" s="14">
+        <v>46.6</v>
+      </c>
+      <c r="E98" s="14">
+        <v>50.12</v>
+      </c>
+      <c r="F98" s="14">
+        <v>56.85</v>
+      </c>
+      <c r="G98" s="14">
+        <v>62.42</v>
+      </c>
+      <c r="H98" s="14">
+        <v>68.180000000000007</v>
+      </c>
+      <c r="I98" s="14">
+        <v>74.08</v>
+      </c>
+      <c r="J98" s="14">
+        <v>80.290000000000006</v>
+      </c>
+      <c r="K98" s="14">
+        <v>80.290000000000006</v>
+      </c>
+      <c r="L98" s="14">
+        <v>80.290000000000006</v>
+      </c>
+      <c r="M98" s="14">
+        <v>80.290000000000006</v>
+      </c>
+      <c r="N98" s="14">
+        <v>80.290000000000006</v>
+      </c>
+      <c r="O98" s="14">
+        <v>80.290000000000006</v>
       </c>
       <c r="P98" s="12">
-        <v>43794</v>
-      </c>
-    </row>
-    <row r="99" spans="1:16" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="B99" s="11">
-        <v>25</v>
-      </c>
-      <c r="C99" s="11">
-        <v>30</v>
-      </c>
-      <c r="D99" s="11">
-        <v>30</v>
-      </c>
-      <c r="E99" s="11">
-        <v>35</v>
-      </c>
-      <c r="F99" s="11">
-        <v>35</v>
-      </c>
-      <c r="G99" s="11">
-        <v>35</v>
-      </c>
-      <c r="H99" s="11">
-        <v>40</v>
-      </c>
-      <c r="I99" s="11">
-        <v>40</v>
-      </c>
-      <c r="J99" s="11">
-        <v>45</v>
-      </c>
-      <c r="K99" s="11">
-        <v>40</v>
-      </c>
-      <c r="L99" s="11">
-        <v>40</v>
-      </c>
-      <c r="M99" s="11">
-        <v>30</v>
-      </c>
-      <c r="N99" s="11">
-        <v>25</v>
-      </c>
-      <c r="O99" s="11">
-        <v>25</v>
-      </c>
-      <c r="P99" s="12">
-        <v>43794</v>
-      </c>
-    </row>
-    <row r="100" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="B100" s="11">
-        <v>40</v>
-      </c>
-      <c r="C100" s="11">
-        <v>45</v>
-      </c>
-      <c r="D100" s="11">
-        <v>50</v>
-      </c>
-      <c r="E100" s="11">
-        <v>50</v>
-      </c>
-      <c r="F100" s="11">
-        <v>55</v>
-      </c>
-      <c r="G100" s="11">
-        <v>60</v>
-      </c>
-      <c r="H100" s="11">
-        <v>60</v>
-      </c>
-      <c r="I100" s="11">
-        <v>65</v>
-      </c>
-      <c r="J100" s="11">
-        <v>70</v>
-      </c>
-      <c r="K100" s="11">
-        <v>65</v>
-      </c>
-      <c r="L100" s="11">
-        <v>60</v>
-      </c>
-      <c r="M100" s="11">
-        <v>50</v>
-      </c>
-      <c r="N100" s="11">
-        <v>45</v>
-      </c>
-      <c r="O100" s="11">
-        <v>40</v>
-      </c>
-      <c r="P100" s="12">
-        <v>43794</v>
-      </c>
+        <v>45686</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A99" s="10">
+        <v>0</v>
+      </c>
+      <c r="B99" s="10">
+        <v>0</v>
+      </c>
+      <c r="C99" s="10">
+        <v>0</v>
+      </c>
+      <c r="D99" s="10">
+        <v>0</v>
+      </c>
+      <c r="E99" s="10">
+        <v>0</v>
+      </c>
+      <c r="F99" s="10">
+        <v>0</v>
+      </c>
+      <c r="G99" s="10">
+        <v>0</v>
+      </c>
+      <c r="H99" s="10">
+        <v>0</v>
+      </c>
+      <c r="I99" s="10">
+        <v>0</v>
+      </c>
+      <c r="J99" s="10">
+        <v>0</v>
+      </c>
+      <c r="K99" s="10">
+        <v>0</v>
+      </c>
+      <c r="L99" s="10">
+        <v>0</v>
+      </c>
+      <c r="M99" s="10">
+        <v>0</v>
+      </c>
+      <c r="N99" s="10">
+        <v>0</v>
+      </c>
+      <c r="O99" s="10">
+        <v>0</v>
+      </c>
+      <c r="P99" s="15"/>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A100" s="10">
+        <v>0</v>
+      </c>
+      <c r="B100" s="10">
+        <v>0</v>
+      </c>
+      <c r="C100" s="10">
+        <v>0</v>
+      </c>
+      <c r="D100" s="10">
+        <v>0</v>
+      </c>
+      <c r="E100" s="10">
+        <v>0</v>
+      </c>
+      <c r="F100" s="10">
+        <v>0</v>
+      </c>
+      <c r="G100" s="10">
+        <v>0</v>
+      </c>
+      <c r="H100" s="10">
+        <v>0</v>
+      </c>
+      <c r="I100" s="10">
+        <v>0</v>
+      </c>
+      <c r="J100" s="10">
+        <v>0</v>
+      </c>
+      <c r="K100" s="10">
+        <v>0</v>
+      </c>
+      <c r="L100" s="10">
+        <v>0</v>
+      </c>
+      <c r="M100" s="10">
+        <v>0</v>
+      </c>
+      <c r="N100" s="10">
+        <v>0</v>
+      </c>
+      <c r="O100" s="10">
+        <v>0</v>
+      </c>
+      <c r="P100" s="15"/>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A101" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="B101" s="11">
-        <v>40</v>
-      </c>
-      <c r="C101" s="11">
-        <v>45</v>
-      </c>
-      <c r="D101" s="11">
-        <v>45</v>
-      </c>
-      <c r="E101" s="11">
-        <v>50</v>
-      </c>
-      <c r="F101" s="11">
-        <v>55</v>
-      </c>
-      <c r="G101" s="11">
-        <v>60</v>
-      </c>
-      <c r="H101" s="11">
-        <v>60</v>
-      </c>
-      <c r="I101" s="11">
-        <v>60</v>
-      </c>
-      <c r="J101" s="11">
-        <v>65</v>
-      </c>
-      <c r="K101" s="11">
-        <v>65</v>
-      </c>
-      <c r="L101" s="11">
-        <v>60</v>
-      </c>
-      <c r="M101" s="11">
-        <v>50</v>
-      </c>
-      <c r="N101" s="11">
-        <v>40</v>
-      </c>
-      <c r="O101" s="11">
-        <v>40</v>
-      </c>
-      <c r="P101" s="12">
-        <v>43794</v>
-      </c>
+      <c r="A101" s="10">
+        <v>0</v>
+      </c>
+      <c r="B101" s="10">
+        <v>0</v>
+      </c>
+      <c r="C101" s="10">
+        <v>0</v>
+      </c>
+      <c r="D101" s="10">
+        <v>0</v>
+      </c>
+      <c r="E101" s="10">
+        <v>0</v>
+      </c>
+      <c r="F101" s="10">
+        <v>0</v>
+      </c>
+      <c r="G101" s="10">
+        <v>0</v>
+      </c>
+      <c r="H101" s="10">
+        <v>0</v>
+      </c>
+      <c r="I101" s="10">
+        <v>0</v>
+      </c>
+      <c r="J101" s="10">
+        <v>0</v>
+      </c>
+      <c r="K101" s="10">
+        <v>0</v>
+      </c>
+      <c r="L101" s="10">
+        <v>0</v>
+      </c>
+      <c r="M101" s="10">
+        <v>0</v>
+      </c>
+      <c r="N101" s="10">
+        <v>0</v>
+      </c>
+      <c r="O101" s="10">
+        <v>0</v>
+      </c>
+      <c r="P101" s="15"/>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A102" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B102" s="11">
-        <v>50</v>
-      </c>
-      <c r="C102" s="11">
-        <v>55</v>
-      </c>
-      <c r="D102" s="11">
-        <v>60</v>
-      </c>
-      <c r="E102" s="11">
-        <v>65</v>
-      </c>
-      <c r="F102" s="11">
-        <v>70</v>
-      </c>
-      <c r="G102" s="11">
-        <v>75</v>
-      </c>
-      <c r="H102" s="11">
-        <v>75</v>
-      </c>
-      <c r="I102" s="11">
-        <v>80</v>
-      </c>
-      <c r="J102" s="11">
-        <v>85</v>
-      </c>
-      <c r="K102" s="11">
-        <v>80</v>
-      </c>
-      <c r="L102" s="11">
-        <v>75</v>
-      </c>
-      <c r="M102" s="11">
-        <v>60</v>
-      </c>
-      <c r="N102" s="11">
-        <v>55</v>
-      </c>
-      <c r="O102" s="11">
-        <v>50</v>
-      </c>
-      <c r="P102" s="12">
-        <v>43794</v>
-      </c>
+      <c r="A102" s="10">
+        <v>0</v>
+      </c>
+      <c r="B102" s="10">
+        <v>0</v>
+      </c>
+      <c r="C102" s="10">
+        <v>0</v>
+      </c>
+      <c r="D102" s="10">
+        <v>0</v>
+      </c>
+      <c r="E102" s="10">
+        <v>0</v>
+      </c>
+      <c r="F102" s="10">
+        <v>0</v>
+      </c>
+      <c r="G102" s="10">
+        <v>0</v>
+      </c>
+      <c r="H102" s="10">
+        <v>0</v>
+      </c>
+      <c r="I102" s="10">
+        <v>0</v>
+      </c>
+      <c r="J102" s="10">
+        <v>0</v>
+      </c>
+      <c r="K102" s="10">
+        <v>0</v>
+      </c>
+      <c r="L102" s="10">
+        <v>0</v>
+      </c>
+      <c r="M102" s="10">
+        <v>0</v>
+      </c>
+      <c r="N102" s="10">
+        <v>0</v>
+      </c>
+      <c r="O102" s="10">
+        <v>0</v>
+      </c>
+      <c r="P102" s="15"/>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A103" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="B103" s="11">
-        <v>40</v>
-      </c>
-      <c r="C103" s="11">
-        <v>45</v>
-      </c>
-      <c r="D103" s="11">
-        <v>50</v>
-      </c>
-      <c r="E103" s="11">
-        <v>55</v>
-      </c>
-      <c r="F103" s="11">
-        <v>60</v>
-      </c>
-      <c r="G103" s="11">
-        <v>65</v>
-      </c>
-      <c r="H103" s="11">
-        <v>65</v>
-      </c>
-      <c r="I103" s="11">
-        <v>70</v>
-      </c>
-      <c r="J103" s="11">
-        <v>70</v>
-      </c>
-      <c r="K103" s="11">
-        <v>70</v>
-      </c>
-      <c r="L103" s="11">
-        <v>65</v>
-      </c>
-      <c r="M103" s="11">
-        <v>55</v>
-      </c>
-      <c r="N103" s="11">
-        <v>45</v>
-      </c>
-      <c r="O103" s="11">
-        <v>40</v>
-      </c>
-      <c r="P103" s="12">
-        <v>43794</v>
-      </c>
+      <c r="A103" s="10">
+        <v>0</v>
+      </c>
+      <c r="B103" s="10">
+        <v>0</v>
+      </c>
+      <c r="C103" s="10">
+        <v>0</v>
+      </c>
+      <c r="D103" s="10">
+        <v>0</v>
+      </c>
+      <c r="E103" s="10">
+        <v>0</v>
+      </c>
+      <c r="F103" s="10">
+        <v>0</v>
+      </c>
+      <c r="G103" s="10">
+        <v>0</v>
+      </c>
+      <c r="H103" s="10">
+        <v>0</v>
+      </c>
+      <c r="I103" s="10">
+        <v>0</v>
+      </c>
+      <c r="J103" s="10">
+        <v>0</v>
+      </c>
+      <c r="K103" s="10">
+        <v>0</v>
+      </c>
+      <c r="L103" s="10">
+        <v>0</v>
+      </c>
+      <c r="M103" s="10">
+        <v>0</v>
+      </c>
+      <c r="N103" s="10">
+        <v>0</v>
+      </c>
+      <c r="O103" s="10">
+        <v>0</v>
+      </c>
+      <c r="P103" s="15"/>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A104" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="B104" s="11">
-        <v>25</v>
-      </c>
-      <c r="C104" s="11">
-        <v>25</v>
-      </c>
-      <c r="D104" s="11">
-        <v>25</v>
-      </c>
-      <c r="E104" s="11">
-        <v>30</v>
-      </c>
-      <c r="F104" s="11">
-        <v>30</v>
-      </c>
-      <c r="G104" s="11">
-        <v>35</v>
-      </c>
-      <c r="H104" s="11">
-        <v>35</v>
-      </c>
-      <c r="I104" s="11">
-        <v>35</v>
-      </c>
-      <c r="J104" s="11">
-        <v>40</v>
-      </c>
-      <c r="K104" s="11">
-        <v>35</v>
-      </c>
-      <c r="L104" s="11">
-        <v>35</v>
-      </c>
-      <c r="M104" s="11">
-        <v>30</v>
-      </c>
-      <c r="N104" s="11">
-        <v>25</v>
-      </c>
-      <c r="O104" s="11">
-        <v>25</v>
-      </c>
-      <c r="P104" s="12">
-        <v>43794</v>
+        <v>16</v>
+      </c>
+      <c r="B104" s="10">
+        <v>50.04</v>
+      </c>
+      <c r="C104" s="10">
+        <v>63.51</v>
+      </c>
+      <c r="D104" s="10">
+        <v>77.760000000000005</v>
+      </c>
+      <c r="E104" s="10">
+        <v>79.53</v>
+      </c>
+      <c r="F104" s="10">
+        <v>88.89</v>
+      </c>
+      <c r="G104" s="10">
+        <v>97.84</v>
+      </c>
+      <c r="H104" s="10">
+        <v>106.4</v>
+      </c>
+      <c r="I104" s="10">
+        <v>114.82</v>
+      </c>
+      <c r="J104" s="10">
+        <v>124.15</v>
+      </c>
+      <c r="K104" s="10">
+        <v>127.28</v>
+      </c>
+      <c r="L104" s="10">
+        <v>127.28</v>
+      </c>
+      <c r="M104" s="10">
+        <v>127.28</v>
+      </c>
+      <c r="N104" s="10">
+        <v>127.28</v>
+      </c>
+      <c r="O104" s="10">
+        <v>127.28</v>
+      </c>
+      <c r="P104" s="15">
+        <v>45686</v>
       </c>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A105" s="10" t="s">
-        <v>102</v>
+        <v>17</v>
       </c>
       <c r="B105" s="11">
-        <v>25</v>
+        <v>40.96</v>
       </c>
       <c r="C105" s="11">
-        <v>30</v>
+        <v>50.81</v>
       </c>
       <c r="D105" s="11">
-        <v>30</v>
+        <v>61.73</v>
       </c>
       <c r="E105" s="11">
-        <v>35</v>
+        <v>63.04</v>
       </c>
       <c r="F105" s="11">
-        <v>40</v>
+        <v>70.75</v>
       </c>
       <c r="G105" s="11">
-        <v>40</v>
+        <v>77.77</v>
       </c>
       <c r="H105" s="11">
-        <v>40</v>
+        <v>84.94</v>
       </c>
       <c r="I105" s="11">
-        <v>45</v>
+        <v>91.55</v>
       </c>
       <c r="J105" s="11">
-        <v>45</v>
+        <v>99.4</v>
       </c>
       <c r="K105" s="11">
-        <v>45</v>
+        <v>99.4</v>
       </c>
       <c r="L105" s="11">
-        <v>40</v>
+        <v>99.4</v>
       </c>
       <c r="M105" s="11">
-        <v>35</v>
+        <v>99.4</v>
       </c>
       <c r="N105" s="11">
-        <v>30</v>
+        <v>99.4</v>
       </c>
       <c r="O105" s="11">
-        <v>25</v>
-      </c>
-      <c r="P105" s="12">
-        <v>43794</v>
+        <v>99.4</v>
+      </c>
+      <c r="P105" s="15">
+        <v>45686</v>
       </c>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A106" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="B106" s="11">
-        <v>25</v>
-      </c>
-      <c r="C106" s="11">
+        <v>18</v>
+      </c>
+      <c r="B106" s="10">
         <v>30</v>
       </c>
-      <c r="D106" s="11">
+      <c r="C106" s="10">
         <v>30</v>
       </c>
-      <c r="E106" s="11">
-        <v>35</v>
-      </c>
-      <c r="F106" s="11">
-        <v>35</v>
-      </c>
-      <c r="G106" s="11">
-        <v>40</v>
-      </c>
-      <c r="H106" s="11">
-        <v>40</v>
-      </c>
-      <c r="I106" s="11">
-        <v>40</v>
-      </c>
-      <c r="J106" s="11">
-        <v>45</v>
-      </c>
-      <c r="K106" s="11">
-        <v>45</v>
-      </c>
-      <c r="L106" s="11">
-        <v>40</v>
-      </c>
-      <c r="M106" s="11">
-        <v>35</v>
-      </c>
-      <c r="N106" s="11">
+      <c r="D106" s="10">
         <v>30</v>
       </c>
-      <c r="O106" s="11">
-        <v>25</v>
-      </c>
-      <c r="P106" s="12">
-        <v>43794</v>
-      </c>
-    </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A107" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="B107" s="11">
+      <c r="E106" s="10">
         <v>30</v>
       </c>
-      <c r="C107" s="11">
-        <v>35</v>
-      </c>
-      <c r="D107" s="11">
-        <v>35</v>
-      </c>
-      <c r="E107" s="11">
-        <v>40</v>
-      </c>
-      <c r="F107" s="11">
-        <v>40</v>
-      </c>
-      <c r="G107" s="11">
-        <v>45</v>
-      </c>
-      <c r="H107" s="11">
-        <v>45</v>
-      </c>
-      <c r="I107" s="11">
-        <v>50</v>
-      </c>
-      <c r="J107" s="11">
-        <v>50</v>
-      </c>
-      <c r="K107" s="11">
-        <v>50</v>
-      </c>
-      <c r="L107" s="11">
-        <v>45</v>
-      </c>
-      <c r="M107" s="11">
-        <v>35</v>
-      </c>
-      <c r="N107" s="11">
-        <v>35</v>
-      </c>
-      <c r="O107" s="11">
+      <c r="F106" s="10">
         <v>30</v>
       </c>
-      <c r="P107" s="12">
-        <v>43794</v>
-      </c>
-    </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A108" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="B108" s="11">
-        <v>35</v>
-      </c>
-      <c r="C108" s="11">
-        <v>40</v>
-      </c>
-      <c r="D108" s="11">
-        <v>45</v>
-      </c>
-      <c r="E108" s="11">
-        <v>50</v>
-      </c>
-      <c r="F108" s="11">
-        <v>50</v>
-      </c>
-      <c r="G108" s="11">
-        <v>55</v>
-      </c>
-      <c r="H108" s="11">
-        <v>55</v>
-      </c>
-      <c r="I108" s="11">
-        <v>60</v>
-      </c>
-      <c r="J108" s="11">
-        <v>65</v>
-      </c>
-      <c r="K108" s="11">
-        <v>60</v>
-      </c>
-      <c r="L108" s="11">
-        <v>55</v>
-      </c>
-      <c r="M108" s="11">
-        <v>45</v>
-      </c>
-      <c r="N108" s="11">
-        <v>40</v>
-      </c>
-      <c r="O108" s="11">
-        <v>35</v>
-      </c>
-      <c r="P108" s="12">
-        <v>43794</v>
-      </c>
-    </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A109" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="B109" s="11">
+      <c r="G106" s="10">
         <v>30</v>
       </c>
-      <c r="C109" s="11">
-        <v>35</v>
-      </c>
-      <c r="D109" s="11">
-        <v>35</v>
-      </c>
-      <c r="E109" s="11">
-        <v>40</v>
-      </c>
-      <c r="F109" s="11">
-        <v>40</v>
-      </c>
-      <c r="G109" s="11">
-        <v>45</v>
-      </c>
-      <c r="H109" s="11">
-        <v>45</v>
-      </c>
-      <c r="I109" s="11">
-        <v>50</v>
-      </c>
-      <c r="J109" s="11">
-        <v>50</v>
-      </c>
-      <c r="K109" s="11">
-        <v>50</v>
-      </c>
-      <c r="L109" s="11">
-        <v>45</v>
-      </c>
-      <c r="M109" s="11">
-        <v>35</v>
-      </c>
-      <c r="N109" s="11">
-        <v>35</v>
-      </c>
-      <c r="O109" s="11">
+      <c r="H106" s="10">
         <v>30</v>
       </c>
-      <c r="P109" s="12">
-        <v>43794</v>
-      </c>
-    </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A110" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="B110" s="11">
-        <v>35</v>
-      </c>
-      <c r="C110" s="11">
-        <v>40</v>
-      </c>
-      <c r="D110" s="11">
-        <v>45</v>
-      </c>
-      <c r="E110" s="11">
-        <v>45</v>
-      </c>
-      <c r="F110" s="11">
-        <v>50</v>
-      </c>
-      <c r="G110" s="11">
-        <v>55</v>
-      </c>
-      <c r="H110" s="11">
-        <v>55</v>
-      </c>
-      <c r="I110" s="11">
-        <v>60</v>
-      </c>
-      <c r="J110" s="11">
-        <v>60</v>
-      </c>
-      <c r="K110" s="11">
-        <v>60</v>
-      </c>
-      <c r="L110" s="11">
-        <v>55</v>
-      </c>
-      <c r="M110" s="11">
-        <v>45</v>
-      </c>
-      <c r="N110" s="11">
-        <v>40</v>
-      </c>
-      <c r="O110" s="11">
-        <v>35</v>
-      </c>
-      <c r="P110" s="12">
-        <v>43794</v>
-      </c>
-    </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A111" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="B111" s="11">
+      <c r="I106" s="10">
         <v>30</v>
       </c>
-      <c r="C111" s="11">
-        <v>35</v>
-      </c>
-      <c r="D111" s="11">
-        <v>35</v>
-      </c>
-      <c r="E111" s="11">
-        <v>40</v>
-      </c>
-      <c r="F111" s="11">
-        <v>40</v>
-      </c>
-      <c r="G111" s="11">
-        <v>45</v>
-      </c>
-      <c r="H111" s="11">
-        <v>45</v>
-      </c>
-      <c r="I111" s="11">
-        <v>45</v>
-      </c>
-      <c r="J111" s="11">
-        <v>50</v>
-      </c>
-      <c r="K111" s="11">
-        <v>50</v>
-      </c>
-      <c r="L111" s="11">
-        <v>45</v>
-      </c>
-      <c r="M111" s="11">
-        <v>35</v>
-      </c>
-      <c r="N111" s="11">
+      <c r="J106" s="10">
         <v>30</v>
       </c>
-      <c r="O111" s="11">
+      <c r="K106" s="10">
         <v>30</v>
       </c>
-      <c r="P111" s="12">
-        <v>43794</v>
-      </c>
-    </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A112" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="B112" s="11">
+      <c r="L106" s="10">
         <v>30</v>
       </c>
-      <c r="C112" s="11">
+      <c r="M106" s="10">
         <v>30</v>
       </c>
-      <c r="D112" s="11">
-        <v>35</v>
-      </c>
-      <c r="E112" s="11">
-        <v>35</v>
-      </c>
-      <c r="F112" s="11">
-        <v>40</v>
-      </c>
-      <c r="G112" s="11">
-        <v>40</v>
-      </c>
-      <c r="H112" s="11">
-        <v>45</v>
-      </c>
-      <c r="I112" s="11">
-        <v>45</v>
-      </c>
-      <c r="J112" s="11">
-        <v>50</v>
-      </c>
-      <c r="K112" s="11">
-        <v>45</v>
-      </c>
-      <c r="L112" s="11">
-        <v>45</v>
-      </c>
-      <c r="M112" s="11">
-        <v>35</v>
-      </c>
-      <c r="N112" s="11">
+      <c r="N106" s="10">
         <v>30</v>
       </c>
-      <c r="O112" s="11">
+      <c r="O106" s="10">
         <v>30</v>
       </c>
-      <c r="P112" s="12">
-        <v>43794</v>
-      </c>
-    </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A113" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="B113" s="11">
-        <v>30</v>
-      </c>
-      <c r="C113" s="11">
-        <v>30</v>
-      </c>
-      <c r="D113" s="11">
-        <v>35</v>
-      </c>
-      <c r="E113" s="11">
-        <v>40</v>
-      </c>
-      <c r="F113" s="11">
-        <v>40</v>
-      </c>
-      <c r="G113" s="11">
-        <v>45</v>
-      </c>
-      <c r="H113" s="11">
-        <v>45</v>
-      </c>
-      <c r="I113" s="11">
-        <v>45</v>
-      </c>
-      <c r="J113" s="11">
-        <v>50</v>
-      </c>
-      <c r="K113" s="11">
-        <v>45</v>
-      </c>
-      <c r="L113" s="11">
-        <v>45</v>
-      </c>
-      <c r="M113" s="11">
-        <v>35</v>
-      </c>
-      <c r="N113" s="11">
-        <v>30</v>
-      </c>
-      <c r="O113" s="11">
-        <v>30</v>
-      </c>
-      <c r="P113" s="12">
-        <v>43794</v>
-      </c>
-    </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A114" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="B114" s="11">
-        <v>30</v>
-      </c>
-      <c r="C114" s="11">
-        <v>30</v>
-      </c>
-      <c r="D114" s="11">
-        <v>35</v>
-      </c>
-      <c r="E114" s="11">
-        <v>40</v>
-      </c>
-      <c r="F114" s="11">
-        <v>40</v>
-      </c>
-      <c r="G114" s="11">
-        <v>45</v>
-      </c>
-      <c r="H114" s="11">
-        <v>45</v>
-      </c>
-      <c r="I114" s="11">
-        <v>45</v>
-      </c>
-      <c r="J114" s="11">
-        <v>50</v>
-      </c>
-      <c r="K114" s="11">
-        <v>45</v>
-      </c>
-      <c r="L114" s="11">
-        <v>45</v>
-      </c>
-      <c r="M114" s="11">
-        <v>35</v>
-      </c>
-      <c r="N114" s="11">
-        <v>30</v>
-      </c>
-      <c r="O114" s="11">
-        <v>30</v>
-      </c>
-      <c r="P114" s="12">
-        <v>43794</v>
-      </c>
-    </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A115" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="B115" s="11">
-        <v>30</v>
-      </c>
-      <c r="C115" s="11">
-        <v>30</v>
-      </c>
-      <c r="D115" s="11">
-        <v>35</v>
-      </c>
-      <c r="E115" s="11">
-        <v>35</v>
-      </c>
-      <c r="F115" s="11">
-        <v>40</v>
-      </c>
-      <c r="G115" s="11">
-        <v>40</v>
-      </c>
-      <c r="H115" s="11">
-        <v>45</v>
-      </c>
-      <c r="I115" s="11">
-        <v>45</v>
-      </c>
-      <c r="J115" s="11">
-        <v>50</v>
-      </c>
-      <c r="K115" s="11">
-        <v>45</v>
-      </c>
-      <c r="L115" s="11">
-        <v>40</v>
-      </c>
-      <c r="M115" s="11">
-        <v>35</v>
-      </c>
-      <c r="N115" s="11">
-        <v>30</v>
-      </c>
-      <c r="O115" s="11">
-        <v>30</v>
-      </c>
-      <c r="P115" s="12">
-        <v>43794</v>
+      <c r="P106" s="15">
+        <v>45686</v>
       </c>
     </row>
   </sheetData>

--- a/Remote/ug16/Données/04/dist_meg_ug16_d04.xlsx
+++ b/Remote/ug16/Données/04/dist_meg_ug16_d04.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Mickaël\Documents\Office\Gaines rectangulaires\bases\ug16\Données\04\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Mickaël\Documents\GitHub\ductaironline\ductaironline\Remote\ug16\Données\04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB03BCF-402C-4B2F-8364-205FBD9A69BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03198FA0-B03B-4B4B-8FEC-9610306117F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B288C0A9-0311-4EE7-B3E1-F9A55327F99A}"/>
   </bookViews>
@@ -39,296 +39,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
   <si>
     <t>Date</t>
   </si>
   <si>
-    <t xml:space="preserve">1 - Ain  </t>
-  </si>
-  <si>
-    <t>1 - Ain  Montagne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 - Aisne  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 - Allier  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 - Alpes-de-Haute-Provence  </t>
-  </si>
-  <si>
-    <t>4 - Alpes-de-Haute-Provence  Haute montagne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 - Hautes-Alpes  </t>
-  </si>
-  <si>
-    <t>5 - Hautes-Alpes  Haute montagne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 - Alpes-Maritimes  </t>
-  </si>
-  <si>
-    <t>6 - Alpes-Maritimes  Haute montagne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 - Ardeche  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">8 - Ardennes  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">9 - Ariege  </t>
-  </si>
-  <si>
-    <t>9 - Ariege  Haute montagne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 - Aube  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">11 - Aude  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">12 - Aveyron </t>
-  </si>
-  <si>
-    <t xml:space="preserve">13 - Bouches-du-Rhone </t>
-  </si>
-  <si>
-    <t xml:space="preserve">14 - Calvados </t>
-  </si>
-  <si>
-    <t xml:space="preserve">15 - Cantal </t>
-  </si>
-  <si>
-    <t xml:space="preserve">16 - Charente </t>
-  </si>
-  <si>
-    <t xml:space="preserve">17 - Charente-Maritime </t>
-  </si>
-  <si>
-    <t>17 - Charente-Maritime Ile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18 - Cher </t>
-  </si>
-  <si>
-    <t xml:space="preserve">19 - Correze </t>
-  </si>
-  <si>
-    <t xml:space="preserve">20 - Corse </t>
-  </si>
-  <si>
-    <t xml:space="preserve">21 - Cote-d'Or </t>
-  </si>
-  <si>
-    <t xml:space="preserve">22 - Cotes d'Armor </t>
-  </si>
-  <si>
-    <t>22 - Cotes d'Armor Ile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23 - Creuse </t>
-  </si>
-  <si>
-    <t xml:space="preserve">24 - Dordogne </t>
-  </si>
-  <si>
-    <t xml:space="preserve">25 - Doubs </t>
-  </si>
-  <si>
-    <t xml:space="preserve">26 - Drome </t>
-  </si>
-  <si>
-    <t xml:space="preserve">27 - Eure </t>
-  </si>
-  <si>
-    <t xml:space="preserve">28 - Eure-et-Loir </t>
-  </si>
-  <si>
-    <t xml:space="preserve">29 - Finistere </t>
-  </si>
-  <si>
-    <t>29 - Finistere Ile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30 - Gard </t>
-  </si>
-  <si>
-    <t xml:space="preserve">31 - Haute-Garonne </t>
-  </si>
-  <si>
-    <t xml:space="preserve">32 - Gers </t>
-  </si>
-  <si>
-    <t xml:space="preserve">33 - Gironde </t>
-  </si>
-  <si>
-    <t xml:space="preserve">34 - Herault </t>
-  </si>
-  <si>
-    <t xml:space="preserve">35 - Ille-et-Vilaine </t>
-  </si>
-  <si>
-    <t xml:space="preserve">36 - Indre </t>
-  </si>
-  <si>
-    <t xml:space="preserve">37 - Indre-et-Loire  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">38 - Isere </t>
-  </si>
-  <si>
-    <t>38 - Isere Haute montagne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39 - Jura </t>
-  </si>
-  <si>
-    <t xml:space="preserve">40 - Landes </t>
-  </si>
-  <si>
-    <t xml:space="preserve">41 - Loir-et-Cher </t>
-  </si>
-  <si>
-    <t xml:space="preserve">42 - Loire </t>
-  </si>
-  <si>
-    <t xml:space="preserve">43 - Haute-Loire </t>
-  </si>
-  <si>
-    <t xml:space="preserve">44 - Loire-Atlantique </t>
-  </si>
-  <si>
-    <t xml:space="preserve">45 - Loiret </t>
-  </si>
-  <si>
-    <t xml:space="preserve">46 - Lot </t>
-  </si>
-  <si>
-    <t xml:space="preserve">47 - Lot-et-Garonne </t>
-  </si>
-  <si>
-    <t xml:space="preserve">48 - Lozere </t>
-  </si>
-  <si>
-    <t xml:space="preserve">49 - Maine-et-Loire </t>
-  </si>
-  <si>
-    <t xml:space="preserve">50 - Manche </t>
-  </si>
-  <si>
-    <t>50 - Manche Ile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">51 - Marne </t>
-  </si>
-  <si>
-    <t xml:space="preserve">52 - Haute-Marne </t>
-  </si>
-  <si>
-    <t xml:space="preserve">53 - Mayenne </t>
-  </si>
-  <si>
-    <t xml:space="preserve">54 - Meurthe-et-Moselle </t>
-  </si>
-  <si>
-    <t xml:space="preserve">55 - Meuse </t>
-  </si>
-  <si>
-    <t xml:space="preserve">56 - Morbihan </t>
-  </si>
-  <si>
-    <t>56 - Morbihan Ile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57 - Moselle </t>
-  </si>
-  <si>
-    <t xml:space="preserve">58 - Nievre </t>
-  </si>
-  <si>
-    <t xml:space="preserve">59 - Nord </t>
-  </si>
-  <si>
-    <t xml:space="preserve">60 - Oise </t>
-  </si>
-  <si>
-    <t xml:space="preserve">61 - Orne </t>
-  </si>
-  <si>
-    <t xml:space="preserve">62 - Pas-de-Calais </t>
-  </si>
-  <si>
-    <t xml:space="preserve">63 - Puy-de-Dome </t>
-  </si>
-  <si>
-    <t xml:space="preserve">64 - Pyrenees-Atlantiques </t>
-  </si>
-  <si>
-    <t>64 - Pyrenees-Atlantiques Haute montagne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65 - Hautes-Pyrenees </t>
-  </si>
-  <si>
-    <t>65 - Hautes-Pyrenees Haute montagne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66 - Pyrenees-Orientales </t>
-  </si>
-  <si>
-    <t>66 - Pyrenees-Orientales Haute montagne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67 - Bas-Rhin </t>
-  </si>
-  <si>
-    <t xml:space="preserve">68 - Haut-Rhin </t>
-  </si>
-  <si>
-    <t xml:space="preserve">69 - Rhone </t>
-  </si>
-  <si>
-    <t xml:space="preserve">70 - Haute-Saone </t>
-  </si>
-  <si>
-    <t xml:space="preserve">71 - Saone-et-Loire </t>
-  </si>
-  <si>
-    <t xml:space="preserve">72 - Sarthe </t>
-  </si>
-  <si>
-    <t xml:space="preserve">73 - Savoie </t>
-  </si>
-  <si>
-    <t>73 - Savoie Haute montagne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74 - Haute-Savoie </t>
-  </si>
-  <si>
-    <t>74 - Haute-Savoie Haute montagne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75 - Paris </t>
-  </si>
-  <si>
-    <t xml:space="preserve">76 - Seine-Maritime </t>
-  </si>
-  <si>
-    <t xml:space="preserve">77 - Seine-et-Marne </t>
-  </si>
-  <si>
-    <t xml:space="preserve">78 - Yvelines </t>
-  </si>
-  <si>
-    <t xml:space="preserve">79 - Deux-Sevres </t>
-  </si>
-  <si>
     <t xml:space="preserve">80 - Somme </t>
   </si>
   <si>
@@ -423,6 +138,300 @@
   </si>
   <si>
     <t>Départments</t>
+  </si>
+  <si>
+    <t>01 - Ain</t>
+  </si>
+  <si>
+    <t>02 - Aisne</t>
+  </si>
+  <si>
+    <t>03 - Allier</t>
+  </si>
+  <si>
+    <t>04 - Alpes-de-Haute-Provence</t>
+  </si>
+  <si>
+    <t>05 - Hautes-Alpes</t>
+  </si>
+  <si>
+    <t>06 - Alpes-Maritimes</t>
+  </si>
+  <si>
+    <t>07 - Ardèche</t>
+  </si>
+  <si>
+    <t>08 - Ardennes</t>
+  </si>
+  <si>
+    <t>09 - Ariège</t>
+  </si>
+  <si>
+    <t>10 - Aube</t>
+  </si>
+  <si>
+    <t>11 - Aude</t>
+  </si>
+  <si>
+    <t>12 - Aveyron</t>
+  </si>
+  <si>
+    <t>13 - Bouches-du-Rhône</t>
+  </si>
+  <si>
+    <t>14 - Calvados</t>
+  </si>
+  <si>
+    <t>15 - Cantal</t>
+  </si>
+  <si>
+    <t>16 - Charente</t>
+  </si>
+  <si>
+    <t>17 - Charente-Maritime</t>
+  </si>
+  <si>
+    <t>18 - Cher</t>
+  </si>
+  <si>
+    <t>19 - Corrèze</t>
+  </si>
+  <si>
+    <t>20 - Corse</t>
+  </si>
+  <si>
+    <t>21 - Côte-d'Or</t>
+  </si>
+  <si>
+    <t>22 - Côtes-d'Armor</t>
+  </si>
+  <si>
+    <t>23 - Creuse</t>
+  </si>
+  <si>
+    <t>24 - Dordogne</t>
+  </si>
+  <si>
+    <t>25 - Doubs</t>
+  </si>
+  <si>
+    <t>26 - Drôme</t>
+  </si>
+  <si>
+    <t>27 - Eure</t>
+  </si>
+  <si>
+    <t>28 - Eure-et-Loir</t>
+  </si>
+  <si>
+    <t>29 - Finistère</t>
+  </si>
+  <si>
+    <t>30 - Gard</t>
+  </si>
+  <si>
+    <t>31 - Haute-Garonne</t>
+  </si>
+  <si>
+    <t>32 - Gers</t>
+  </si>
+  <si>
+    <t>33 - Gironde</t>
+  </si>
+  <si>
+    <t>34 - Hérault</t>
+  </si>
+  <si>
+    <t>35 - Ille-et-Vilaine</t>
+  </si>
+  <si>
+    <t>36 - Indre</t>
+  </si>
+  <si>
+    <t>37 - Indre-et-Loire</t>
+  </si>
+  <si>
+    <t>38 - Isère</t>
+  </si>
+  <si>
+    <t>39 - Jura</t>
+  </si>
+  <si>
+    <t>40 - Landes</t>
+  </si>
+  <si>
+    <t>41 - Loir-et-Cher</t>
+  </si>
+  <si>
+    <t>42 - Loire</t>
+  </si>
+  <si>
+    <t>43 - Haute-Loire</t>
+  </si>
+  <si>
+    <t>44 - Loire-Atlantique</t>
+  </si>
+  <si>
+    <t>45 - Loiret</t>
+  </si>
+  <si>
+    <t>46 - Lot</t>
+  </si>
+  <si>
+    <t>47 - Lot-et-Garonne</t>
+  </si>
+  <si>
+    <t>48 - Lozère</t>
+  </si>
+  <si>
+    <t>49 - Maine-et-Loire</t>
+  </si>
+  <si>
+    <t>50 - Manche</t>
+  </si>
+  <si>
+    <t>51 - Marne</t>
+  </si>
+  <si>
+    <t>52 - Haute-Marne</t>
+  </si>
+  <si>
+    <t>53 - Mayenne</t>
+  </si>
+  <si>
+    <t>54 - Meurthe-et-Moselle</t>
+  </si>
+  <si>
+    <t>55 - Meuse</t>
+  </si>
+  <si>
+    <t>56 - Morbihan</t>
+  </si>
+  <si>
+    <t>57 - Moselle</t>
+  </si>
+  <si>
+    <t>58 - Nièvre</t>
+  </si>
+  <si>
+    <t>59 - Nord</t>
+  </si>
+  <si>
+    <t>60 - Oise</t>
+  </si>
+  <si>
+    <t>61 - Orne</t>
+  </si>
+  <si>
+    <t>62 - Pas-de-Calais</t>
+  </si>
+  <si>
+    <t>63 - Puy-de-Dôme</t>
+  </si>
+  <si>
+    <t>64 - Pyrénées-Atlantiques</t>
+  </si>
+  <si>
+    <t>65 - Hautes-Pyrénées</t>
+  </si>
+  <si>
+    <t>66 - Pyrénées-Orientales</t>
+  </si>
+  <si>
+    <t>67 - Bas-Rhin</t>
+  </si>
+  <si>
+    <t>68 - Haut-Rhin</t>
+  </si>
+  <si>
+    <t>69 - Rhône</t>
+  </si>
+  <si>
+    <t>70 - Haute-Saône</t>
+  </si>
+  <si>
+    <t>71 - Saône-et-Loire</t>
+  </si>
+  <si>
+    <t>72 - Sarthe</t>
+  </si>
+  <si>
+    <t>73 - Savoie</t>
+  </si>
+  <si>
+    <t>74 - Haute-Savoie</t>
+  </si>
+  <si>
+    <t>75 - Paris</t>
+  </si>
+  <si>
+    <t>76 - Seine-Maritime</t>
+  </si>
+  <si>
+    <t>77 - Seine-et-Marne</t>
+  </si>
+  <si>
+    <t>78 - Yvelines</t>
+  </si>
+  <si>
+    <t>79 - Deux-Sèvres</t>
+  </si>
+  <si>
+    <t>80 - Somme</t>
+  </si>
+  <si>
+    <t>81 - Tarn</t>
+  </si>
+  <si>
+    <t>82 - Tarn-et-Garonne</t>
+  </si>
+  <si>
+    <t>83 - Var</t>
+  </si>
+  <si>
+    <t>84 - Vaucluse</t>
+  </si>
+  <si>
+    <t>85 - Vendée</t>
+  </si>
+  <si>
+    <t>86 - Vienne</t>
+  </si>
+  <si>
+    <t>87 - Haute-Vienne</t>
+  </si>
+  <si>
+    <t>88 - Vosges</t>
+  </si>
+  <si>
+    <t>89 - Yonne</t>
+  </si>
+  <si>
+    <t>90 - Territoire de Belfort</t>
+  </si>
+  <si>
+    <t>91 - Essonne</t>
+  </si>
+  <si>
+    <t>92 - Hauts-de-Seine</t>
+  </si>
+  <si>
+    <t>93 - Seine-Saint-Denis</t>
+  </si>
+  <si>
+    <t>94 - Val-de-Marne</t>
+  </si>
+  <si>
+    <t>95 - Val-d'Oise</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>F3</t>
   </si>
 </sst>
 </file>
@@ -459,7 +468,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -523,11 +532,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -556,6 +576,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -891,10 +913,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E58A160B-6828-4715-B44A-1D633FB737A7}">
   <sheetPr codeName="Feuil7"/>
-  <dimension ref="A1:P115"/>
+  <dimension ref="A1:P118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+      <selection activeCell="P4" sqref="P4:P118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -905,49 +927,49 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>114</v>
+        <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>115</v>
+        <v>20</v>
       </c>
       <c r="E1" t="s">
-        <v>116</v>
+        <v>21</v>
       </c>
       <c r="F1" t="s">
-        <v>117</v>
+        <v>22</v>
       </c>
       <c r="G1" t="s">
-        <v>118</v>
+        <v>23</v>
       </c>
       <c r="H1" t="s">
-        <v>119</v>
+        <v>24</v>
       </c>
       <c r="I1" t="s">
-        <v>120</v>
+        <v>25</v>
       </c>
       <c r="J1" t="s">
-        <v>121</v>
+        <v>26</v>
       </c>
       <c r="K1" t="s">
-        <v>122</v>
+        <v>27</v>
       </c>
       <c r="L1" t="s">
-        <v>123</v>
+        <v>28</v>
       </c>
       <c r="M1" t="s">
-        <v>124</v>
+        <v>29</v>
       </c>
       <c r="N1" t="s">
-        <v>125</v>
+        <v>30</v>
       </c>
       <c r="O1" t="s">
-        <v>126</v>
+        <v>31</v>
       </c>
       <c r="P1" t="s">
         <v>0</v>
@@ -1045,4757 +1067,4757 @@
     </row>
     <row r="4" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="B4" s="11">
-        <v>35</v>
+        <v>51.5</v>
       </c>
       <c r="C4" s="11">
-        <v>40</v>
+        <v>59.01</v>
       </c>
       <c r="D4" s="11">
-        <v>45</v>
+        <v>72.06</v>
       </c>
       <c r="E4" s="11">
-        <v>45</v>
+        <v>73.5</v>
       </c>
       <c r="F4" s="11">
-        <v>50</v>
+        <v>82.66</v>
       </c>
       <c r="G4" s="11">
-        <v>55</v>
+        <v>90.69</v>
       </c>
       <c r="H4" s="11">
-        <v>55</v>
+        <v>99.56</v>
       </c>
       <c r="I4" s="11">
-        <v>55</v>
+        <v>108.01</v>
       </c>
       <c r="J4" s="11">
-        <v>60</v>
+        <v>116.32</v>
       </c>
       <c r="K4" s="11">
-        <v>60</v>
+        <v>116.32</v>
       </c>
       <c r="L4" s="11">
-        <v>55</v>
+        <v>116.32</v>
       </c>
       <c r="M4" s="11">
-        <v>45</v>
+        <v>116.32</v>
       </c>
       <c r="N4" s="11">
-        <v>40</v>
+        <v>116.32</v>
       </c>
       <c r="O4" s="11">
-        <v>35</v>
+        <v>116.32</v>
       </c>
       <c r="P4" s="12">
-        <v>43794</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="B5" s="11">
-        <v>45</v>
+        <v>43.31</v>
       </c>
       <c r="C5" s="11">
-        <v>50</v>
+        <v>48.23</v>
       </c>
       <c r="D5" s="11">
-        <v>50</v>
+        <v>57.95</v>
       </c>
       <c r="E5" s="11">
-        <v>55</v>
+        <v>59.04</v>
       </c>
       <c r="F5" s="11">
-        <v>60</v>
+        <v>66.75</v>
       </c>
       <c r="G5" s="11">
-        <v>65</v>
+        <v>73.33</v>
       </c>
       <c r="H5" s="11">
-        <v>65</v>
+        <v>79.78</v>
       </c>
       <c r="I5" s="11">
-        <v>70</v>
+        <v>86.52</v>
       </c>
       <c r="J5" s="11">
-        <v>75</v>
+        <v>93.39</v>
       </c>
       <c r="K5" s="11">
-        <v>70</v>
+        <v>93.39</v>
       </c>
       <c r="L5" s="11">
-        <v>65</v>
+        <v>93.39</v>
       </c>
       <c r="M5" s="11">
-        <v>55</v>
+        <v>93.39</v>
       </c>
       <c r="N5" s="11">
-        <v>45</v>
+        <v>93.39</v>
       </c>
       <c r="O5" s="11">
-        <v>45</v>
+        <v>93.39</v>
       </c>
       <c r="P5" s="12">
-        <v>43794</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="B6" s="11">
-        <v>30</v>
+        <v>51.81</v>
       </c>
       <c r="C6" s="11">
-        <v>30</v>
+        <v>58.26</v>
       </c>
       <c r="D6" s="11">
-        <v>35</v>
+        <v>70.680000000000007</v>
       </c>
       <c r="E6" s="11">
-        <v>40</v>
+        <v>72.34</v>
       </c>
       <c r="F6" s="11">
-        <v>40</v>
+        <v>81.209999999999994</v>
       </c>
       <c r="G6" s="11">
-        <v>45</v>
+        <v>88.95</v>
       </c>
       <c r="H6" s="11">
-        <v>45</v>
+        <v>96.98</v>
       </c>
       <c r="I6" s="11">
-        <v>45</v>
+        <v>104.86</v>
       </c>
       <c r="J6" s="11">
-        <v>50</v>
+        <v>113.17</v>
       </c>
       <c r="K6" s="11">
-        <v>45</v>
+        <v>113.17</v>
       </c>
       <c r="L6" s="11">
-        <v>45</v>
+        <v>113.17</v>
       </c>
       <c r="M6" s="11">
-        <v>35</v>
+        <v>113.17</v>
       </c>
       <c r="N6" s="11">
-        <v>30</v>
+        <v>113.17</v>
       </c>
       <c r="O6" s="11">
-        <v>30</v>
+        <v>113.17</v>
       </c>
       <c r="P6" s="12">
-        <v>43794</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="B7" s="11">
-        <v>30</v>
+        <v>69.84</v>
       </c>
       <c r="C7" s="11">
-        <v>35</v>
+        <v>78.25</v>
       </c>
       <c r="D7" s="11">
-        <v>40</v>
+        <v>96.94</v>
       </c>
       <c r="E7" s="11">
-        <v>40</v>
+        <v>99.14</v>
       </c>
       <c r="F7" s="11">
-        <v>45</v>
+        <v>110.88</v>
       </c>
       <c r="G7" s="11">
-        <v>45</v>
+        <v>121.2</v>
       </c>
       <c r="H7" s="11">
-        <v>50</v>
+        <v>132.35</v>
       </c>
       <c r="I7" s="11">
-        <v>50</v>
+        <v>142.97</v>
       </c>
       <c r="J7" s="11">
-        <v>55</v>
+        <v>154.41999999999999</v>
       </c>
       <c r="K7" s="11">
-        <v>50</v>
+        <v>154.41999999999999</v>
       </c>
       <c r="L7" s="11">
-        <v>50</v>
+        <v>154.41999999999999</v>
       </c>
       <c r="M7" s="11">
-        <v>40</v>
+        <v>154.41999999999999</v>
       </c>
       <c r="N7" s="11">
-        <v>35</v>
+        <v>154.41999999999999</v>
       </c>
       <c r="O7" s="11">
-        <v>30</v>
+        <v>154.41999999999999</v>
       </c>
       <c r="P7" s="12">
-        <v>43794</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="B8" s="11">
-        <v>50</v>
+        <v>69.84</v>
       </c>
       <c r="C8" s="11">
-        <v>55</v>
+        <v>78.25</v>
       </c>
       <c r="D8" s="11">
-        <v>60</v>
+        <v>96.94</v>
       </c>
       <c r="E8" s="11">
-        <v>65</v>
+        <v>99.14</v>
       </c>
       <c r="F8" s="11">
-        <v>70</v>
+        <v>110.88</v>
       </c>
       <c r="G8" s="11">
-        <v>75</v>
+        <v>121.2</v>
       </c>
       <c r="H8" s="11">
-        <v>75</v>
+        <v>132.35</v>
       </c>
       <c r="I8" s="11">
-        <v>80</v>
+        <v>142.97</v>
       </c>
       <c r="J8" s="11">
-        <v>85</v>
+        <v>154.41999999999999</v>
       </c>
       <c r="K8" s="11">
-        <v>80</v>
+        <v>154.41999999999999</v>
       </c>
       <c r="L8" s="11">
-        <v>75</v>
+        <v>154.41999999999999</v>
       </c>
       <c r="M8" s="11">
-        <v>60</v>
+        <v>154.41999999999999</v>
       </c>
       <c r="N8" s="11">
-        <v>55</v>
+        <v>154.41999999999999</v>
       </c>
       <c r="O8" s="11">
-        <v>50</v>
+        <v>154.41999999999999</v>
       </c>
       <c r="P8" s="12">
-        <v>43794</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="B9" s="11">
-        <v>60</v>
+        <v>63.95</v>
       </c>
       <c r="C9" s="11">
-        <v>65</v>
+        <v>71.69</v>
       </c>
       <c r="D9" s="11">
-        <v>70</v>
+        <v>88.22</v>
       </c>
       <c r="E9" s="11">
-        <v>75</v>
+        <v>90.09</v>
       </c>
       <c r="F9" s="11">
-        <v>85</v>
+        <v>101.12</v>
       </c>
       <c r="G9" s="11">
-        <v>90</v>
+        <v>110.87</v>
       </c>
       <c r="H9" s="11">
-        <v>90</v>
+        <v>120.77</v>
       </c>
       <c r="I9" s="11">
-        <v>95</v>
+        <v>130.54</v>
       </c>
       <c r="J9" s="11">
-        <v>100</v>
+        <v>140.6</v>
       </c>
       <c r="K9" s="11">
-        <v>95</v>
+        <v>140.6</v>
       </c>
       <c r="L9" s="11">
-        <v>90</v>
+        <v>140.6</v>
       </c>
       <c r="M9" s="11">
-        <v>75</v>
+        <v>140.6</v>
       </c>
       <c r="N9" s="11">
-        <v>65</v>
+        <v>140.6</v>
       </c>
       <c r="O9" s="11">
-        <v>60</v>
+        <v>140.6</v>
       </c>
       <c r="P9" s="12">
-        <v>43794</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="B10" s="11">
-        <v>45</v>
+        <v>59.92</v>
       </c>
       <c r="C10" s="11">
-        <v>50</v>
+        <v>67.05</v>
       </c>
       <c r="D10" s="11">
-        <v>55</v>
+        <v>82.08</v>
       </c>
       <c r="E10" s="11">
-        <v>60</v>
+        <v>83.95</v>
       </c>
       <c r="F10" s="11">
-        <v>65</v>
+        <v>93.82</v>
       </c>
       <c r="G10" s="11">
-        <v>70</v>
+        <v>103.27</v>
       </c>
       <c r="H10" s="11">
-        <v>70</v>
+        <v>112.31</v>
       </c>
       <c r="I10" s="11">
-        <v>75</v>
+        <v>121.2</v>
       </c>
       <c r="J10" s="11">
-        <v>80</v>
+        <v>131.04</v>
       </c>
       <c r="K10" s="11">
-        <v>75</v>
+        <v>131.04</v>
       </c>
       <c r="L10" s="11">
-        <v>70</v>
+        <v>131.04</v>
       </c>
       <c r="M10" s="11">
-        <v>60</v>
+        <v>131.04</v>
       </c>
       <c r="N10" s="11">
-        <v>50</v>
+        <v>131.04</v>
       </c>
       <c r="O10" s="11">
-        <v>45</v>
+        <v>131.04</v>
       </c>
       <c r="P10" s="12">
-        <v>43794</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="B11" s="11">
-        <v>55</v>
+        <v>47.48</v>
       </c>
       <c r="C11" s="11">
-        <v>65</v>
+        <v>52.05</v>
       </c>
       <c r="D11" s="11">
-        <v>65</v>
+        <v>63.26</v>
       </c>
       <c r="E11" s="11">
-        <v>75</v>
+        <v>64.459999999999994</v>
       </c>
       <c r="F11" s="11">
-        <v>80</v>
+        <v>72.47</v>
       </c>
       <c r="G11" s="11">
-        <v>85</v>
+        <v>79.48</v>
       </c>
       <c r="H11" s="11">
-        <v>85</v>
+        <v>86.97</v>
       </c>
       <c r="I11" s="11">
-        <v>90</v>
+        <v>93.82</v>
       </c>
       <c r="J11" s="11">
-        <v>95</v>
+        <v>101.7</v>
       </c>
       <c r="K11" s="11">
-        <v>90</v>
+        <v>101.7</v>
       </c>
       <c r="L11" s="11">
-        <v>85</v>
+        <v>101.7</v>
       </c>
       <c r="M11" s="11">
-        <v>70</v>
+        <v>101.7</v>
       </c>
       <c r="N11" s="11">
-        <v>60</v>
+        <v>101.7</v>
       </c>
       <c r="O11" s="11">
-        <v>55</v>
+        <v>101.7</v>
       </c>
       <c r="P11" s="12">
-        <v>43794</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="B12" s="11">
-        <v>50</v>
+        <v>62.35</v>
       </c>
       <c r="C12" s="11">
-        <v>55</v>
+        <v>69.930000000000007</v>
       </c>
       <c r="D12" s="11">
-        <v>60</v>
+        <v>85.39</v>
       </c>
       <c r="E12" s="11">
-        <v>65</v>
+        <v>87.81</v>
       </c>
       <c r="F12" s="11">
-        <v>70</v>
+        <v>98.12</v>
       </c>
       <c r="G12" s="11">
-        <v>75</v>
+        <v>107.72</v>
       </c>
       <c r="H12" s="11">
-        <v>80</v>
+        <v>117.16</v>
       </c>
       <c r="I12" s="11">
-        <v>80</v>
+        <v>126.93</v>
       </c>
       <c r="J12" s="11">
-        <v>90</v>
+        <v>136.78</v>
       </c>
       <c r="K12" s="11">
-        <v>85</v>
+        <v>136.78</v>
       </c>
       <c r="L12" s="11">
-        <v>75</v>
+        <v>136.78</v>
       </c>
       <c r="M12" s="11">
-        <v>65</v>
+        <v>136.78</v>
       </c>
       <c r="N12" s="11">
-        <v>55</v>
+        <v>136.78</v>
       </c>
       <c r="O12" s="11">
-        <v>50</v>
+        <v>136.78</v>
       </c>
       <c r="P12" s="12">
-        <v>43794</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="B13" s="11">
-        <v>60</v>
+        <v>44.4</v>
       </c>
       <c r="C13" s="11">
-        <v>70</v>
+        <v>49.3</v>
       </c>
       <c r="D13" s="11">
-        <v>75</v>
+        <v>59.9</v>
       </c>
       <c r="E13" s="11">
-        <v>80</v>
+        <v>61.05</v>
       </c>
       <c r="F13" s="11">
-        <v>85</v>
+        <v>68.650000000000006</v>
       </c>
       <c r="G13" s="11">
-        <v>90</v>
+        <v>75.31</v>
       </c>
       <c r="H13" s="11">
-        <v>95</v>
+        <v>82.39</v>
       </c>
       <c r="I13" s="11">
-        <v>100</v>
+        <v>88.89</v>
       </c>
       <c r="J13" s="11">
-        <v>105</v>
+        <v>96.34</v>
       </c>
       <c r="K13" s="11">
-        <v>100</v>
+        <v>96.34</v>
       </c>
       <c r="L13" s="11">
-        <v>95</v>
+        <v>96.34</v>
       </c>
       <c r="M13" s="11">
-        <v>75</v>
+        <v>96.34</v>
       </c>
       <c r="N13" s="11">
-        <v>65</v>
+        <v>96.34</v>
       </c>
       <c r="O13" s="11">
-        <v>60</v>
+        <v>96.34</v>
       </c>
       <c r="P13" s="12">
-        <v>43794</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="B14" s="11">
-        <v>45</v>
+        <v>62.35</v>
       </c>
       <c r="C14" s="11">
-        <v>45</v>
+        <v>69.930000000000007</v>
       </c>
       <c r="D14" s="11">
-        <v>50</v>
+        <v>85.39</v>
       </c>
       <c r="E14" s="11">
-        <v>55</v>
+        <v>87.81</v>
       </c>
       <c r="F14" s="11">
-        <v>60</v>
+        <v>98.12</v>
       </c>
       <c r="G14" s="11">
-        <v>65</v>
+        <v>107.72</v>
       </c>
       <c r="H14" s="11">
-        <v>65</v>
+        <v>117.16</v>
       </c>
       <c r="I14" s="11">
-        <v>70</v>
+        <v>126.93</v>
       </c>
       <c r="J14" s="11">
-        <v>70</v>
+        <v>136.78</v>
       </c>
       <c r="K14" s="11">
-        <v>70</v>
+        <v>136.78</v>
       </c>
       <c r="L14" s="11">
-        <v>65</v>
+        <v>136.78</v>
       </c>
       <c r="M14" s="11">
-        <v>55</v>
+        <v>136.78</v>
       </c>
       <c r="N14" s="11">
-        <v>45</v>
+        <v>136.78</v>
       </c>
       <c r="O14" s="11">
-        <v>45</v>
+        <v>136.78</v>
       </c>
       <c r="P14" s="12">
-        <v>43794</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="B15" s="11">
-        <v>35</v>
+        <v>62.35</v>
       </c>
       <c r="C15" s="11">
-        <v>35</v>
+        <v>69.930000000000007</v>
       </c>
       <c r="D15" s="11">
-        <v>40</v>
+        <v>85.39</v>
       </c>
       <c r="E15" s="11">
-        <v>40</v>
+        <v>87.81</v>
       </c>
       <c r="F15" s="11">
-        <v>45</v>
+        <v>98.12</v>
       </c>
       <c r="G15" s="11">
-        <v>50</v>
+        <v>107.72</v>
       </c>
       <c r="H15" s="11">
-        <v>50</v>
+        <v>117.16</v>
       </c>
       <c r="I15" s="11">
-        <v>50</v>
+        <v>126.93</v>
       </c>
       <c r="J15" s="11">
-        <v>55</v>
+        <v>136.78</v>
       </c>
       <c r="K15" s="11">
-        <v>55</v>
+        <v>136.78</v>
       </c>
       <c r="L15" s="11">
-        <v>50</v>
+        <v>136.78</v>
       </c>
       <c r="M15" s="11">
-        <v>40</v>
+        <v>136.78</v>
       </c>
       <c r="N15" s="11">
-        <v>35</v>
+        <v>136.78</v>
       </c>
       <c r="O15" s="11">
-        <v>35</v>
+        <v>136.78</v>
       </c>
       <c r="P15" s="12">
-        <v>43794</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="B16" s="11">
-        <v>45</v>
+        <v>54.82</v>
       </c>
       <c r="C16" s="11">
-        <v>50</v>
+        <v>61.64</v>
       </c>
       <c r="D16" s="11">
-        <v>55</v>
+        <v>75.16</v>
       </c>
       <c r="E16" s="11">
-        <v>60</v>
+        <v>76.94</v>
       </c>
       <c r="F16" s="11">
-        <v>65</v>
+        <v>86.04</v>
       </c>
       <c r="G16" s="11">
-        <v>65</v>
+        <v>94.73</v>
       </c>
       <c r="H16" s="11">
-        <v>70</v>
+        <v>102.87</v>
       </c>
       <c r="I16" s="11">
-        <v>70</v>
+        <v>111.13</v>
       </c>
       <c r="J16" s="11">
-        <v>75</v>
+        <v>120.25</v>
       </c>
       <c r="K16" s="11">
-        <v>75</v>
+        <v>120.25</v>
       </c>
       <c r="L16" s="11">
-        <v>65</v>
+        <v>120.25</v>
       </c>
       <c r="M16" s="11">
-        <v>55</v>
+        <v>120.25</v>
       </c>
       <c r="N16" s="11">
-        <v>50</v>
+        <v>120.25</v>
       </c>
       <c r="O16" s="11">
-        <v>45</v>
+        <v>120.25</v>
       </c>
       <c r="P16" s="12">
-        <v>43794</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="B17" s="11">
-        <v>55</v>
+        <v>12.73</v>
       </c>
       <c r="C17" s="11">
-        <v>60</v>
+        <v>14.22</v>
       </c>
       <c r="D17" s="11">
-        <v>65</v>
+        <v>17.670000000000002</v>
       </c>
       <c r="E17" s="11">
-        <v>70</v>
+        <v>18.329999999999998</v>
       </c>
       <c r="F17" s="11">
-        <v>75</v>
+        <v>21.57</v>
       </c>
       <c r="G17" s="11">
-        <v>80</v>
+        <v>21.85</v>
       </c>
       <c r="H17" s="11">
-        <v>85</v>
+        <v>22.27</v>
       </c>
       <c r="I17" s="11">
-        <v>85</v>
+        <v>22.68</v>
       </c>
       <c r="J17" s="11">
-        <v>90</v>
+        <v>24.41</v>
       </c>
       <c r="K17" s="11">
-        <v>85</v>
+        <v>24.41</v>
       </c>
       <c r="L17" s="11">
-        <v>80</v>
+        <v>24.41</v>
       </c>
       <c r="M17" s="11">
-        <v>65</v>
+        <v>24.41</v>
       </c>
       <c r="N17" s="11">
-        <v>60</v>
+        <v>24.41</v>
       </c>
       <c r="O17" s="11">
-        <v>55</v>
+        <v>24.41</v>
       </c>
       <c r="P17" s="12">
-        <v>43794</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="B18" s="11">
-        <v>30</v>
+        <v>57.11</v>
       </c>
       <c r="C18" s="11">
-        <v>30</v>
+        <v>64.010000000000005</v>
       </c>
       <c r="D18" s="11">
-        <v>35</v>
+        <v>78.25</v>
       </c>
       <c r="E18" s="11">
-        <v>40</v>
+        <v>80.069999999999993</v>
       </c>
       <c r="F18" s="11">
-        <v>40</v>
+        <v>89.67</v>
       </c>
       <c r="G18" s="11">
-        <v>45</v>
+        <v>98.12</v>
       </c>
       <c r="H18" s="11">
-        <v>45</v>
+        <v>107.01</v>
       </c>
       <c r="I18" s="11">
-        <v>45</v>
+        <v>116.03</v>
       </c>
       <c r="J18" s="11">
-        <v>50</v>
+        <v>124.91</v>
       </c>
       <c r="K18" s="11">
-        <v>45</v>
+        <v>124.91</v>
       </c>
       <c r="L18" s="11">
-        <v>45</v>
+        <v>124.91</v>
       </c>
       <c r="M18" s="11">
-        <v>35</v>
+        <v>124.91</v>
       </c>
       <c r="N18" s="11">
-        <v>30</v>
+        <v>124.91</v>
       </c>
       <c r="O18" s="11">
-        <v>30</v>
+        <v>124.91</v>
       </c>
       <c r="P18" s="12">
-        <v>43794</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="B19" s="11">
-        <v>45</v>
+        <v>45.87</v>
       </c>
       <c r="C19" s="11">
-        <v>50</v>
+        <v>50.81</v>
       </c>
       <c r="D19" s="11">
-        <v>55</v>
+        <v>61.73</v>
       </c>
       <c r="E19" s="11">
-        <v>55</v>
+        <v>63.04</v>
       </c>
       <c r="F19" s="11">
-        <v>60</v>
+        <v>70.75</v>
       </c>
       <c r="G19" s="11">
-        <v>65</v>
+        <v>77.77</v>
       </c>
       <c r="H19" s="11">
-        <v>70</v>
+        <v>84.94</v>
       </c>
       <c r="I19" s="11">
-        <v>70</v>
+        <v>91.55</v>
       </c>
       <c r="J19" s="11">
-        <v>75</v>
+        <v>99.4</v>
       </c>
       <c r="K19" s="11">
-        <v>70</v>
+        <v>99.4</v>
       </c>
       <c r="L19" s="11">
-        <v>65</v>
+        <v>99.4</v>
       </c>
       <c r="M19" s="11">
-        <v>55</v>
+        <v>99.4</v>
       </c>
       <c r="N19" s="11">
-        <v>50</v>
+        <v>99.4</v>
       </c>
       <c r="O19" s="11">
-        <v>45</v>
+        <v>99.4</v>
       </c>
       <c r="P19" s="12">
-        <v>43794</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="B20" s="11">
-        <v>40</v>
+        <v>45.87</v>
       </c>
       <c r="C20" s="11">
-        <v>45</v>
+        <v>50.81</v>
       </c>
       <c r="D20" s="11">
-        <v>45</v>
+        <v>61.73</v>
       </c>
       <c r="E20" s="11">
-        <v>50</v>
+        <v>63.04</v>
       </c>
       <c r="F20" s="11">
-        <v>55</v>
+        <v>70.75</v>
       </c>
       <c r="G20" s="11">
-        <v>60</v>
+        <v>77.77</v>
       </c>
       <c r="H20" s="11">
-        <v>60</v>
+        <v>84.94</v>
       </c>
       <c r="I20" s="11">
-        <v>60</v>
+        <v>91.55</v>
       </c>
       <c r="J20" s="11">
-        <v>65</v>
+        <v>99.4</v>
       </c>
       <c r="K20" s="11">
-        <v>65</v>
+        <v>99.4</v>
       </c>
       <c r="L20" s="11">
-        <v>60</v>
+        <v>99.4</v>
       </c>
       <c r="M20" s="11">
-        <v>50</v>
+        <v>99.4</v>
       </c>
       <c r="N20" s="11">
-        <v>40</v>
+        <v>99.4</v>
       </c>
       <c r="O20" s="11">
-        <v>40</v>
+        <v>99.4</v>
       </c>
       <c r="P20" s="12">
-        <v>43794</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="B21" s="11">
-        <v>45</v>
+        <v>37.42</v>
       </c>
       <c r="C21" s="11">
-        <v>50</v>
+        <v>41.53</v>
       </c>
       <c r="D21" s="11">
-        <v>55</v>
+        <v>50.13</v>
       </c>
       <c r="E21" s="11">
-        <v>60</v>
+        <v>51.15</v>
       </c>
       <c r="F21" s="11">
-        <v>65</v>
+        <v>57.53</v>
       </c>
       <c r="G21" s="11">
-        <v>70</v>
+        <v>63.38</v>
       </c>
       <c r="H21" s="11">
-        <v>70</v>
+        <v>68.81</v>
       </c>
       <c r="I21" s="11">
-        <v>75</v>
+        <v>74.64</v>
       </c>
       <c r="J21" s="11">
-        <v>80</v>
+        <v>80.61</v>
       </c>
       <c r="K21" s="11">
-        <v>75</v>
+        <v>80.61</v>
       </c>
       <c r="L21" s="11">
-        <v>70</v>
+        <v>80.61</v>
       </c>
       <c r="M21" s="11">
-        <v>60</v>
+        <v>80.61</v>
       </c>
       <c r="N21" s="11">
-        <v>50</v>
+        <v>80.61</v>
       </c>
       <c r="O21" s="11">
-        <v>45</v>
+        <v>80.61</v>
       </c>
       <c r="P21" s="12">
-        <v>43794</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="B22" s="11">
-        <v>20</v>
+        <v>52.11</v>
       </c>
       <c r="C22" s="11">
-        <v>20</v>
+        <v>58.26</v>
       </c>
       <c r="D22" s="11">
-        <v>20</v>
+        <v>70.680000000000007</v>
       </c>
       <c r="E22" s="11">
-        <v>25</v>
+        <v>72.34</v>
       </c>
       <c r="F22" s="11">
-        <v>25</v>
+        <v>81.209999999999994</v>
       </c>
       <c r="G22" s="11">
-        <v>25</v>
+        <v>88.95</v>
       </c>
       <c r="H22" s="11">
-        <v>30</v>
+        <v>96.98</v>
       </c>
       <c r="I22" s="11">
-        <v>30</v>
+        <v>104.86</v>
       </c>
       <c r="J22" s="11">
-        <v>30</v>
+        <v>113.17</v>
       </c>
       <c r="K22" s="11">
-        <v>30</v>
+        <v>113.17</v>
       </c>
       <c r="L22" s="11">
-        <v>30</v>
+        <v>113.17</v>
       </c>
       <c r="M22" s="11">
-        <v>25</v>
+        <v>113.17</v>
       </c>
       <c r="N22" s="11">
-        <v>20</v>
+        <v>113.17</v>
       </c>
       <c r="O22" s="11">
-        <v>20</v>
+        <v>113.17</v>
       </c>
       <c r="P22" s="12">
-        <v>43794</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="B23" s="11">
-        <v>35</v>
+        <v>129.9</v>
       </c>
       <c r="C23" s="11">
-        <v>40</v>
+        <v>146.21</v>
       </c>
       <c r="D23" s="11">
-        <v>45</v>
+        <v>179.12</v>
       </c>
       <c r="E23" s="11">
-        <v>50</v>
+        <v>183.35</v>
       </c>
       <c r="F23" s="11">
-        <v>50</v>
+        <v>205.27</v>
       </c>
       <c r="G23" s="11">
-        <v>55</v>
+        <v>224.75</v>
       </c>
       <c r="H23" s="11">
-        <v>55</v>
+        <v>244.52</v>
       </c>
       <c r="I23" s="11">
-        <v>60</v>
+        <v>264.29000000000002</v>
       </c>
       <c r="J23" s="11">
-        <v>65</v>
+        <v>285.35000000000002</v>
       </c>
       <c r="K23" s="11">
-        <v>60</v>
+        <v>285.35000000000002</v>
       </c>
       <c r="L23" s="11">
-        <v>55</v>
+        <v>285.35000000000002</v>
       </c>
       <c r="M23" s="11">
-        <v>45</v>
+        <v>285.35000000000002</v>
       </c>
       <c r="N23" s="11">
-        <v>40</v>
+        <v>285.35000000000002</v>
       </c>
       <c r="O23" s="11">
-        <v>35</v>
+        <v>285.35000000000002</v>
       </c>
       <c r="P23" s="12">
-        <v>43794</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="B24" s="11">
-        <v>30</v>
+        <v>46.91</v>
       </c>
       <c r="C24" s="11">
-        <v>35</v>
+        <v>52.29</v>
       </c>
       <c r="D24" s="11">
-        <v>35</v>
+        <v>63.36</v>
       </c>
       <c r="E24" s="11">
-        <v>40</v>
+        <v>64.739999999999995</v>
       </c>
       <c r="F24" s="11">
-        <v>40</v>
+        <v>72.86</v>
       </c>
       <c r="G24" s="11">
-        <v>45</v>
+        <v>79.790000000000006</v>
       </c>
       <c r="H24" s="11">
-        <v>45</v>
+        <v>86.99</v>
       </c>
       <c r="I24" s="11">
-        <v>45</v>
+        <v>94.33</v>
       </c>
       <c r="J24" s="11">
-        <v>50</v>
+        <v>101.79</v>
       </c>
       <c r="K24" s="11">
-        <v>50</v>
+        <v>101.79</v>
       </c>
       <c r="L24" s="11">
-        <v>45</v>
+        <v>101.79</v>
       </c>
       <c r="M24" s="11">
-        <v>35</v>
+        <v>101.79</v>
       </c>
       <c r="N24" s="11">
-        <v>30</v>
+        <v>101.79</v>
       </c>
       <c r="O24" s="11">
-        <v>30</v>
+        <v>101.79</v>
       </c>
       <c r="P24" s="12">
-        <v>43794</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="B25" s="11">
-        <v>30</v>
+        <v>34.04</v>
       </c>
       <c r="C25" s="11">
-        <v>30</v>
+        <v>37.450000000000003</v>
       </c>
       <c r="D25" s="11">
-        <v>35</v>
+        <v>44.28</v>
       </c>
       <c r="E25" s="11">
-        <v>35</v>
+        <v>44.69</v>
       </c>
       <c r="F25" s="11">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G25" s="11">
-        <v>40</v>
+        <v>56.01</v>
       </c>
       <c r="H25" s="11">
-        <v>45</v>
+        <v>61.18</v>
       </c>
       <c r="I25" s="11">
-        <v>45</v>
+        <v>66.47</v>
       </c>
       <c r="J25" s="11">
-        <v>50</v>
+        <v>72.040000000000006</v>
       </c>
       <c r="K25" s="11">
-        <v>45</v>
+        <v>72.040000000000006</v>
       </c>
       <c r="L25" s="11">
-        <v>45</v>
+        <v>72.040000000000006</v>
       </c>
       <c r="M25" s="11">
-        <v>35</v>
+        <v>72.040000000000006</v>
       </c>
       <c r="N25" s="11">
-        <v>30</v>
+        <v>72.040000000000006</v>
       </c>
       <c r="O25" s="11">
-        <v>30</v>
+        <v>72.040000000000006</v>
       </c>
       <c r="P25" s="12">
-        <v>43794</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="B26" s="11">
-        <v>35</v>
+        <v>52.11</v>
       </c>
       <c r="C26" s="11">
-        <v>40</v>
+        <v>58.26</v>
       </c>
       <c r="D26" s="11">
-        <v>40</v>
+        <v>70.680000000000007</v>
       </c>
       <c r="E26" s="11">
-        <v>45</v>
+        <v>72.34</v>
       </c>
       <c r="F26" s="11">
-        <v>50</v>
+        <v>81.209999999999994</v>
       </c>
       <c r="G26" s="11">
-        <v>50</v>
+        <v>88.95</v>
       </c>
       <c r="H26" s="11">
-        <v>50</v>
+        <v>96.98</v>
       </c>
       <c r="I26" s="11">
-        <v>55</v>
+        <v>104.86</v>
       </c>
       <c r="J26" s="11">
-        <v>60</v>
+        <v>113.17</v>
       </c>
       <c r="K26" s="11">
-        <v>55</v>
+        <v>113.17</v>
       </c>
       <c r="L26" s="11">
-        <v>50</v>
+        <v>113.17</v>
       </c>
       <c r="M26" s="11">
-        <v>45</v>
+        <v>113.17</v>
       </c>
       <c r="N26" s="11">
-        <v>35</v>
+        <v>113.17</v>
       </c>
       <c r="O26" s="11">
-        <v>35</v>
+        <v>113.17</v>
       </c>
       <c r="P26" s="12">
-        <v>43794</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="B27" s="11">
-        <v>25</v>
+        <v>52.11</v>
       </c>
       <c r="C27" s="11">
-        <v>30</v>
+        <v>58.26</v>
       </c>
       <c r="D27" s="11">
-        <v>30</v>
+        <v>70.680000000000007</v>
       </c>
       <c r="E27" s="11">
-        <v>30</v>
+        <v>72.34</v>
       </c>
       <c r="F27" s="11">
-        <v>35</v>
+        <v>81.209999999999994</v>
       </c>
       <c r="G27" s="11">
-        <v>35</v>
+        <v>88.95</v>
       </c>
       <c r="H27" s="11">
-        <v>40</v>
+        <v>96.98</v>
       </c>
       <c r="I27" s="11">
-        <v>40</v>
+        <v>104.86</v>
       </c>
       <c r="J27" s="11">
-        <v>40</v>
+        <v>113.17</v>
       </c>
       <c r="K27" s="11">
-        <v>40</v>
+        <v>113.17</v>
       </c>
       <c r="L27" s="11">
-        <v>35</v>
+        <v>113.17</v>
       </c>
       <c r="M27" s="11">
-        <v>30</v>
+        <v>113.17</v>
       </c>
       <c r="N27" s="11">
-        <v>25</v>
+        <v>113.17</v>
       </c>
       <c r="O27" s="11">
-        <v>25</v>
+        <v>113.17</v>
       </c>
       <c r="P27" s="12">
-        <v>43794</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="B28" s="11">
-        <v>35</v>
+        <v>50.37</v>
       </c>
       <c r="C28" s="11">
-        <v>40</v>
+        <v>57.79</v>
       </c>
       <c r="D28" s="11">
-        <v>40</v>
+        <v>70.55</v>
       </c>
       <c r="E28" s="11">
-        <v>45</v>
+        <v>71.930000000000007</v>
       </c>
       <c r="F28" s="11">
-        <v>50</v>
+        <v>81.02</v>
       </c>
       <c r="G28" s="11">
-        <v>50</v>
+        <v>88.89</v>
       </c>
       <c r="H28" s="11">
-        <v>55</v>
+        <v>97.44</v>
       </c>
       <c r="I28" s="11">
-        <v>55</v>
+        <v>104.63</v>
       </c>
       <c r="J28" s="11">
-        <v>60</v>
+        <v>112.9</v>
       </c>
       <c r="K28" s="11">
-        <v>55</v>
+        <v>112.9</v>
       </c>
       <c r="L28" s="11">
-        <v>50</v>
+        <v>112.9</v>
       </c>
       <c r="M28" s="11">
-        <v>45</v>
+        <v>112.9</v>
       </c>
       <c r="N28" s="11">
-        <v>35</v>
+        <v>112.9</v>
       </c>
       <c r="O28" s="11">
-        <v>35</v>
+        <v>112.9</v>
       </c>
       <c r="P28" s="12">
-        <v>43794</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="B29" s="11">
-        <v>120</v>
+        <v>56.77</v>
       </c>
       <c r="C29" s="11">
-        <v>135</v>
+        <v>63.51</v>
       </c>
       <c r="D29" s="11">
-        <v>145</v>
+        <v>77.760000000000005</v>
       </c>
       <c r="E29" s="11">
-        <v>160</v>
+        <v>79.53</v>
       </c>
       <c r="F29" s="11">
-        <v>170</v>
+        <v>88.89</v>
       </c>
       <c r="G29" s="11">
-        <v>180</v>
+        <v>97.84</v>
       </c>
       <c r="H29" s="11">
-        <v>185</v>
+        <v>106.4</v>
       </c>
       <c r="I29" s="11">
-        <v>195</v>
+        <v>114.82</v>
       </c>
       <c r="J29" s="11">
-        <v>210</v>
+        <v>124.15</v>
       </c>
       <c r="K29" s="11">
-        <v>195</v>
+        <v>124.15</v>
       </c>
       <c r="L29" s="11">
-        <v>185</v>
+        <v>124.15</v>
       </c>
       <c r="M29" s="11">
-        <v>150</v>
+        <v>124.15</v>
       </c>
       <c r="N29" s="11">
-        <v>135</v>
+        <v>124.15</v>
       </c>
       <c r="O29" s="11">
-        <v>120</v>
+        <v>124.15</v>
       </c>
       <c r="P29" s="12">
-        <v>43794</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="B30" s="11">
-        <v>35</v>
+        <v>30.87</v>
       </c>
       <c r="C30" s="11">
-        <v>35</v>
+        <v>33.979999999999997</v>
       </c>
       <c r="D30" s="11">
-        <v>40</v>
+        <v>39.89</v>
       </c>
       <c r="E30" s="11">
-        <v>45</v>
+        <v>42.49</v>
       </c>
       <c r="F30" s="11">
-        <v>45</v>
+        <v>48.23</v>
       </c>
       <c r="G30" s="11">
-        <v>50</v>
+        <v>53.23</v>
       </c>
       <c r="H30" s="11">
-        <v>50</v>
+        <v>58.23</v>
       </c>
       <c r="I30" s="11">
-        <v>55</v>
+        <v>63.24</v>
       </c>
       <c r="J30" s="11">
-        <v>55</v>
+        <v>68.39</v>
       </c>
       <c r="K30" s="11">
-        <v>55</v>
+        <v>68.39</v>
       </c>
       <c r="L30" s="11">
-        <v>50</v>
+        <v>68.39</v>
       </c>
       <c r="M30" s="11">
-        <v>40</v>
+        <v>68.39</v>
       </c>
       <c r="N30" s="11">
-        <v>35</v>
+        <v>68.39</v>
       </c>
       <c r="O30" s="11">
-        <v>35</v>
+        <v>68.39</v>
       </c>
       <c r="P30" s="12">
-        <v>43794</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="B31" s="11">
-        <v>25</v>
+        <v>35.79</v>
       </c>
       <c r="C31" s="11">
-        <v>25</v>
+        <v>39.43</v>
       </c>
       <c r="D31" s="11">
-        <v>25</v>
+        <v>47.02</v>
       </c>
       <c r="E31" s="11">
-        <v>30</v>
+        <v>47.71</v>
       </c>
       <c r="F31" s="11">
-        <v>30</v>
+        <v>53.99</v>
       </c>
       <c r="G31" s="11">
-        <v>35</v>
+        <v>59.43</v>
       </c>
       <c r="H31" s="11">
-        <v>35</v>
+        <v>64.88</v>
       </c>
       <c r="I31" s="11">
-        <v>35</v>
+        <v>70.48</v>
       </c>
       <c r="J31" s="11">
-        <v>40</v>
+        <v>76.23</v>
       </c>
       <c r="K31" s="11">
-        <v>35</v>
+        <v>76.23</v>
       </c>
       <c r="L31" s="11">
-        <v>35</v>
+        <v>76.23</v>
       </c>
       <c r="M31" s="11">
-        <v>30</v>
+        <v>76.23</v>
       </c>
       <c r="N31" s="11">
-        <v>25</v>
+        <v>76.23</v>
       </c>
       <c r="O31" s="11">
-        <v>25</v>
+        <v>76.23</v>
       </c>
       <c r="P31" s="12">
-        <v>43794</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="B32" s="11">
-        <v>30</v>
+        <v>33.909999999999997</v>
       </c>
       <c r="C32" s="11">
-        <v>30</v>
+        <v>37.35</v>
       </c>
       <c r="D32" s="11">
-        <v>35</v>
+        <v>44.56</v>
       </c>
       <c r="E32" s="11">
-        <v>35</v>
+        <v>45.19</v>
       </c>
       <c r="F32" s="11">
-        <v>40</v>
+        <v>51.15</v>
       </c>
       <c r="G32" s="11">
-        <v>40</v>
+        <v>56.31</v>
       </c>
       <c r="H32" s="11">
-        <v>40</v>
+        <v>61.47</v>
       </c>
       <c r="I32" s="11">
-        <v>45</v>
+        <v>66.760000000000005</v>
       </c>
       <c r="J32" s="11">
-        <v>45</v>
+        <v>72.2</v>
       </c>
       <c r="K32" s="11">
-        <v>45</v>
+        <v>72.2</v>
       </c>
       <c r="L32" s="11">
-        <v>40</v>
+        <v>72.2</v>
       </c>
       <c r="M32" s="11">
-        <v>35</v>
+        <v>72.2</v>
       </c>
       <c r="N32" s="11">
-        <v>30</v>
+        <v>72.2</v>
       </c>
       <c r="O32" s="11">
-        <v>30</v>
+        <v>72.2</v>
       </c>
       <c r="P32" s="12">
-        <v>43794</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="B33" s="11">
-        <v>30</v>
+        <v>59.14</v>
       </c>
       <c r="C33" s="11">
-        <v>35</v>
+        <v>66.25</v>
       </c>
       <c r="D33" s="11">
-        <v>40</v>
+        <v>80.89</v>
       </c>
       <c r="E33" s="11">
-        <v>40</v>
+        <v>83.21</v>
       </c>
       <c r="F33" s="11">
-        <v>45</v>
+        <v>92.96</v>
       </c>
       <c r="G33" s="11">
-        <v>45</v>
+        <v>102.05</v>
       </c>
       <c r="H33" s="11">
-        <v>50</v>
+        <v>110.98</v>
       </c>
       <c r="I33" s="11">
-        <v>50</v>
+        <v>120.25</v>
       </c>
       <c r="J33" s="11">
-        <v>55</v>
+        <v>129.58000000000001</v>
       </c>
       <c r="K33" s="11">
-        <v>50</v>
+        <v>129.58000000000001</v>
       </c>
       <c r="L33" s="11">
-        <v>50</v>
+        <v>129.58000000000001</v>
       </c>
       <c r="M33" s="11">
-        <v>40</v>
+        <v>129.58000000000001</v>
       </c>
       <c r="N33" s="11">
-        <v>35</v>
+        <v>129.58000000000001</v>
       </c>
       <c r="O33" s="11">
-        <v>30</v>
+        <v>129.58000000000001</v>
       </c>
       <c r="P33" s="12">
-        <v>43794</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="B34" s="11">
-        <v>35</v>
+        <v>48.48</v>
       </c>
       <c r="C34" s="11">
-        <v>35</v>
+        <v>54.15</v>
       </c>
       <c r="D34" s="11">
-        <v>40</v>
+        <v>65.52</v>
       </c>
       <c r="E34" s="11">
-        <v>45</v>
+        <v>69.33</v>
       </c>
       <c r="F34" s="11">
-        <v>45</v>
+        <v>76.94</v>
       </c>
       <c r="G34" s="11">
-        <v>50</v>
+        <v>84.27</v>
       </c>
       <c r="H34" s="11">
-        <v>50</v>
+        <v>91.88</v>
       </c>
       <c r="I34" s="11">
-        <v>55</v>
+        <v>99.34</v>
       </c>
       <c r="J34" s="11">
-        <v>55</v>
+        <v>107.21</v>
       </c>
       <c r="K34" s="11">
-        <v>55</v>
+        <v>107.21</v>
       </c>
       <c r="L34" s="11">
-        <v>50</v>
+        <v>107.21</v>
       </c>
       <c r="M34" s="11">
-        <v>40</v>
+        <v>107.21</v>
       </c>
       <c r="N34" s="11">
-        <v>35</v>
+        <v>107.21</v>
       </c>
       <c r="O34" s="11">
-        <v>35</v>
+        <v>107.21</v>
       </c>
       <c r="P34" s="12">
-        <v>43794</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="35" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="10" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="B35" s="11">
-        <v>35</v>
+        <v>57.11</v>
       </c>
       <c r="C35" s="11">
-        <v>40</v>
+        <v>64.010000000000005</v>
       </c>
       <c r="D35" s="11">
-        <v>40</v>
+        <v>78.25</v>
       </c>
       <c r="E35" s="11">
-        <v>45</v>
+        <v>80.069999999999993</v>
       </c>
       <c r="F35" s="11">
-        <v>50</v>
+        <v>89.68</v>
       </c>
       <c r="G35" s="11">
-        <v>55</v>
+        <v>98.12</v>
       </c>
       <c r="H35" s="11">
-        <v>55</v>
+        <v>107.01</v>
       </c>
       <c r="I35" s="11">
-        <v>55</v>
+        <v>116.03</v>
       </c>
       <c r="J35" s="11">
-        <v>60</v>
+        <v>124.91</v>
       </c>
       <c r="K35" s="11">
-        <v>55</v>
+        <v>124.91</v>
       </c>
       <c r="L35" s="11">
-        <v>55</v>
+        <v>124.91</v>
       </c>
       <c r="M35" s="11">
-        <v>45</v>
+        <v>124.91</v>
       </c>
       <c r="N35" s="11">
-        <v>40</v>
+        <v>124.91</v>
       </c>
       <c r="O35" s="11">
-        <v>35</v>
+        <v>124.91</v>
       </c>
       <c r="P35" s="12">
-        <v>43794</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="36" spans="1:16" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="B36" s="11">
-        <v>40</v>
+        <v>43.69</v>
       </c>
       <c r="C36" s="11">
-        <v>45</v>
+        <v>48.43</v>
       </c>
       <c r="D36" s="11">
-        <v>45</v>
+        <v>59.9</v>
       </c>
       <c r="E36" s="11">
-        <v>50</v>
+        <v>61.05</v>
       </c>
       <c r="F36" s="11">
-        <v>55</v>
+        <v>68.650000000000006</v>
       </c>
       <c r="G36" s="11">
-        <v>55</v>
+        <v>75.31</v>
       </c>
       <c r="H36" s="11">
-        <v>60</v>
+        <v>82.39</v>
       </c>
       <c r="I36" s="11">
-        <v>60</v>
+        <v>88.89</v>
       </c>
       <c r="J36" s="11">
-        <v>65</v>
+        <v>96.34</v>
       </c>
       <c r="K36" s="11">
-        <v>65</v>
+        <v>96.34</v>
       </c>
       <c r="L36" s="11">
-        <v>60</v>
+        <v>96.34</v>
       </c>
       <c r="M36" s="11">
-        <v>50</v>
+        <v>96.34</v>
       </c>
       <c r="N36" s="11">
-        <v>40</v>
+        <v>96.34</v>
       </c>
       <c r="O36" s="11">
-        <v>40</v>
+        <v>96.34</v>
       </c>
       <c r="P36" s="12">
-        <v>43794</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="37" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="B37" s="11">
-        <v>20</v>
+        <v>64.91</v>
       </c>
       <c r="C37" s="11">
-        <v>20</v>
+        <v>72.97</v>
       </c>
       <c r="D37" s="11">
-        <v>25</v>
+        <v>89.35</v>
       </c>
       <c r="E37" s="11">
-        <v>25</v>
+        <v>91.55</v>
       </c>
       <c r="F37" s="11">
-        <v>30</v>
+        <v>102.57</v>
       </c>
       <c r="G37" s="11">
-        <v>30</v>
+        <v>112.31</v>
       </c>
       <c r="H37" s="11">
-        <v>30</v>
+        <v>122.47</v>
       </c>
       <c r="I37" s="11">
-        <v>30</v>
+        <v>132.09</v>
       </c>
       <c r="J37" s="11">
-        <v>35</v>
+        <v>142.66</v>
       </c>
       <c r="K37" s="11">
-        <v>30</v>
+        <v>142.66</v>
       </c>
       <c r="L37" s="11">
-        <v>30</v>
+        <v>142.66</v>
       </c>
       <c r="M37" s="11">
-        <v>25</v>
+        <v>142.66</v>
       </c>
       <c r="N37" s="11">
-        <v>20</v>
+        <v>142.66</v>
       </c>
       <c r="O37" s="11">
-        <v>20</v>
+        <v>142.66</v>
       </c>
       <c r="P37" s="12">
-        <v>43794</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="38" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="B38" s="11">
-        <v>25</v>
+        <v>30.47</v>
       </c>
       <c r="C38" s="11">
-        <v>25</v>
+        <v>33.520000000000003</v>
       </c>
       <c r="D38" s="11">
-        <v>30</v>
+        <v>39.42</v>
       </c>
       <c r="E38" s="11">
-        <v>30</v>
+        <v>42.16</v>
       </c>
       <c r="F38" s="11">
-        <v>35</v>
+        <v>47.92</v>
       </c>
       <c r="G38" s="11">
-        <v>35</v>
+        <v>52.82</v>
       </c>
       <c r="H38" s="11">
-        <v>35</v>
+        <v>57.82</v>
       </c>
       <c r="I38" s="11">
-        <v>35</v>
+        <v>62.63</v>
       </c>
       <c r="J38" s="11">
-        <v>40</v>
+        <v>67.94</v>
       </c>
       <c r="K38" s="11">
-        <v>40</v>
+        <v>67.94</v>
       </c>
       <c r="L38" s="11">
-        <v>35</v>
+        <v>67.94</v>
       </c>
       <c r="M38" s="11">
-        <v>30</v>
+        <v>67.94</v>
       </c>
       <c r="N38" s="11">
-        <v>25</v>
+        <v>67.94</v>
       </c>
       <c r="O38" s="11">
-        <v>25</v>
+        <v>67.94</v>
       </c>
       <c r="P38" s="12">
-        <v>43794</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="39" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="B39" s="11">
-        <v>25</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="C39" s="11">
-        <v>30</v>
+        <v>41.86</v>
       </c>
       <c r="D39" s="11">
-        <v>30</v>
+        <v>50.06</v>
       </c>
       <c r="E39" s="11">
-        <v>35</v>
+        <v>50.41</v>
       </c>
       <c r="F39" s="11">
-        <v>35</v>
+        <v>57.42</v>
       </c>
       <c r="G39" s="11">
-        <v>40</v>
+        <v>63.16</v>
       </c>
       <c r="H39" s="11">
-        <v>40</v>
+        <v>69.19</v>
       </c>
       <c r="I39" s="11">
-        <v>45</v>
+        <v>74.78</v>
       </c>
       <c r="J39" s="11">
-        <v>45</v>
+        <v>80.650000000000006</v>
       </c>
       <c r="K39" s="11">
-        <v>45</v>
+        <v>80.650000000000006</v>
       </c>
       <c r="L39" s="11">
-        <v>40</v>
+        <v>80.650000000000006</v>
       </c>
       <c r="M39" s="11">
-        <v>35</v>
+        <v>80.650000000000006</v>
       </c>
       <c r="N39" s="11">
-        <v>30</v>
+        <v>80.650000000000006</v>
       </c>
       <c r="O39" s="11">
-        <v>25</v>
+        <v>80.650000000000006</v>
       </c>
       <c r="P39" s="12">
-        <v>43794</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="40" spans="1:16" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="B40" s="11">
-        <v>30</v>
+        <v>33.78</v>
       </c>
       <c r="C40" s="11">
-        <v>35</v>
+        <v>37.229999999999997</v>
       </c>
       <c r="D40" s="11">
-        <v>40</v>
+        <v>43.83</v>
       </c>
       <c r="E40" s="11">
-        <v>40</v>
+        <v>43.28</v>
       </c>
       <c r="F40" s="11">
-        <v>45</v>
+        <v>48.58</v>
       </c>
       <c r="G40" s="11">
-        <v>45</v>
+        <v>52.67</v>
       </c>
       <c r="H40" s="11">
-        <v>50</v>
+        <v>57.26</v>
       </c>
       <c r="I40" s="11">
-        <v>50</v>
+        <v>61.2</v>
       </c>
       <c r="J40" s="11">
-        <v>55</v>
+        <v>65.28</v>
       </c>
       <c r="K40" s="11">
-        <v>50</v>
+        <v>65.28</v>
       </c>
       <c r="L40" s="11">
-        <v>50</v>
+        <v>65.28</v>
       </c>
       <c r="M40" s="11">
-        <v>40</v>
+        <v>65.28</v>
       </c>
       <c r="N40" s="11">
-        <v>35</v>
+        <v>65.28</v>
       </c>
       <c r="O40" s="11">
-        <v>30</v>
+        <v>65.28</v>
       </c>
       <c r="P40" s="12">
-        <v>43794</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="41" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="B41" s="11">
-        <v>40</v>
+        <v>54.82</v>
       </c>
       <c r="C41" s="11">
-        <v>45</v>
+        <v>61.64</v>
       </c>
       <c r="D41" s="11">
-        <v>50</v>
+        <v>75.16</v>
       </c>
       <c r="E41" s="11">
-        <v>55</v>
+        <v>76.94</v>
       </c>
       <c r="F41" s="11">
-        <v>60</v>
+        <v>86.04</v>
       </c>
       <c r="G41" s="11">
-        <v>60</v>
+        <v>94.73</v>
       </c>
       <c r="H41" s="11">
-        <v>65</v>
+        <v>102.87</v>
       </c>
       <c r="I41" s="11">
-        <v>65</v>
+        <v>111.13</v>
       </c>
       <c r="J41" s="11">
-        <v>70</v>
+        <v>120.25</v>
       </c>
       <c r="K41" s="11">
-        <v>70</v>
+        <v>120.25</v>
       </c>
       <c r="L41" s="11">
-        <v>65</v>
+        <v>120.25</v>
       </c>
       <c r="M41" s="11">
-        <v>50</v>
+        <v>120.25</v>
       </c>
       <c r="N41" s="11">
-        <v>45</v>
+        <v>120.25</v>
       </c>
       <c r="O41" s="11">
-        <v>40</v>
+        <v>120.25</v>
       </c>
       <c r="P41" s="12">
-        <v>43794</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="42" spans="1:16" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="B42" s="11">
-        <v>40</v>
+        <v>53.18</v>
       </c>
       <c r="C42" s="11">
-        <v>45</v>
+        <v>60.99</v>
       </c>
       <c r="D42" s="11">
-        <v>45</v>
+        <v>74.48</v>
       </c>
       <c r="E42" s="11">
-        <v>50</v>
+        <v>75.930000000000007</v>
       </c>
       <c r="F42" s="11">
-        <v>55</v>
+        <v>85.52</v>
       </c>
       <c r="G42" s="11">
-        <v>55</v>
+        <v>93.82</v>
       </c>
       <c r="H42" s="11">
-        <v>60</v>
+        <v>102.85</v>
       </c>
       <c r="I42" s="11">
-        <v>60</v>
+        <v>110.42</v>
       </c>
       <c r="J42" s="11">
-        <v>65</v>
+        <v>119.17</v>
       </c>
       <c r="K42" s="11">
-        <v>60</v>
+        <v>119.17</v>
       </c>
       <c r="L42" s="11">
-        <v>60</v>
+        <v>119.17</v>
       </c>
       <c r="M42" s="11">
-        <v>50</v>
+        <v>119.17</v>
       </c>
       <c r="N42" s="11">
-        <v>40</v>
+        <v>119.17</v>
       </c>
       <c r="O42" s="11">
-        <v>40</v>
+        <v>119.17</v>
       </c>
       <c r="P42" s="12">
-        <v>43794</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="43" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="B43" s="11">
-        <v>40</v>
+        <v>53.18</v>
       </c>
       <c r="C43" s="11">
-        <v>45</v>
+        <v>60.99</v>
       </c>
       <c r="D43" s="11">
-        <v>45</v>
+        <v>74.48</v>
       </c>
       <c r="E43" s="11">
-        <v>50</v>
+        <v>75.930000000000007</v>
       </c>
       <c r="F43" s="11">
-        <v>55</v>
+        <v>85.52</v>
       </c>
       <c r="G43" s="11">
-        <v>60</v>
+        <v>93.82</v>
       </c>
       <c r="H43" s="11">
-        <v>60</v>
+        <v>102.85</v>
       </c>
       <c r="I43" s="11">
-        <v>65</v>
+        <v>110.42</v>
       </c>
       <c r="J43" s="11">
-        <v>65</v>
+        <v>119.17</v>
       </c>
       <c r="K43" s="11">
-        <v>65</v>
+        <v>119.17</v>
       </c>
       <c r="L43" s="11">
-        <v>60</v>
+        <v>119.17</v>
       </c>
       <c r="M43" s="11">
-        <v>50</v>
+        <v>119.17</v>
       </c>
       <c r="N43" s="11">
-        <v>45</v>
+        <v>119.17</v>
       </c>
       <c r="O43" s="11">
-        <v>40</v>
+        <v>119.17</v>
       </c>
       <c r="P43" s="12">
-        <v>43794</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="44" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="B44" s="11">
-        <v>30</v>
+        <v>41.86</v>
       </c>
       <c r="C44" s="11">
-        <v>35</v>
+        <v>46.42</v>
       </c>
       <c r="D44" s="11">
-        <v>40</v>
+        <v>55.67</v>
       </c>
       <c r="E44" s="11">
-        <v>40</v>
+        <v>56.01</v>
       </c>
       <c r="F44" s="11">
-        <v>45</v>
+        <v>63.88</v>
       </c>
       <c r="G44" s="11">
-        <v>50</v>
+        <v>70.2</v>
       </c>
       <c r="H44" s="11">
-        <v>50</v>
+        <v>76.91</v>
       </c>
       <c r="I44" s="11">
-        <v>50</v>
+        <v>83.06</v>
       </c>
       <c r="J44" s="11">
-        <v>55</v>
+        <v>89.82</v>
       </c>
       <c r="K44" s="11">
-        <v>50</v>
+        <v>89.82</v>
       </c>
       <c r="L44" s="11">
-        <v>50</v>
+        <v>89.82</v>
       </c>
       <c r="M44" s="11">
-        <v>40</v>
+        <v>89.82</v>
       </c>
       <c r="N44" s="11">
-        <v>35</v>
+        <v>89.82</v>
       </c>
       <c r="O44" s="11">
-        <v>30</v>
+        <v>89.82</v>
       </c>
       <c r="P44" s="12">
-        <v>43794</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="45" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="B45" s="11">
-        <v>45</v>
+        <v>54.1</v>
       </c>
       <c r="C45" s="11">
-        <v>50</v>
+        <v>60.64</v>
       </c>
       <c r="D45" s="11">
-        <v>55</v>
+        <v>74.13</v>
       </c>
       <c r="E45" s="11">
-        <v>55</v>
+        <v>75.86</v>
       </c>
       <c r="F45" s="11">
-        <v>60</v>
+        <v>84.95</v>
       </c>
       <c r="G45" s="11">
-        <v>65</v>
+        <v>92.96</v>
       </c>
       <c r="H45" s="11">
-        <v>70</v>
+        <v>101.37</v>
       </c>
       <c r="I45" s="11">
-        <v>70</v>
+        <v>109.91</v>
       </c>
       <c r="J45" s="11">
-        <v>75</v>
+        <v>118.35</v>
       </c>
       <c r="K45" s="11">
-        <v>70</v>
+        <v>118.35</v>
       </c>
       <c r="L45" s="11">
-        <v>65</v>
+        <v>118.35</v>
       </c>
       <c r="M45" s="11">
-        <v>55</v>
+        <v>118.35</v>
       </c>
       <c r="N45" s="11">
-        <v>50</v>
+        <v>118.35</v>
       </c>
       <c r="O45" s="11">
-        <v>45</v>
+        <v>118.35</v>
       </c>
       <c r="P45" s="12">
-        <v>43794</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="46" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="B46" s="11">
-        <v>20</v>
+        <v>63.86</v>
       </c>
       <c r="C46" s="11">
-        <v>25</v>
+        <v>72.8</v>
       </c>
       <c r="D46" s="11">
-        <v>25</v>
+        <v>85.39</v>
       </c>
       <c r="E46" s="11">
-        <v>25</v>
+        <v>87.81</v>
       </c>
       <c r="F46" s="11">
-        <v>30</v>
+        <v>98.12</v>
       </c>
       <c r="G46" s="11">
-        <v>30</v>
+        <v>107.72</v>
       </c>
       <c r="H46" s="11">
-        <v>30</v>
+        <v>117.16</v>
       </c>
       <c r="I46" s="11">
-        <v>35</v>
+        <v>126.19</v>
       </c>
       <c r="J46" s="11">
-        <v>35</v>
+        <v>136.78</v>
       </c>
       <c r="K46" s="11">
-        <v>35</v>
+        <v>136.78</v>
       </c>
       <c r="L46" s="11">
-        <v>30</v>
+        <v>136.78</v>
       </c>
       <c r="M46" s="11">
-        <v>25</v>
+        <v>136.78</v>
       </c>
       <c r="N46" s="11">
-        <v>20</v>
+        <v>136.78</v>
       </c>
       <c r="O46" s="11">
-        <v>20</v>
+        <v>136.78</v>
       </c>
       <c r="P46" s="12">
-        <v>43794</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="47" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="B47" s="11">
-        <v>25</v>
+        <v>31.33</v>
       </c>
       <c r="C47" s="11">
-        <v>25</v>
+        <v>34.630000000000003</v>
       </c>
       <c r="D47" s="11">
-        <v>30</v>
+        <v>40.82</v>
       </c>
       <c r="E47" s="11">
-        <v>30</v>
+        <v>41.14</v>
       </c>
       <c r="F47" s="11">
-        <v>35</v>
+        <v>46.82</v>
       </c>
       <c r="G47" s="11">
-        <v>35</v>
+        <v>51.43</v>
       </c>
       <c r="H47" s="11">
-        <v>35</v>
+        <v>56.2</v>
       </c>
       <c r="I47" s="11">
-        <v>40</v>
+        <v>60.93</v>
       </c>
       <c r="J47" s="11">
-        <v>40</v>
+        <v>64.48</v>
       </c>
       <c r="K47" s="11">
-        <v>40</v>
+        <v>64.48</v>
       </c>
       <c r="L47" s="11">
-        <v>35</v>
+        <v>64.48</v>
       </c>
       <c r="M47" s="11">
-        <v>30</v>
+        <v>64.48</v>
       </c>
       <c r="N47" s="11">
-        <v>25</v>
+        <v>64.48</v>
       </c>
       <c r="O47" s="11">
-        <v>25</v>
+        <v>64.48</v>
       </c>
       <c r="P47" s="12">
-        <v>43794</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="48" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="B48" s="11">
-        <v>25</v>
+        <v>39.659999999999997</v>
       </c>
       <c r="C48" s="11">
-        <v>25</v>
+        <v>43.97</v>
       </c>
       <c r="D48" s="11">
-        <v>30</v>
+        <v>52.74</v>
       </c>
       <c r="E48" s="11">
-        <v>30</v>
+        <v>53.06</v>
       </c>
       <c r="F48" s="11">
-        <v>35</v>
+        <v>60.53</v>
       </c>
       <c r="G48" s="11">
-        <v>35</v>
+        <v>66.489999999999995</v>
       </c>
       <c r="H48" s="11">
-        <v>35</v>
+        <v>72.86</v>
       </c>
       <c r="I48" s="11">
-        <v>40</v>
+        <v>78.709999999999994</v>
       </c>
       <c r="J48" s="11">
-        <v>40</v>
+        <v>85.1</v>
       </c>
       <c r="K48" s="11">
-        <v>40</v>
+        <v>85.1</v>
       </c>
       <c r="L48" s="11">
-        <v>35</v>
+        <v>85.1</v>
       </c>
       <c r="M48" s="11">
-        <v>30</v>
+        <v>85.1</v>
       </c>
       <c r="N48" s="11">
-        <v>25</v>
+        <v>85.1</v>
       </c>
       <c r="O48" s="11">
-        <v>25</v>
+        <v>85.1</v>
       </c>
       <c r="P48" s="12">
-        <v>43794</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="49" spans="1:16" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="B49" s="11">
-        <v>40</v>
+        <v>57.11</v>
       </c>
       <c r="C49" s="11">
-        <v>45</v>
+        <v>64.010000000000005</v>
       </c>
       <c r="D49" s="11">
-        <v>50</v>
+        <v>78.25</v>
       </c>
       <c r="E49" s="11">
-        <v>50</v>
+        <v>80.069999999999993</v>
       </c>
       <c r="F49" s="11">
-        <v>55</v>
+        <v>89.67</v>
       </c>
       <c r="G49" s="11">
-        <v>60</v>
+        <v>98.12</v>
       </c>
       <c r="H49" s="11">
-        <v>60</v>
+        <v>107.01</v>
       </c>
       <c r="I49" s="11">
-        <v>65</v>
+        <v>116.03</v>
       </c>
       <c r="J49" s="11">
-        <v>70</v>
+        <v>124.91</v>
       </c>
       <c r="K49" s="11">
-        <v>65</v>
+        <v>124.91</v>
       </c>
       <c r="L49" s="11">
-        <v>60</v>
+        <v>124.91</v>
       </c>
       <c r="M49" s="11">
-        <v>50</v>
+        <v>124.91</v>
       </c>
       <c r="N49" s="11">
-        <v>45</v>
+        <v>124.91</v>
       </c>
       <c r="O49" s="11">
-        <v>40</v>
+        <v>124.91</v>
       </c>
       <c r="P49" s="12">
-        <v>43794</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="50" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="B50" s="11">
-        <v>50</v>
+        <v>53.18</v>
       </c>
       <c r="C50" s="11">
-        <v>55</v>
+        <v>60.99</v>
       </c>
       <c r="D50" s="11">
-        <v>55</v>
+        <v>74.48</v>
       </c>
       <c r="E50" s="11">
-        <v>60</v>
+        <v>75.930000000000007</v>
       </c>
       <c r="F50" s="11">
-        <v>65</v>
+        <v>85.52</v>
       </c>
       <c r="G50" s="11">
-        <v>70</v>
+        <v>93.82</v>
       </c>
       <c r="H50" s="11">
-        <v>75</v>
+        <v>102.85</v>
       </c>
       <c r="I50" s="11">
-        <v>75</v>
+        <v>110.42</v>
       </c>
       <c r="J50" s="11">
-        <v>80</v>
+        <v>119.17</v>
       </c>
       <c r="K50" s="11">
-        <v>80</v>
+        <v>119.17</v>
       </c>
       <c r="L50" s="11">
-        <v>70</v>
+        <v>119.17</v>
       </c>
       <c r="M50" s="11">
-        <v>60</v>
+        <v>119.17</v>
       </c>
       <c r="N50" s="11">
-        <v>50</v>
+        <v>119.17</v>
       </c>
       <c r="O50" s="11">
-        <v>50</v>
+        <v>119.17</v>
       </c>
       <c r="P50" s="12">
-        <v>43794</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="51" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="B51" s="11">
-        <v>40</v>
+        <v>64.91</v>
       </c>
       <c r="C51" s="11">
-        <v>45</v>
+        <v>72.97</v>
       </c>
       <c r="D51" s="11">
-        <v>45</v>
+        <v>89.35</v>
       </c>
       <c r="E51" s="11">
-        <v>50</v>
+        <v>91.55</v>
       </c>
       <c r="F51" s="11">
-        <v>55</v>
+        <v>102.57</v>
       </c>
       <c r="G51" s="11">
-        <v>55</v>
+        <v>112.31</v>
       </c>
       <c r="H51" s="11">
-        <v>60</v>
+        <v>122.47</v>
       </c>
       <c r="I51" s="11">
-        <v>60</v>
+        <v>132.09</v>
       </c>
       <c r="J51" s="11">
-        <v>65</v>
+        <v>142.66</v>
       </c>
       <c r="K51" s="11">
-        <v>60</v>
+        <v>142.66</v>
       </c>
       <c r="L51" s="11">
-        <v>60</v>
+        <v>142.66</v>
       </c>
       <c r="M51" s="11">
-        <v>50</v>
+        <v>142.66</v>
       </c>
       <c r="N51" s="11">
-        <v>40</v>
+        <v>142.66</v>
       </c>
       <c r="O51" s="11">
-        <v>40</v>
+        <v>142.66</v>
       </c>
       <c r="P51" s="12">
-        <v>43794</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="52" spans="1:16" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="B52" s="11">
-        <v>40</v>
+        <v>33.78</v>
       </c>
       <c r="C52" s="11">
-        <v>40</v>
+        <v>37.229999999999997</v>
       </c>
       <c r="D52" s="11">
-        <v>45</v>
+        <v>43.83</v>
       </c>
       <c r="E52" s="11">
-        <v>50</v>
+        <v>44.64</v>
       </c>
       <c r="F52" s="11">
-        <v>55</v>
+        <v>50.76</v>
       </c>
       <c r="G52" s="11">
-        <v>55</v>
+        <v>55.93</v>
       </c>
       <c r="H52" s="11">
-        <v>60</v>
+        <v>60.93</v>
       </c>
       <c r="I52" s="11">
-        <v>60</v>
+        <v>66.12</v>
       </c>
       <c r="J52" s="11">
-        <v>65</v>
+        <v>71.66</v>
       </c>
       <c r="K52" s="11">
-        <v>60</v>
+        <v>71.66</v>
       </c>
       <c r="L52" s="11">
-        <v>55</v>
+        <v>71.66</v>
       </c>
       <c r="M52" s="11">
-        <v>45</v>
+        <v>71.66</v>
       </c>
       <c r="N52" s="11">
-        <v>40</v>
+        <v>71.66</v>
       </c>
       <c r="O52" s="11">
-        <v>40</v>
+        <v>71.66</v>
       </c>
       <c r="P52" s="12">
-        <v>43794</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="53" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="B53" s="11">
-        <v>25</v>
+        <v>19.059999999999999</v>
       </c>
       <c r="C53" s="11">
-        <v>30</v>
+        <v>20.81</v>
       </c>
       <c r="D53" s="11">
-        <v>30</v>
+        <v>23.76</v>
       </c>
       <c r="E53" s="11">
-        <v>30</v>
+        <v>25.45</v>
       </c>
       <c r="F53" s="11">
-        <v>35</v>
+        <v>29.12</v>
       </c>
       <c r="G53" s="11">
-        <v>35</v>
+        <v>32.08</v>
       </c>
       <c r="H53" s="11">
-        <v>40</v>
+        <v>35.03</v>
       </c>
       <c r="I53" s="11">
-        <v>40</v>
+        <v>38.26</v>
       </c>
       <c r="J53" s="11">
-        <v>40</v>
+        <v>41.51</v>
       </c>
       <c r="K53" s="11">
-        <v>40</v>
+        <v>41.51</v>
       </c>
       <c r="L53" s="11">
-        <v>35</v>
+        <v>41.51</v>
       </c>
       <c r="M53" s="11">
-        <v>30</v>
+        <v>41.51</v>
       </c>
       <c r="N53" s="11">
-        <v>25</v>
+        <v>41.51</v>
       </c>
       <c r="O53" s="11">
-        <v>25</v>
+        <v>41.51</v>
       </c>
       <c r="P53" s="12">
-        <v>43794</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="54" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="B54" s="11">
-        <v>35</v>
+        <v>46.87</v>
       </c>
       <c r="C54" s="11">
-        <v>40</v>
+        <v>52.07</v>
       </c>
       <c r="D54" s="11">
-        <v>45</v>
+        <v>63.26</v>
       </c>
       <c r="E54" s="11">
-        <v>45</v>
+        <v>64.459999999999994</v>
       </c>
       <c r="F54" s="11">
-        <v>50</v>
+        <v>72.47</v>
       </c>
       <c r="G54" s="11">
-        <v>55</v>
+        <v>79.48</v>
       </c>
       <c r="H54" s="11">
-        <v>55</v>
+        <v>86.97</v>
       </c>
       <c r="I54" s="11">
-        <v>60</v>
+        <v>93.82</v>
       </c>
       <c r="J54" s="11">
-        <v>60</v>
+        <v>101.7</v>
       </c>
       <c r="K54" s="11">
-        <v>60</v>
+        <v>101.7</v>
       </c>
       <c r="L54" s="11">
-        <v>55</v>
+        <v>101.7</v>
       </c>
       <c r="M54" s="11">
-        <v>45</v>
+        <v>101.7</v>
       </c>
       <c r="N54" s="11">
-        <v>40</v>
+        <v>101.7</v>
       </c>
       <c r="O54" s="11">
-        <v>35</v>
+        <v>101.7</v>
       </c>
       <c r="P54" s="12">
-        <v>43794</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="55" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="B55" s="11">
-        <v>40</v>
+        <v>52.11</v>
       </c>
       <c r="C55" s="11">
-        <v>45</v>
+        <v>58.26</v>
       </c>
       <c r="D55" s="11">
-        <v>45</v>
+        <v>70.680000000000007</v>
       </c>
       <c r="E55" s="11">
-        <v>50</v>
+        <v>72.34</v>
       </c>
       <c r="F55" s="11">
-        <v>55</v>
+        <v>81.209999999999994</v>
       </c>
       <c r="G55" s="11">
-        <v>55</v>
+        <v>88.95</v>
       </c>
       <c r="H55" s="11">
-        <v>60</v>
+        <v>96.98</v>
       </c>
       <c r="I55" s="11">
-        <v>60</v>
+        <v>104.86</v>
       </c>
       <c r="J55" s="11">
-        <v>65</v>
+        <v>113.17</v>
       </c>
       <c r="K55" s="11">
-        <v>60</v>
+        <v>113.17</v>
       </c>
       <c r="L55" s="11">
-        <v>60</v>
+        <v>113.17</v>
       </c>
       <c r="M55" s="11">
-        <v>50</v>
+        <v>113.17</v>
       </c>
       <c r="N55" s="11">
-        <v>40</v>
+        <v>113.17</v>
       </c>
       <c r="O55" s="11">
-        <v>40</v>
+        <v>113.17</v>
       </c>
       <c r="P55" s="12">
-        <v>43794</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="56" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="B56" s="11">
-        <v>25</v>
+        <v>34.04</v>
       </c>
       <c r="C56" s="11">
-        <v>25</v>
+        <v>37.450000000000003</v>
       </c>
       <c r="D56" s="11">
-        <v>30</v>
+        <v>44.28</v>
       </c>
       <c r="E56" s="11">
-        <v>30</v>
+        <v>44.69</v>
       </c>
       <c r="F56" s="11">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="G56" s="11">
-        <v>35</v>
+        <v>56.01</v>
       </c>
       <c r="H56" s="11">
-        <v>35</v>
+        <v>61.18</v>
       </c>
       <c r="I56" s="11">
-        <v>40</v>
+        <v>66.47</v>
       </c>
       <c r="J56" s="11">
-        <v>40</v>
+        <v>72.040000000000006</v>
       </c>
       <c r="K56" s="11">
-        <v>40</v>
+        <v>72.040000000000006</v>
       </c>
       <c r="L56" s="11">
-        <v>35</v>
+        <v>72.040000000000006</v>
       </c>
       <c r="M56" s="11">
-        <v>30</v>
+        <v>72.040000000000006</v>
       </c>
       <c r="N56" s="11">
-        <v>25</v>
+        <v>72.040000000000006</v>
       </c>
       <c r="O56" s="11">
-        <v>25</v>
+        <v>72.040000000000006</v>
       </c>
       <c r="P56" s="12">
-        <v>43794</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="57" spans="1:16" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="B57" s="11">
-        <v>25</v>
+        <v>49.37</v>
       </c>
       <c r="C57" s="11">
-        <v>30</v>
+        <v>55.18</v>
       </c>
       <c r="D57" s="11">
-        <v>30</v>
+        <v>66.959999999999994</v>
       </c>
       <c r="E57" s="11">
-        <v>35</v>
+        <v>68.540000000000006</v>
       </c>
       <c r="F57" s="11">
-        <v>35</v>
+        <v>769.43</v>
       </c>
       <c r="G57" s="11">
-        <v>40</v>
+        <v>84.27</v>
       </c>
       <c r="H57" s="11">
-        <v>40</v>
+        <v>91.88</v>
       </c>
       <c r="I57" s="11">
-        <v>40</v>
+        <v>99.34</v>
       </c>
       <c r="J57" s="11">
-        <v>45</v>
+        <v>107.21</v>
       </c>
       <c r="K57" s="11">
-        <v>40</v>
+        <v>107.21</v>
       </c>
       <c r="L57" s="11">
-        <v>40</v>
+        <v>107.21</v>
       </c>
       <c r="M57" s="11">
-        <v>30</v>
+        <v>107.21</v>
       </c>
       <c r="N57" s="11">
-        <v>30</v>
+        <v>107.21</v>
       </c>
       <c r="O57" s="11">
-        <v>25</v>
+        <v>107.21</v>
       </c>
       <c r="P57" s="12">
-        <v>43794</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="58" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="B58" s="11">
-        <v>35</v>
+        <v>52.11</v>
       </c>
       <c r="C58" s="11">
-        <v>40</v>
+        <v>58.26</v>
       </c>
       <c r="D58" s="11">
-        <v>45</v>
+        <v>70.680000000000007</v>
       </c>
       <c r="E58" s="11">
-        <v>50</v>
+        <v>72.34</v>
       </c>
       <c r="F58" s="11">
-        <v>50</v>
+        <v>81.209999999999994</v>
       </c>
       <c r="G58" s="11">
-        <v>55</v>
+        <v>88.95</v>
       </c>
       <c r="H58" s="11">
-        <v>55</v>
+        <v>96.98</v>
       </c>
       <c r="I58" s="11">
-        <v>60</v>
+        <v>104.86</v>
       </c>
       <c r="J58" s="11">
-        <v>65</v>
+        <v>113.17</v>
       </c>
       <c r="K58" s="11">
-        <v>60</v>
+        <v>113.17</v>
       </c>
       <c r="L58" s="11">
-        <v>55</v>
+        <v>113.17</v>
       </c>
       <c r="M58" s="11">
-        <v>45</v>
+        <v>113.17</v>
       </c>
       <c r="N58" s="11">
-        <v>40</v>
+        <v>113.17</v>
       </c>
       <c r="O58" s="11">
-        <v>35</v>
+        <v>113.17</v>
       </c>
       <c r="P58" s="12">
-        <v>43794</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="59" spans="1:16" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="B59" s="11">
-        <v>35</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="C59" s="11">
-        <v>40</v>
+        <v>38.35</v>
       </c>
       <c r="D59" s="11">
-        <v>45</v>
+        <v>45.55</v>
       </c>
       <c r="E59" s="11">
-        <v>45</v>
+        <v>46.14</v>
       </c>
       <c r="F59" s="11">
-        <v>50</v>
+        <v>52.4</v>
       </c>
       <c r="G59" s="11">
-        <v>55</v>
+        <v>57.8</v>
       </c>
       <c r="H59" s="11">
-        <v>55</v>
+        <v>62.83</v>
       </c>
       <c r="I59" s="11">
-        <v>60</v>
+        <v>68.25</v>
       </c>
       <c r="J59" s="11">
-        <v>60</v>
+        <v>73.95</v>
       </c>
       <c r="K59" s="11">
-        <v>60</v>
+        <v>73.95</v>
       </c>
       <c r="L59" s="11">
-        <v>55</v>
+        <v>73.95</v>
       </c>
       <c r="M59" s="11">
-        <v>45</v>
+        <v>73.95</v>
       </c>
       <c r="N59" s="11">
-        <v>40</v>
+        <v>73.95</v>
       </c>
       <c r="O59" s="11">
-        <v>35</v>
+        <v>73.95</v>
       </c>
       <c r="P59" s="12">
-        <v>43794</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="60" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="B60" s="11">
-        <v>40</v>
+        <v>50.37</v>
       </c>
       <c r="C60" s="11">
-        <v>45</v>
+        <v>57.79</v>
       </c>
       <c r="D60" s="11">
-        <v>50</v>
+        <v>70.55</v>
       </c>
       <c r="E60" s="11">
-        <v>50</v>
+        <v>71.930000000000007</v>
       </c>
       <c r="F60" s="11">
-        <v>55</v>
+        <v>81.02</v>
       </c>
       <c r="G60" s="11">
-        <v>60</v>
+        <v>88.89</v>
       </c>
       <c r="H60" s="11">
-        <v>60</v>
+        <v>97.44</v>
       </c>
       <c r="I60" s="11">
-        <v>65</v>
+        <v>104.63</v>
       </c>
       <c r="J60" s="11">
-        <v>70</v>
+        <v>112.9</v>
       </c>
       <c r="K60" s="11">
-        <v>65</v>
+        <v>112.9</v>
       </c>
       <c r="L60" s="11">
-        <v>60</v>
+        <v>112.9</v>
       </c>
       <c r="M60" s="11">
-        <v>50</v>
+        <v>112.9</v>
       </c>
       <c r="N60" s="11">
-        <v>45</v>
+        <v>112.9</v>
       </c>
       <c r="O60" s="11">
-        <v>40</v>
+        <v>112.9</v>
       </c>
       <c r="P60" s="12">
-        <v>43794</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="61" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="B61" s="11">
-        <v>25</v>
+        <v>43.15</v>
       </c>
       <c r="C61" s="11">
-        <v>25</v>
+        <v>47.93</v>
       </c>
       <c r="D61" s="11">
-        <v>25</v>
+        <v>58.26</v>
       </c>
       <c r="E61" s="11">
-        <v>30</v>
+        <v>59.32</v>
       </c>
       <c r="F61" s="11">
-        <v>30</v>
+        <v>66.900000000000006</v>
       </c>
       <c r="G61" s="11">
-        <v>35</v>
+        <v>73.19</v>
       </c>
       <c r="H61" s="11">
-        <v>35</v>
+        <v>80.069999999999993</v>
       </c>
       <c r="I61" s="11">
-        <v>35</v>
+        <v>86.09</v>
       </c>
       <c r="J61" s="11">
-        <v>40</v>
+        <v>93.39</v>
       </c>
       <c r="K61" s="11">
-        <v>35</v>
+        <v>93.39</v>
       </c>
       <c r="L61" s="11">
-        <v>35</v>
+        <v>93.39</v>
       </c>
       <c r="M61" s="11">
-        <v>30</v>
+        <v>93.39</v>
       </c>
       <c r="N61" s="11">
-        <v>25</v>
+        <v>93.39</v>
       </c>
       <c r="O61" s="11">
-        <v>25</v>
+        <v>93.39</v>
       </c>
       <c r="P61" s="12">
-        <v>43794</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="62" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="B62" s="11">
-        <v>20</v>
+        <v>36.28</v>
       </c>
       <c r="C62" s="11">
-        <v>20</v>
+        <v>40.08</v>
       </c>
       <c r="D62" s="11">
-        <v>20</v>
+        <v>48.29</v>
       </c>
       <c r="E62" s="11">
-        <v>25</v>
+        <v>48.72</v>
       </c>
       <c r="F62" s="11">
-        <v>25</v>
+        <v>55.23</v>
       </c>
       <c r="G62" s="11">
-        <v>25</v>
+        <v>60.67</v>
       </c>
       <c r="H62" s="11">
-        <v>25</v>
+        <v>66.209999999999994</v>
       </c>
       <c r="I62" s="11">
-        <v>30</v>
+        <v>71.790000000000006</v>
       </c>
       <c r="J62" s="11">
-        <v>30</v>
+        <v>77.34</v>
       </c>
       <c r="K62" s="11">
-        <v>30</v>
+        <v>77.34</v>
       </c>
       <c r="L62" s="11">
-        <v>25</v>
+        <v>77.34</v>
       </c>
       <c r="M62" s="11">
-        <v>20</v>
+        <v>77.34</v>
       </c>
       <c r="N62" s="11">
-        <v>20</v>
+        <v>77.34</v>
       </c>
       <c r="O62" s="11">
-        <v>20</v>
+        <v>77.34</v>
       </c>
       <c r="P62" s="12">
-        <v>43794</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="63" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="B63" s="11">
-        <v>20</v>
+        <v>41.86</v>
       </c>
       <c r="C63" s="11">
-        <v>25</v>
+        <v>46.42</v>
       </c>
       <c r="D63" s="11">
-        <v>25</v>
+        <v>55.67</v>
       </c>
       <c r="E63" s="11">
-        <v>25</v>
+        <v>56.01</v>
       </c>
       <c r="F63" s="11">
-        <v>30</v>
+        <v>63.88</v>
       </c>
       <c r="G63" s="11">
-        <v>30</v>
+        <v>70.2</v>
       </c>
       <c r="H63" s="11">
-        <v>30</v>
+        <v>76.91</v>
       </c>
       <c r="I63" s="11">
-        <v>35</v>
+        <v>83.06</v>
       </c>
       <c r="J63" s="11">
-        <v>35</v>
+        <v>89.82</v>
       </c>
       <c r="K63" s="11">
-        <v>35</v>
+        <v>89.82</v>
       </c>
       <c r="L63" s="11">
-        <v>30</v>
+        <v>89.82</v>
       </c>
       <c r="M63" s="11">
-        <v>25</v>
+        <v>89.82</v>
       </c>
       <c r="N63" s="11">
-        <v>25</v>
+        <v>89.82</v>
       </c>
       <c r="O63" s="11">
-        <v>20</v>
+        <v>89.82</v>
       </c>
       <c r="P63" s="12">
-        <v>43794</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="64" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="B64" s="11">
-        <v>30</v>
+        <v>26.09</v>
       </c>
       <c r="C64" s="11">
-        <v>35</v>
+        <v>28.18</v>
       </c>
       <c r="D64" s="11">
-        <v>35</v>
+        <v>33.17</v>
       </c>
       <c r="E64" s="11">
-        <v>40</v>
+        <v>35.39</v>
       </c>
       <c r="F64" s="11">
-        <v>40</v>
+        <v>40.51</v>
       </c>
       <c r="G64" s="11">
-        <v>45</v>
+        <v>44.67</v>
       </c>
       <c r="H64" s="11">
-        <v>45</v>
+        <v>48.99</v>
       </c>
       <c r="I64" s="11">
-        <v>45</v>
+        <v>53.32</v>
       </c>
       <c r="J64" s="11">
-        <v>50</v>
+        <v>57.81</v>
       </c>
       <c r="K64" s="11">
-        <v>50</v>
+        <v>57.81</v>
       </c>
       <c r="L64" s="11">
-        <v>45</v>
+        <v>57.81</v>
       </c>
       <c r="M64" s="11">
-        <v>35</v>
+        <v>57.81</v>
       </c>
       <c r="N64" s="11">
-        <v>30</v>
+        <v>57.81</v>
       </c>
       <c r="O64" s="11">
-        <v>30</v>
+        <v>57.81</v>
       </c>
       <c r="P64" s="12">
-        <v>43794</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="65" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="10" t="s">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="B65" s="11">
-        <v>35</v>
+        <v>41.97</v>
       </c>
       <c r="C65" s="11">
-        <v>40</v>
+        <v>46.72</v>
       </c>
       <c r="D65" s="11">
-        <v>40</v>
+        <v>56.32</v>
       </c>
       <c r="E65" s="11">
-        <v>45</v>
+        <v>57.26</v>
       </c>
       <c r="F65" s="11">
-        <v>45</v>
+        <v>64.59</v>
       </c>
       <c r="G65" s="11">
-        <v>50</v>
+        <v>70.98</v>
       </c>
       <c r="H65" s="11">
-        <v>50</v>
+        <v>77.34</v>
       </c>
       <c r="I65" s="11">
-        <v>55</v>
+        <v>83.99</v>
       </c>
       <c r="J65" s="11">
-        <v>60</v>
+        <v>90.39</v>
       </c>
       <c r="K65" s="11">
-        <v>55</v>
+        <v>90.39</v>
       </c>
       <c r="L65" s="11">
-        <v>50</v>
+        <v>90.39</v>
       </c>
       <c r="M65" s="11">
-        <v>40</v>
+        <v>90.39</v>
       </c>
       <c r="N65" s="11">
-        <v>35</v>
+        <v>90.39</v>
       </c>
       <c r="O65" s="11">
-        <v>35</v>
+        <v>90.39</v>
       </c>
       <c r="P65" s="12">
-        <v>43794</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="66" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="B66" s="11">
-        <v>20</v>
+        <v>50.37</v>
       </c>
       <c r="C66" s="11">
-        <v>25</v>
+        <v>57.79</v>
       </c>
       <c r="D66" s="11">
-        <v>25</v>
+        <v>70.55</v>
       </c>
       <c r="E66" s="11">
-        <v>25</v>
+        <v>71.930000000000007</v>
       </c>
       <c r="F66" s="11">
-        <v>30</v>
+        <v>81.02</v>
       </c>
       <c r="G66" s="11">
-        <v>30</v>
+        <v>88.89</v>
       </c>
       <c r="H66" s="11">
-        <v>30</v>
+        <v>97.44</v>
       </c>
       <c r="I66" s="11">
-        <v>35</v>
+        <v>104.63</v>
       </c>
       <c r="J66" s="11">
-        <v>35</v>
+        <v>112.9</v>
       </c>
       <c r="K66" s="11">
-        <v>35</v>
+        <v>112.9</v>
       </c>
       <c r="L66" s="11">
-        <v>30</v>
+        <v>112.9</v>
       </c>
       <c r="M66" s="11">
-        <v>25</v>
+        <v>112.9</v>
       </c>
       <c r="N66" s="11">
-        <v>20</v>
+        <v>112.9</v>
       </c>
       <c r="O66" s="11">
-        <v>20</v>
+        <v>112.9</v>
       </c>
       <c r="P66" s="12">
-        <v>43794</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="67" spans="1:16" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="B67" s="11">
-        <v>35</v>
+        <v>56.77</v>
       </c>
       <c r="C67" s="11">
-        <v>35</v>
+        <v>63.51</v>
       </c>
       <c r="D67" s="11">
-        <v>40</v>
+        <v>77.760000000000005</v>
       </c>
       <c r="E67" s="11">
-        <v>45</v>
+        <v>79.53</v>
       </c>
       <c r="F67" s="11">
-        <v>45</v>
+        <v>88.89</v>
       </c>
       <c r="G67" s="11">
-        <v>50</v>
+        <v>97.84</v>
       </c>
       <c r="H67" s="11">
-        <v>50</v>
+        <v>106.4</v>
       </c>
       <c r="I67" s="11">
-        <v>55</v>
+        <v>114.82</v>
       </c>
       <c r="J67" s="11">
-        <v>55</v>
+        <v>124.15</v>
       </c>
       <c r="K67" s="11">
-        <v>55</v>
+        <v>124.15</v>
       </c>
       <c r="L67" s="11">
-        <v>50</v>
+        <v>124.15</v>
       </c>
       <c r="M67" s="11">
-        <v>40</v>
+        <v>124.15</v>
       </c>
       <c r="N67" s="11">
-        <v>35</v>
+        <v>124.15</v>
       </c>
       <c r="O67" s="11">
-        <v>35</v>
+        <v>124.15</v>
       </c>
       <c r="P67" s="12">
-        <v>43794</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="68" spans="1:16" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="B68" s="11">
-        <v>35</v>
+        <v>62.42</v>
       </c>
       <c r="C68" s="11">
-        <v>40</v>
+        <v>69.930000000000007</v>
       </c>
       <c r="D68" s="11">
-        <v>40</v>
+        <v>85.39</v>
       </c>
       <c r="E68" s="11">
-        <v>45</v>
+        <v>87.81</v>
       </c>
       <c r="F68" s="11">
-        <v>50</v>
+        <v>98.12</v>
       </c>
       <c r="G68" s="11">
-        <v>50</v>
+        <v>107.72</v>
       </c>
       <c r="H68" s="11">
-        <v>55</v>
+        <v>117.16</v>
       </c>
       <c r="I68" s="11">
-        <v>55</v>
+        <v>126.93</v>
       </c>
       <c r="J68" s="11">
-        <v>60</v>
+        <v>136.78</v>
       </c>
       <c r="K68" s="11">
-        <v>55</v>
+        <v>136.78</v>
       </c>
       <c r="L68" s="11">
-        <v>50</v>
+        <v>136.78</v>
       </c>
       <c r="M68" s="11">
-        <v>45</v>
+        <v>136.78</v>
       </c>
       <c r="N68" s="11">
-        <v>35</v>
+        <v>136.78</v>
       </c>
       <c r="O68" s="11">
-        <v>35</v>
+        <v>136.78</v>
       </c>
       <c r="P68" s="12">
-        <v>43794</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="69" spans="1:16" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="10" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="B69" s="11">
-        <v>25</v>
+        <v>63.95</v>
       </c>
       <c r="C69" s="11">
-        <v>30</v>
+        <v>71.69</v>
       </c>
       <c r="D69" s="11">
-        <v>30</v>
+        <v>88.22</v>
       </c>
       <c r="E69" s="11">
-        <v>35</v>
+        <v>90.09</v>
       </c>
       <c r="F69" s="11">
-        <v>35</v>
+        <v>101.12</v>
       </c>
       <c r="G69" s="11">
-        <v>40</v>
+        <v>110.98</v>
       </c>
       <c r="H69" s="11">
-        <v>40</v>
+        <v>120.77</v>
       </c>
       <c r="I69" s="11">
-        <v>40</v>
+        <v>130.54</v>
       </c>
       <c r="J69" s="11">
-        <v>45</v>
+        <v>140.6</v>
       </c>
       <c r="K69" s="11">
-        <v>40</v>
+        <v>140.6</v>
       </c>
       <c r="L69" s="11">
-        <v>40</v>
+        <v>140.6</v>
       </c>
       <c r="M69" s="11">
-        <v>30</v>
+        <v>140.6</v>
       </c>
       <c r="N69" s="11">
-        <v>30</v>
+        <v>140.6</v>
       </c>
       <c r="O69" s="11">
-        <v>25</v>
+        <v>140.6</v>
       </c>
       <c r="P69" s="12">
-        <v>43794</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="70" spans="1:16" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="10" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="B70" s="11">
-        <v>30</v>
+        <v>48.35</v>
       </c>
       <c r="C70" s="11">
-        <v>35</v>
+        <v>53.88</v>
       </c>
       <c r="D70" s="11">
-        <v>35</v>
+        <v>65.52</v>
       </c>
       <c r="E70" s="11">
-        <v>40</v>
+        <v>67.180000000000007</v>
       </c>
       <c r="F70" s="11">
-        <v>45</v>
+        <v>75.459999999999994</v>
       </c>
       <c r="G70" s="11">
-        <v>45</v>
+        <v>82.66</v>
       </c>
       <c r="H70" s="11">
-        <v>45</v>
+        <v>90.23</v>
       </c>
       <c r="I70" s="11">
-        <v>50</v>
+        <v>97.44</v>
       </c>
       <c r="J70" s="11">
-        <v>50</v>
+        <v>106.13</v>
       </c>
       <c r="K70" s="11">
-        <v>50</v>
+        <v>106.13</v>
       </c>
       <c r="L70" s="11">
-        <v>45</v>
+        <v>106.13</v>
       </c>
       <c r="M70" s="11">
-        <v>40</v>
+        <v>106.13</v>
       </c>
       <c r="N70" s="11">
-        <v>35</v>
+        <v>106.13</v>
       </c>
       <c r="O70" s="11">
-        <v>30</v>
+        <v>106.13</v>
       </c>
       <c r="P70" s="12">
-        <v>43794</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="71" spans="1:16" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="10" t="s">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="B71" s="11">
-        <v>35</v>
+        <v>54.1</v>
       </c>
       <c r="C71" s="11">
-        <v>35</v>
+        <v>60.64</v>
       </c>
       <c r="D71" s="11">
-        <v>40</v>
+        <v>74.13</v>
       </c>
       <c r="E71" s="11">
-        <v>45</v>
+        <v>75.86</v>
       </c>
       <c r="F71" s="11">
-        <v>45</v>
+        <v>84.95</v>
       </c>
       <c r="G71" s="11">
-        <v>50</v>
+        <v>92.96</v>
       </c>
       <c r="H71" s="11">
-        <v>50</v>
+        <v>101.37</v>
       </c>
       <c r="I71" s="11">
-        <v>55</v>
+        <v>109.91</v>
       </c>
       <c r="J71" s="11">
-        <v>60</v>
+        <v>118.35</v>
       </c>
       <c r="K71" s="11">
-        <v>55</v>
+        <v>118.35</v>
       </c>
       <c r="L71" s="11">
-        <v>50</v>
+        <v>118.35</v>
       </c>
       <c r="M71" s="11">
-        <v>40</v>
+        <v>118.35</v>
       </c>
       <c r="N71" s="11">
-        <v>35</v>
+        <v>118.35</v>
       </c>
       <c r="O71" s="11">
-        <v>35</v>
+        <v>118.35</v>
       </c>
       <c r="P71" s="12">
-        <v>43794</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="72" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="B72" s="11">
-        <v>30</v>
+        <v>47.26</v>
       </c>
       <c r="C72" s="11">
-        <v>30</v>
+        <v>52.58</v>
       </c>
       <c r="D72" s="11">
-        <v>35</v>
+        <v>64.23</v>
       </c>
       <c r="E72" s="11">
-        <v>35</v>
+        <v>65.69</v>
       </c>
       <c r="F72" s="11">
-        <v>40</v>
+        <v>73.83</v>
       </c>
       <c r="G72" s="11">
-        <v>40</v>
+        <v>80.72</v>
       </c>
       <c r="H72" s="11">
-        <v>45</v>
+        <v>88.07</v>
       </c>
       <c r="I72" s="11">
-        <v>45</v>
+        <v>95.27</v>
       </c>
       <c r="J72" s="11">
-        <v>45</v>
+        <v>102.74</v>
       </c>
       <c r="K72" s="11">
-        <v>45</v>
+        <v>102.74</v>
       </c>
       <c r="L72" s="11">
-        <v>40</v>
+        <v>102.74</v>
       </c>
       <c r="M72" s="11">
-        <v>35</v>
+        <v>102.74</v>
       </c>
       <c r="N72" s="11">
-        <v>30</v>
+        <v>102.74</v>
       </c>
       <c r="O72" s="11">
-        <v>30</v>
+        <v>102.74</v>
       </c>
       <c r="P72" s="12">
-        <v>43794</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="73" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="10" t="s">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="B73" s="11">
-        <v>30</v>
+        <v>53.18</v>
       </c>
       <c r="C73" s="11">
-        <v>35</v>
+        <v>60.99</v>
       </c>
       <c r="D73" s="11">
-        <v>35</v>
+        <v>74.48</v>
       </c>
       <c r="E73" s="11">
-        <v>40</v>
+        <v>75.930000000000007</v>
       </c>
       <c r="F73" s="11">
-        <v>40</v>
+        <v>85.52</v>
       </c>
       <c r="G73" s="11">
-        <v>45</v>
+        <v>93.82</v>
       </c>
       <c r="H73" s="11">
-        <v>45</v>
+        <v>102.85</v>
       </c>
       <c r="I73" s="11">
-        <v>50</v>
+        <v>110.42</v>
       </c>
       <c r="J73" s="11">
-        <v>50</v>
+        <v>119.17</v>
       </c>
       <c r="K73" s="11">
-        <v>50</v>
+        <v>119.17</v>
       </c>
       <c r="L73" s="11">
-        <v>45</v>
+        <v>119.17</v>
       </c>
       <c r="M73" s="11">
-        <v>40</v>
+        <v>119.17</v>
       </c>
       <c r="N73" s="11">
-        <v>35</v>
+        <v>119.17</v>
       </c>
       <c r="O73" s="11">
-        <v>30</v>
+        <v>119.17</v>
       </c>
       <c r="P73" s="12">
-        <v>43794</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="74" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
-        <v>71</v>
+        <v>103</v>
       </c>
       <c r="B74" s="11">
-        <v>20</v>
+        <v>52.11</v>
       </c>
       <c r="C74" s="11">
-        <v>25</v>
+        <v>58.26</v>
       </c>
       <c r="D74" s="11">
-        <v>25</v>
+        <v>70.680000000000007</v>
       </c>
       <c r="E74" s="11">
-        <v>30</v>
+        <v>72.34</v>
       </c>
       <c r="F74" s="11">
-        <v>30</v>
+        <v>81.209999999999994</v>
       </c>
       <c r="G74" s="11">
-        <v>35</v>
+        <v>88.95</v>
       </c>
       <c r="H74" s="11">
-        <v>35</v>
+        <v>96.98</v>
       </c>
       <c r="I74" s="11">
-        <v>35</v>
+        <v>104.86</v>
       </c>
       <c r="J74" s="11">
-        <v>40</v>
+        <v>113.17</v>
       </c>
       <c r="K74" s="11">
-        <v>35</v>
+        <v>113.17</v>
       </c>
       <c r="L74" s="11">
-        <v>35</v>
+        <v>113.17</v>
       </c>
       <c r="M74" s="11">
-        <v>30</v>
+        <v>113.17</v>
       </c>
       <c r="N74" s="11">
-        <v>25</v>
+        <v>113.17</v>
       </c>
       <c r="O74" s="11">
-        <v>20</v>
+        <v>113.17</v>
       </c>
       <c r="P74" s="12">
-        <v>43794</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="75" spans="1:16" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="10" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="B75" s="11">
-        <v>25</v>
+        <v>29.49</v>
       </c>
       <c r="C75" s="11">
-        <v>25</v>
+        <v>32.47</v>
       </c>
       <c r="D75" s="11">
-        <v>25</v>
+        <v>38.53</v>
       </c>
       <c r="E75" s="11">
-        <v>30</v>
+        <v>38.82</v>
       </c>
       <c r="F75" s="11">
-        <v>30</v>
+        <v>44.4</v>
       </c>
       <c r="G75" s="11">
-        <v>35</v>
+        <v>47.71</v>
       </c>
       <c r="H75" s="11">
-        <v>35</v>
+        <v>52.28</v>
       </c>
       <c r="I75" s="11">
-        <v>35</v>
+        <v>56.58</v>
       </c>
       <c r="J75" s="11">
-        <v>40</v>
+        <v>59.43</v>
       </c>
       <c r="K75" s="11">
-        <v>35</v>
+        <v>59.43</v>
       </c>
       <c r="L75" s="11">
-        <v>35</v>
+        <v>59.43</v>
       </c>
       <c r="M75" s="11">
-        <v>30</v>
+        <v>59.43</v>
       </c>
       <c r="N75" s="11">
-        <v>25</v>
+        <v>59.43</v>
       </c>
       <c r="O75" s="11">
-        <v>25</v>
+        <v>59.43</v>
       </c>
       <c r="P75" s="12">
-        <v>43794</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="76" spans="1:16" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="B76" s="11">
-        <v>25</v>
+        <v>56.77</v>
       </c>
       <c r="C76" s="11">
-        <v>30</v>
+        <v>63.51</v>
       </c>
       <c r="D76" s="11">
-        <v>30</v>
+        <v>77.760000000000005</v>
       </c>
       <c r="E76" s="11">
-        <v>35</v>
+        <v>79.53</v>
       </c>
       <c r="F76" s="11">
-        <v>40</v>
+        <v>88.89</v>
       </c>
       <c r="G76" s="11">
-        <v>40</v>
+        <v>97.84</v>
       </c>
       <c r="H76" s="11">
-        <v>40</v>
+        <v>106.4</v>
       </c>
       <c r="I76" s="11">
-        <v>45</v>
+        <v>114.82</v>
       </c>
       <c r="J76" s="11">
-        <v>45</v>
+        <v>124.15</v>
       </c>
       <c r="K76" s="11">
-        <v>45</v>
+        <v>124.15</v>
       </c>
       <c r="L76" s="11">
-        <v>40</v>
+        <v>124.15</v>
       </c>
       <c r="M76" s="11">
-        <v>35</v>
+        <v>124.15</v>
       </c>
       <c r="N76" s="11">
-        <v>30</v>
+        <v>124.15</v>
       </c>
       <c r="O76" s="11">
-        <v>25</v>
+        <v>124.15</v>
       </c>
       <c r="P76" s="12">
-        <v>43794</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="77" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="10" t="s">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="B77" s="11">
-        <v>35</v>
+        <v>59.92</v>
       </c>
       <c r="C77" s="11">
-        <v>40</v>
+        <v>67.05</v>
       </c>
       <c r="D77" s="11">
-        <v>40</v>
+        <v>82.08</v>
       </c>
       <c r="E77" s="11">
-        <v>45</v>
+        <v>83.95</v>
       </c>
       <c r="F77" s="11">
-        <v>50</v>
+        <v>93.82</v>
       </c>
       <c r="G77" s="11">
-        <v>50</v>
+        <v>103.27</v>
       </c>
       <c r="H77" s="11">
-        <v>55</v>
+        <v>112.31</v>
       </c>
       <c r="I77" s="11">
-        <v>55</v>
+        <v>121.2</v>
       </c>
       <c r="J77" s="11">
-        <v>60</v>
+        <v>131.04</v>
       </c>
       <c r="K77" s="11">
-        <v>55</v>
+        <v>131.04</v>
       </c>
       <c r="L77" s="11">
-        <v>50</v>
+        <v>131.04</v>
       </c>
       <c r="M77" s="11">
-        <v>45</v>
+        <v>131.04</v>
       </c>
       <c r="N77" s="11">
-        <v>40</v>
+        <v>131.04</v>
       </c>
       <c r="O77" s="11">
-        <v>35</v>
+        <v>131.04</v>
       </c>
       <c r="P77" s="12">
-        <v>43794</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="78" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="10" t="s">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="B78" s="11">
-        <v>40</v>
+        <v>34.04</v>
       </c>
       <c r="C78" s="11">
-        <v>45</v>
+        <v>37.450000000000003</v>
       </c>
       <c r="D78" s="11">
-        <v>50</v>
+        <v>44.28</v>
       </c>
       <c r="E78" s="11">
-        <v>50</v>
+        <v>44.69</v>
       </c>
       <c r="F78" s="11">
-        <v>55</v>
+        <v>51.15</v>
       </c>
       <c r="G78" s="11">
-        <v>60</v>
+        <v>56.01</v>
       </c>
       <c r="H78" s="11">
-        <v>60</v>
+        <v>61.18</v>
       </c>
       <c r="I78" s="11">
-        <v>65</v>
+        <v>66.47</v>
       </c>
       <c r="J78" s="11">
-        <v>70</v>
+        <v>72.040000000000006</v>
       </c>
       <c r="K78" s="11">
-        <v>65</v>
+        <v>72.040000000000006</v>
       </c>
       <c r="L78" s="11">
-        <v>60</v>
+        <v>72.040000000000006</v>
       </c>
       <c r="M78" s="11">
-        <v>50</v>
+        <v>72.040000000000006</v>
       </c>
       <c r="N78" s="11">
-        <v>45</v>
+        <v>72.040000000000006</v>
       </c>
       <c r="O78" s="11">
-        <v>40</v>
+        <v>72.040000000000006</v>
       </c>
       <c r="P78" s="12">
-        <v>43794</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="79" spans="1:16" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="10" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="B79" s="11">
-        <v>50</v>
+        <v>30.47</v>
       </c>
       <c r="C79" s="11">
-        <v>55</v>
+        <v>33.520000000000003</v>
       </c>
       <c r="D79" s="11">
-        <v>55</v>
+        <v>39.42</v>
       </c>
       <c r="E79" s="11">
-        <v>60</v>
+        <v>42.16</v>
       </c>
       <c r="F79" s="11">
-        <v>65</v>
+        <v>47.92</v>
       </c>
       <c r="G79" s="11">
-        <v>70</v>
+        <v>52.82</v>
       </c>
       <c r="H79" s="11">
-        <v>75</v>
+        <v>57.82</v>
       </c>
       <c r="I79" s="11">
-        <v>75</v>
+        <v>62.63</v>
       </c>
       <c r="J79" s="11">
-        <v>80</v>
+        <v>67.94</v>
       </c>
       <c r="K79" s="11">
-        <v>80</v>
+        <v>67.94</v>
       </c>
       <c r="L79" s="11">
-        <v>70</v>
+        <v>67.94</v>
       </c>
       <c r="M79" s="11">
-        <v>60</v>
+        <v>67.94</v>
       </c>
       <c r="N79" s="11">
-        <v>50</v>
+        <v>67.94</v>
       </c>
       <c r="O79" s="11">
-        <v>50</v>
+        <v>67.94</v>
       </c>
       <c r="P79" s="12">
-        <v>43794</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="80" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="10" t="s">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="B80" s="11">
-        <v>40</v>
+        <v>35.83</v>
       </c>
       <c r="C80" s="11">
-        <v>45</v>
+        <v>39.43</v>
       </c>
       <c r="D80" s="11">
-        <v>50</v>
+        <v>46.6</v>
       </c>
       <c r="E80" s="11">
-        <v>55</v>
+        <v>50.12</v>
       </c>
       <c r="F80" s="11">
-        <v>60</v>
+        <v>56.85</v>
       </c>
       <c r="G80" s="11">
-        <v>60</v>
+        <v>62.42</v>
       </c>
       <c r="H80" s="11">
-        <v>65</v>
+        <v>68.180000000000007</v>
       </c>
       <c r="I80" s="11">
-        <v>65</v>
+        <v>74.08</v>
       </c>
       <c r="J80" s="11">
-        <v>70</v>
+        <v>80.290000000000006</v>
       </c>
       <c r="K80" s="11">
-        <v>65</v>
+        <v>80.290000000000006</v>
       </c>
       <c r="L80" s="11">
-        <v>60</v>
+        <v>80.290000000000006</v>
       </c>
       <c r="M80" s="11">
-        <v>50</v>
+        <v>80.290000000000006</v>
       </c>
       <c r="N80" s="11">
-        <v>45</v>
+        <v>80.290000000000006</v>
       </c>
       <c r="O80" s="11">
-        <v>40</v>
+        <v>80.290000000000006</v>
       </c>
       <c r="P80" s="12">
-        <v>43794</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="81" spans="1:16" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="10" t="s">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="B81" s="11">
-        <v>50</v>
+        <v>35.83</v>
       </c>
       <c r="C81" s="11">
-        <v>55</v>
+        <v>39.43</v>
       </c>
       <c r="D81" s="11">
-        <v>60</v>
+        <v>46.6</v>
       </c>
       <c r="E81" s="11">
-        <v>65</v>
+        <v>50.12</v>
       </c>
       <c r="F81" s="11">
-        <v>70</v>
+        <v>56.85</v>
       </c>
       <c r="G81" s="11">
-        <v>75</v>
+        <v>62.42</v>
       </c>
       <c r="H81" s="11">
-        <v>75</v>
+        <v>68.180000000000007</v>
       </c>
       <c r="I81" s="11">
-        <v>80</v>
+        <v>74.08</v>
       </c>
       <c r="J81" s="11">
-        <v>85</v>
+        <v>80.290000000000006</v>
       </c>
       <c r="K81" s="11">
-        <v>80</v>
+        <v>80.290000000000006</v>
       </c>
       <c r="L81" s="11">
-        <v>75</v>
+        <v>80.290000000000006</v>
       </c>
       <c r="M81" s="11">
-        <v>60</v>
+        <v>80.290000000000006</v>
       </c>
       <c r="N81" s="11">
-        <v>55</v>
+        <v>80.290000000000006</v>
       </c>
       <c r="O81" s="11">
-        <v>50</v>
+        <v>80.290000000000006</v>
       </c>
       <c r="P81" s="12">
-        <v>43794</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="82" spans="1:16" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="10" t="s">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="B82" s="11">
-        <v>45</v>
+        <v>44.3</v>
       </c>
       <c r="C82" s="11">
-        <v>50</v>
+        <v>49.32</v>
       </c>
       <c r="D82" s="11">
-        <v>55</v>
+        <v>59.43</v>
       </c>
       <c r="E82" s="11">
-        <v>60</v>
+        <v>60.45</v>
       </c>
       <c r="F82" s="11">
-        <v>65</v>
+        <v>68.180000000000007</v>
       </c>
       <c r="G82" s="11">
-        <v>70</v>
+        <v>74.930000000000007</v>
       </c>
       <c r="H82" s="11">
-        <v>70</v>
+        <v>81.63</v>
       </c>
       <c r="I82" s="11">
-        <v>75</v>
+        <v>88.67</v>
       </c>
       <c r="J82" s="11">
-        <v>80</v>
+        <v>95.42</v>
       </c>
       <c r="K82" s="11">
-        <v>75</v>
+        <v>95.42</v>
       </c>
       <c r="L82" s="11">
-        <v>70</v>
+        <v>95.42</v>
       </c>
       <c r="M82" s="11">
-        <v>60</v>
+        <v>95.42</v>
       </c>
       <c r="N82" s="11">
-        <v>50</v>
+        <v>95.42</v>
       </c>
       <c r="O82" s="11">
-        <v>45</v>
+        <v>95.42</v>
       </c>
       <c r="P82" s="12">
-        <v>43794</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="83" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="10" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="B83" s="11">
-        <v>55</v>
+        <v>41.86</v>
       </c>
       <c r="C83" s="11">
-        <v>65</v>
+        <v>46.42</v>
       </c>
       <c r="D83" s="11">
-        <v>70</v>
+        <v>55.67</v>
       </c>
       <c r="E83" s="11">
-        <v>75</v>
+        <v>56.01</v>
       </c>
       <c r="F83" s="11">
-        <v>80</v>
+        <v>63.88</v>
       </c>
       <c r="G83" s="11">
-        <v>85</v>
+        <v>70.2</v>
       </c>
       <c r="H83" s="11">
-        <v>85</v>
+        <v>76.91</v>
       </c>
       <c r="I83" s="11">
-        <v>90</v>
+        <v>83.06</v>
       </c>
       <c r="J83" s="11">
-        <v>95</v>
+        <v>89.82</v>
       </c>
       <c r="K83" s="11">
-        <v>90</v>
+        <v>89.82</v>
       </c>
       <c r="L83" s="11">
-        <v>85</v>
+        <v>89.82</v>
       </c>
       <c r="M83" s="11">
-        <v>70</v>
+        <v>89.82</v>
       </c>
       <c r="N83" s="11">
-        <v>60</v>
+        <v>89.82</v>
       </c>
       <c r="O83" s="11">
-        <v>55</v>
+        <v>89.82</v>
       </c>
       <c r="P83" s="12">
-        <v>43794</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="84" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="10" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="B84" s="11">
-        <v>40</v>
+        <v>62.42</v>
       </c>
       <c r="C84" s="11">
-        <v>45</v>
+        <v>69.930000000000007</v>
       </c>
       <c r="D84" s="11">
-        <v>45</v>
+        <v>85.39</v>
       </c>
       <c r="E84" s="11">
-        <v>50</v>
+        <v>87.81</v>
       </c>
       <c r="F84" s="11">
-        <v>55</v>
+        <v>98.12</v>
       </c>
       <c r="G84" s="11">
-        <v>60</v>
+        <v>107.55</v>
       </c>
       <c r="H84" s="11">
-        <v>60</v>
+        <v>117.14</v>
       </c>
       <c r="I84" s="11">
-        <v>65</v>
+        <v>126.93</v>
       </c>
       <c r="J84" s="11">
-        <v>70</v>
+        <v>136.78</v>
       </c>
       <c r="K84" s="11">
-        <v>65</v>
+        <v>136.78</v>
       </c>
       <c r="L84" s="11">
-        <v>60</v>
+        <v>136.78</v>
       </c>
       <c r="M84" s="11">
-        <v>50</v>
+        <v>136.78</v>
       </c>
       <c r="N84" s="11">
-        <v>45</v>
+        <v>136.78</v>
       </c>
       <c r="O84" s="11">
-        <v>40</v>
+        <v>136.78</v>
       </c>
       <c r="P84" s="12">
-        <v>43794</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="85" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="10" t="s">
-        <v>82</v>
+        <v>114</v>
       </c>
       <c r="B85" s="11">
-        <v>40</v>
+        <v>59.92</v>
       </c>
       <c r="C85" s="11">
-        <v>40</v>
+        <v>67.05</v>
       </c>
       <c r="D85" s="11">
-        <v>45</v>
+        <v>82.08</v>
       </c>
       <c r="E85" s="11">
-        <v>50</v>
+        <v>83.95</v>
       </c>
       <c r="F85" s="11">
-        <v>50</v>
+        <v>93.82</v>
       </c>
       <c r="G85" s="11">
-        <v>55</v>
+        <v>103.27</v>
       </c>
       <c r="H85" s="11">
-        <v>55</v>
+        <v>112.31</v>
       </c>
       <c r="I85" s="11">
-        <v>60</v>
+        <v>121.2</v>
       </c>
       <c r="J85" s="11">
-        <v>65</v>
+        <v>131.04</v>
       </c>
       <c r="K85" s="11">
-        <v>60</v>
+        <v>131.04</v>
       </c>
       <c r="L85" s="11">
-        <v>55</v>
+        <v>131.04</v>
       </c>
       <c r="M85" s="11">
-        <v>45</v>
+        <v>131.04</v>
       </c>
       <c r="N85" s="11">
-        <v>40</v>
+        <v>131.04</v>
       </c>
       <c r="O85" s="11">
-        <v>40</v>
+        <v>131.04</v>
       </c>
       <c r="P85" s="12">
-        <v>43794</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="86" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="10" t="s">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c r="B86" s="11">
-        <v>40</v>
+        <v>69.84</v>
       </c>
       <c r="C86" s="11">
-        <v>45</v>
+        <v>78.25</v>
       </c>
       <c r="D86" s="11">
-        <v>45</v>
+        <v>96.94</v>
       </c>
       <c r="E86" s="11">
-        <v>50</v>
+        <v>88.7</v>
       </c>
       <c r="F86" s="11">
-        <v>55</v>
+        <v>110.88</v>
       </c>
       <c r="G86" s="11">
-        <v>60</v>
+        <v>121.2</v>
       </c>
       <c r="H86" s="11">
-        <v>60</v>
+        <v>132.35</v>
       </c>
       <c r="I86" s="11">
-        <v>65</v>
+        <v>142.97</v>
       </c>
       <c r="J86" s="11">
-        <v>65</v>
+        <v>154.41999999999999</v>
       </c>
       <c r="K86" s="11">
-        <v>65</v>
+        <v>154.41999999999999</v>
       </c>
       <c r="L86" s="11">
-        <v>60</v>
+        <v>154.41999999999999</v>
       </c>
       <c r="M86" s="11">
-        <v>50</v>
+        <v>154.41999999999999</v>
       </c>
       <c r="N86" s="11">
-        <v>45</v>
+        <v>154.41999999999999</v>
       </c>
       <c r="O86" s="11">
-        <v>40</v>
+        <v>154.41999999999999</v>
       </c>
       <c r="P86" s="12">
-        <v>43794</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="87" spans="1:16" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="10" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="B87" s="11">
-        <v>35</v>
+        <v>62.42</v>
       </c>
       <c r="C87" s="11">
-        <v>40</v>
+        <v>69.930000000000007</v>
       </c>
       <c r="D87" s="11">
-        <v>45</v>
+        <v>85.39</v>
       </c>
       <c r="E87" s="11">
-        <v>50</v>
+        <v>87.81</v>
       </c>
       <c r="F87" s="11">
-        <v>50</v>
+        <v>98.13</v>
       </c>
       <c r="G87" s="11">
-        <v>55</v>
+        <v>107.72</v>
       </c>
       <c r="H87" s="11">
-        <v>55</v>
+        <v>117.16</v>
       </c>
       <c r="I87" s="11">
-        <v>60</v>
+        <v>126.93</v>
       </c>
       <c r="J87" s="11">
-        <v>65</v>
+        <v>136.78</v>
       </c>
       <c r="K87" s="11">
-        <v>60</v>
+        <v>136.78</v>
       </c>
       <c r="L87" s="11">
-        <v>55</v>
+        <v>136.78</v>
       </c>
       <c r="M87" s="11">
-        <v>45</v>
+        <v>136.78</v>
       </c>
       <c r="N87" s="11">
-        <v>40</v>
+        <v>136.78</v>
       </c>
       <c r="O87" s="11">
-        <v>35</v>
+        <v>136.78</v>
       </c>
       <c r="P87" s="12">
-        <v>43794</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="88" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="10" t="s">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="B88" s="11">
-        <v>35</v>
+        <v>44.3</v>
       </c>
       <c r="C88" s="11">
-        <v>40</v>
+        <v>49.32</v>
       </c>
       <c r="D88" s="11">
-        <v>45</v>
+        <v>59.43</v>
       </c>
       <c r="E88" s="11">
-        <v>45</v>
+        <v>60.45</v>
       </c>
       <c r="F88" s="11">
-        <v>50</v>
+        <v>68.180000000000007</v>
       </c>
       <c r="G88" s="11">
-        <v>55</v>
+        <v>74.930000000000007</v>
       </c>
       <c r="H88" s="11">
-        <v>55</v>
+        <v>81.63</v>
       </c>
       <c r="I88" s="11">
-        <v>55</v>
+        <v>88.67</v>
       </c>
       <c r="J88" s="11">
-        <v>60</v>
+        <v>95.42</v>
       </c>
       <c r="K88" s="11">
-        <v>60</v>
+        <v>95.42</v>
       </c>
       <c r="L88" s="11">
-        <v>55</v>
+        <v>95.42</v>
       </c>
       <c r="M88" s="11">
-        <v>45</v>
+        <v>95.42</v>
       </c>
       <c r="N88" s="11">
-        <v>40</v>
+        <v>95.42</v>
       </c>
       <c r="O88" s="11">
-        <v>35</v>
+        <v>95.42</v>
       </c>
       <c r="P88" s="12">
-        <v>43794</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="89" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="10" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="B89" s="11">
-        <v>20</v>
+        <v>37.71</v>
       </c>
       <c r="C89" s="11">
-        <v>25</v>
+        <v>41.95</v>
       </c>
       <c r="D89" s="11">
-        <v>25</v>
+        <v>50.74</v>
       </c>
       <c r="E89" s="11">
-        <v>30</v>
+        <v>51.57</v>
       </c>
       <c r="F89" s="11">
-        <v>30</v>
+        <v>57.95</v>
       </c>
       <c r="G89" s="11">
-        <v>30</v>
+        <v>63.92</v>
       </c>
       <c r="H89" s="11">
-        <v>35</v>
+        <v>69.48</v>
       </c>
       <c r="I89" s="11">
-        <v>35</v>
+        <v>75.31</v>
       </c>
       <c r="J89" s="11">
-        <v>35</v>
+        <v>81.430000000000007</v>
       </c>
       <c r="K89" s="11">
-        <v>35</v>
+        <v>81.430000000000007</v>
       </c>
       <c r="L89" s="11">
-        <v>35</v>
+        <v>81.430000000000007</v>
       </c>
       <c r="M89" s="11">
-        <v>25</v>
+        <v>81.430000000000007</v>
       </c>
       <c r="N89" s="11">
-        <v>25</v>
+        <v>81.430000000000007</v>
       </c>
       <c r="O89" s="11">
-        <v>20</v>
+        <v>81.430000000000007</v>
       </c>
       <c r="P89" s="12">
-        <v>43794</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="90" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="10" t="s">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="B90" s="11">
-        <v>40</v>
+        <v>44.3</v>
       </c>
       <c r="C90" s="11">
-        <v>45</v>
+        <v>49.32</v>
       </c>
       <c r="D90" s="11">
-        <v>50</v>
+        <v>60.37</v>
       </c>
       <c r="E90" s="11">
-        <v>55</v>
+        <v>61.18</v>
       </c>
       <c r="F90" s="11">
-        <v>55</v>
+        <v>69.19</v>
       </c>
       <c r="G90" s="11">
-        <v>60</v>
+        <v>75.930000000000007</v>
       </c>
       <c r="H90" s="11">
-        <v>65</v>
+        <v>82.51</v>
       </c>
       <c r="I90" s="11">
-        <v>65</v>
+        <v>89.25</v>
       </c>
       <c r="J90" s="11">
-        <v>70</v>
+        <v>96.53</v>
       </c>
       <c r="K90" s="11">
-        <v>65</v>
+        <v>96.53</v>
       </c>
       <c r="L90" s="11">
-        <v>60</v>
+        <v>96.53</v>
       </c>
       <c r="M90" s="11">
-        <v>50</v>
+        <v>96.53</v>
       </c>
       <c r="N90" s="11">
-        <v>45</v>
+        <v>96.53</v>
       </c>
       <c r="O90" s="11">
-        <v>40</v>
+        <v>96.53</v>
       </c>
       <c r="P90" s="12">
-        <v>43794</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="91" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="10" t="s">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="B91" s="11">
-        <v>50</v>
+        <v>52.11</v>
       </c>
       <c r="C91" s="11">
-        <v>55</v>
+        <v>58.26</v>
       </c>
       <c r="D91" s="11">
-        <v>60</v>
+        <v>70.680000000000007</v>
       </c>
       <c r="E91" s="11">
-        <v>65</v>
+        <v>72.34</v>
       </c>
       <c r="F91" s="11">
-        <v>70</v>
+        <v>81.209999999999994</v>
       </c>
       <c r="G91" s="11">
-        <v>75</v>
+        <v>88.95</v>
       </c>
       <c r="H91" s="11">
-        <v>75</v>
+        <v>96.98</v>
       </c>
       <c r="I91" s="11">
-        <v>80</v>
+        <v>104.86</v>
       </c>
       <c r="J91" s="11">
-        <v>85</v>
+        <v>113.17</v>
       </c>
       <c r="K91" s="11">
-        <v>80</v>
+        <v>113.17</v>
       </c>
       <c r="L91" s="11">
-        <v>75</v>
+        <v>113.17</v>
       </c>
       <c r="M91" s="11">
-        <v>60</v>
+        <v>113.17</v>
       </c>
       <c r="N91" s="11">
-        <v>55</v>
+        <v>113.17</v>
       </c>
       <c r="O91" s="11">
-        <v>50</v>
+        <v>113.17</v>
       </c>
       <c r="P91" s="12">
-        <v>43794</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="92" spans="1:16" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
-        <v>89</v>
+        <v>121</v>
       </c>
       <c r="B92" s="11">
-        <v>40</v>
+        <v>44.3</v>
       </c>
       <c r="C92" s="11">
-        <v>45</v>
+        <v>49.32</v>
       </c>
       <c r="D92" s="11">
-        <v>50</v>
+        <v>59.43</v>
       </c>
       <c r="E92" s="11">
-        <v>55</v>
+        <v>60.45</v>
       </c>
       <c r="F92" s="11">
-        <v>55</v>
+        <v>68.180000000000007</v>
       </c>
       <c r="G92" s="11">
-        <v>60</v>
+        <v>74.930000000000007</v>
       </c>
       <c r="H92" s="11">
-        <v>65</v>
+        <v>81.63</v>
       </c>
       <c r="I92" s="11">
-        <v>65</v>
+        <v>88.67</v>
       </c>
       <c r="J92" s="11">
-        <v>70</v>
+        <v>95.42</v>
       </c>
       <c r="K92" s="11">
-        <v>65</v>
+        <v>95.42</v>
       </c>
       <c r="L92" s="11">
-        <v>60</v>
+        <v>95.42</v>
       </c>
       <c r="M92" s="11">
-        <v>50</v>
+        <v>95.42</v>
       </c>
       <c r="N92" s="11">
-        <v>45</v>
+        <v>95.42</v>
       </c>
       <c r="O92" s="11">
-        <v>40</v>
+        <v>95.42</v>
       </c>
       <c r="P92" s="12">
-        <v>43794</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="93" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="10" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="B93" s="11">
-        <v>50</v>
+        <v>52.11</v>
       </c>
       <c r="C93" s="11">
-        <v>55</v>
+        <v>58.26</v>
       </c>
       <c r="D93" s="11">
-        <v>60</v>
+        <v>70.680000000000007</v>
       </c>
       <c r="E93" s="11">
-        <v>65</v>
+        <v>72.34</v>
       </c>
       <c r="F93" s="11">
-        <v>70</v>
+        <v>81.209999999999994</v>
       </c>
       <c r="G93" s="11">
-        <v>75</v>
+        <v>88.95</v>
       </c>
       <c r="H93" s="11">
-        <v>75</v>
+        <v>96.98</v>
       </c>
       <c r="I93" s="11">
-        <v>80</v>
+        <v>104.86</v>
       </c>
       <c r="J93" s="11">
-        <v>85</v>
+        <v>113.17</v>
       </c>
       <c r="K93" s="11">
-        <v>80</v>
+        <v>113.17</v>
       </c>
       <c r="L93" s="11">
-        <v>75</v>
+        <v>113.17</v>
       </c>
       <c r="M93" s="11">
-        <v>60</v>
+        <v>113.17</v>
       </c>
       <c r="N93" s="11">
-        <v>55</v>
+        <v>113.17</v>
       </c>
       <c r="O93" s="11">
-        <v>50</v>
+        <v>113.17</v>
       </c>
       <c r="P93" s="12">
-        <v>43794</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="94" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="10" t="s">
-        <v>91</v>
+        <v>123</v>
       </c>
       <c r="B94" s="11">
-        <v>30</v>
+        <v>35.83</v>
       </c>
       <c r="C94" s="11">
-        <v>35</v>
+        <v>39.43</v>
       </c>
       <c r="D94" s="11">
-        <v>35</v>
+        <v>46.6</v>
       </c>
       <c r="E94" s="11">
-        <v>40</v>
+        <v>50.12</v>
       </c>
       <c r="F94" s="11">
-        <v>40</v>
+        <v>56.85</v>
       </c>
       <c r="G94" s="11">
-        <v>45</v>
+        <v>62.42</v>
       </c>
       <c r="H94" s="11">
-        <v>45</v>
+        <v>68.180000000000007</v>
       </c>
       <c r="I94" s="11">
-        <v>50</v>
+        <v>74.08</v>
       </c>
       <c r="J94" s="11">
-        <v>50</v>
+        <v>80.290000000000006</v>
       </c>
       <c r="K94" s="11">
-        <v>50</v>
+        <v>80.290000000000006</v>
       </c>
       <c r="L94" s="11">
-        <v>45</v>
+        <v>80.290000000000006</v>
       </c>
       <c r="M94" s="11">
-        <v>35</v>
+        <v>80.290000000000006</v>
       </c>
       <c r="N94" s="11">
-        <v>35</v>
+        <v>80.290000000000006</v>
       </c>
       <c r="O94" s="11">
-        <v>30</v>
+        <v>80.290000000000006</v>
       </c>
       <c r="P94" s="12">
-        <v>43794</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="95" spans="1:16" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="10" t="s">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="B95" s="11">
-        <v>20</v>
+        <v>35.83</v>
       </c>
       <c r="C95" s="11">
-        <v>20</v>
+        <v>39.43</v>
       </c>
       <c r="D95" s="11">
-        <v>25</v>
+        <v>46.6</v>
       </c>
       <c r="E95" s="11">
-        <v>25</v>
+        <v>50.12</v>
       </c>
       <c r="F95" s="11">
-        <v>30</v>
+        <v>56.85</v>
       </c>
       <c r="G95" s="11">
-        <v>30</v>
+        <v>62.42</v>
       </c>
       <c r="H95" s="11">
-        <v>30</v>
+        <v>68.180000000000007</v>
       </c>
       <c r="I95" s="11">
-        <v>30</v>
+        <v>74.08</v>
       </c>
       <c r="J95" s="11">
-        <v>35</v>
+        <v>80.290000000000006</v>
       </c>
       <c r="K95" s="11">
-        <v>30</v>
+        <v>80.290000000000006</v>
       </c>
       <c r="L95" s="11">
-        <v>30</v>
+        <v>80.290000000000006</v>
       </c>
       <c r="M95" s="11">
-        <v>25</v>
+        <v>80.290000000000006</v>
       </c>
       <c r="N95" s="11">
-        <v>20</v>
+        <v>80.290000000000006</v>
       </c>
       <c r="O95" s="11">
-        <v>20</v>
+        <v>80.290000000000006</v>
       </c>
       <c r="P95" s="12">
-        <v>43794</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="96" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="10" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="B96" s="11">
-        <v>30</v>
+        <v>35.83</v>
       </c>
       <c r="C96" s="11">
-        <v>35</v>
+        <v>39.43</v>
       </c>
       <c r="D96" s="11">
-        <v>35</v>
+        <v>46.6</v>
       </c>
       <c r="E96" s="11">
-        <v>40</v>
+        <v>50.12</v>
       </c>
       <c r="F96" s="11">
-        <v>40</v>
+        <v>56.85</v>
       </c>
       <c r="G96" s="11">
-        <v>45</v>
+        <v>62.42</v>
       </c>
       <c r="H96" s="11">
-        <v>45</v>
+        <v>68.180000000000007</v>
       </c>
       <c r="I96" s="11">
-        <v>50</v>
+        <v>74.08</v>
       </c>
       <c r="J96" s="11">
-        <v>50</v>
+        <v>80.290000000000006</v>
       </c>
       <c r="K96" s="11">
-        <v>50</v>
+        <v>80.290000000000006</v>
       </c>
       <c r="L96" s="11">
-        <v>45</v>
+        <v>80.290000000000006</v>
       </c>
       <c r="M96" s="11">
-        <v>35</v>
+        <v>80.290000000000006</v>
       </c>
       <c r="N96" s="11">
-        <v>35</v>
+        <v>80.290000000000006</v>
       </c>
       <c r="O96" s="11">
-        <v>30</v>
+        <v>80.290000000000006</v>
       </c>
       <c r="P96" s="12">
-        <v>43794</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="97" spans="1:16" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="10" t="s">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="B97" s="11">
-        <v>30</v>
+        <v>35.83</v>
       </c>
       <c r="C97" s="11">
-        <v>35</v>
+        <v>39.43</v>
       </c>
       <c r="D97" s="11">
-        <v>40</v>
+        <v>46.6</v>
       </c>
       <c r="E97" s="11">
-        <v>40</v>
+        <v>50.12</v>
       </c>
       <c r="F97" s="11">
-        <v>45</v>
+        <v>56.85</v>
       </c>
       <c r="G97" s="11">
-        <v>45</v>
+        <v>62.42</v>
       </c>
       <c r="H97" s="11">
-        <v>50</v>
+        <v>68.180000000000007</v>
       </c>
       <c r="I97" s="11">
-        <v>50</v>
+        <v>74.08</v>
       </c>
       <c r="J97" s="11">
-        <v>55</v>
+        <v>80.290000000000006</v>
       </c>
       <c r="K97" s="11">
-        <v>50</v>
+        <v>80.290000000000006</v>
       </c>
       <c r="L97" s="11">
-        <v>45</v>
+        <v>80.290000000000006</v>
       </c>
       <c r="M97" s="11">
-        <v>40</v>
+        <v>80.290000000000006</v>
       </c>
       <c r="N97" s="11">
-        <v>35</v>
+        <v>80.290000000000006</v>
       </c>
       <c r="O97" s="11">
-        <v>30</v>
+        <v>80.290000000000006</v>
       </c>
       <c r="P97" s="12">
-        <v>43794</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="98" spans="1:16" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="10" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="B98" s="11">
-        <v>25</v>
+        <v>35.83</v>
       </c>
       <c r="C98" s="11">
-        <v>30</v>
+        <v>39.43</v>
       </c>
       <c r="D98" s="11">
-        <v>30</v>
+        <v>46.6</v>
       </c>
       <c r="E98" s="11">
-        <v>35</v>
+        <v>50.12</v>
       </c>
       <c r="F98" s="11">
-        <v>40</v>
+        <v>56.85</v>
       </c>
       <c r="G98" s="11">
-        <v>40</v>
+        <v>62.42</v>
       </c>
       <c r="H98" s="11">
-        <v>40</v>
+        <v>68.180000000000007</v>
       </c>
       <c r="I98" s="11">
-        <v>45</v>
+        <v>74.08</v>
       </c>
       <c r="J98" s="11">
-        <v>45</v>
+        <v>80.290000000000006</v>
       </c>
       <c r="K98" s="11">
-        <v>45</v>
+        <v>80.290000000000006</v>
       </c>
       <c r="L98" s="11">
-        <v>40</v>
+        <v>80.290000000000006</v>
       </c>
       <c r="M98" s="11">
-        <v>35</v>
+        <v>80.290000000000006</v>
       </c>
       <c r="N98" s="11">
-        <v>30</v>
+        <v>80.290000000000006</v>
       </c>
       <c r="O98" s="11">
-        <v>25</v>
+        <v>80.290000000000006</v>
       </c>
       <c r="P98" s="12">
-        <v>43794</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="99" spans="1:16" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="10" t="s">
-        <v>96</v>
+        <v>1</v>
       </c>
       <c r="B99" s="11">
         <v>25</v>
@@ -5825,27 +5847,27 @@
         <v>45</v>
       </c>
       <c r="K99" s="11">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="L99" s="11">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="M99" s="11">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N99" s="11">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="O99" s="11">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="P99" s="12">
-        <v>43794</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="100" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="10" t="s">
-        <v>97</v>
+        <v>2</v>
       </c>
       <c r="B100" s="11">
         <v>40</v>
@@ -5875,27 +5897,27 @@
         <v>70</v>
       </c>
       <c r="K100" s="11">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="L100" s="11">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="M100" s="11">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="N100" s="11">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="O100" s="11">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="P100" s="12">
-        <v>43794</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A101" s="10" t="s">
-        <v>98</v>
+        <v>3</v>
       </c>
       <c r="B101" s="11">
         <v>40</v>
@@ -5928,24 +5950,24 @@
         <v>65</v>
       </c>
       <c r="L101" s="11">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="M101" s="11">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="N101" s="11">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="O101" s="11">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="P101" s="12">
-        <v>43794</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A102" s="10" t="s">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="B102" s="11">
         <v>50</v>
@@ -5975,27 +5997,27 @@
         <v>85</v>
       </c>
       <c r="K102" s="11">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="L102" s="11">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="M102" s="11">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="N102" s="11">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="O102" s="11">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="P102" s="12">
-        <v>43794</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A103" s="10" t="s">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="B103" s="11">
         <v>40</v>
@@ -6028,24 +6050,24 @@
         <v>70</v>
       </c>
       <c r="L103" s="11">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="M103" s="11">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="N103" s="11">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="O103" s="11">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="P103" s="12">
-        <v>43794</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A104" s="10" t="s">
-        <v>101</v>
+        <v>6</v>
       </c>
       <c r="B104" s="11">
         <v>25</v>
@@ -6075,27 +6097,27 @@
         <v>40</v>
       </c>
       <c r="K104" s="11">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="L104" s="11">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="M104" s="11">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N104" s="11">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="O104" s="11">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="P104" s="12">
-        <v>43794</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A105" s="10" t="s">
-        <v>102</v>
+        <v>7</v>
       </c>
       <c r="B105" s="11">
         <v>25</v>
@@ -6128,24 +6150,24 @@
         <v>45</v>
       </c>
       <c r="L105" s="11">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="M105" s="11">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="N105" s="11">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="O105" s="11">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="P105" s="12">
-        <v>43794</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A106" s="10" t="s">
-        <v>103</v>
+        <v>8</v>
       </c>
       <c r="B106" s="11">
         <v>25</v>
@@ -6178,24 +6200,24 @@
         <v>45</v>
       </c>
       <c r="L106" s="11">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="M106" s="11">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="N106" s="11">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="O106" s="11">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="P106" s="12">
-        <v>43794</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A107" s="10" t="s">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="B107" s="11">
         <v>30</v>
@@ -6228,24 +6250,24 @@
         <v>50</v>
       </c>
       <c r="L107" s="11">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="M107" s="11">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="N107" s="11">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="O107" s="11">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="P107" s="12">
-        <v>43794</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A108" s="10" t="s">
-        <v>105</v>
+        <v>10</v>
       </c>
       <c r="B108" s="11">
         <v>35</v>
@@ -6275,27 +6297,27 @@
         <v>65</v>
       </c>
       <c r="K108" s="11">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="L108" s="11">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="M108" s="11">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="N108" s="11">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="O108" s="11">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="P108" s="12">
-        <v>43794</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A109" s="10" t="s">
-        <v>106</v>
+        <v>11</v>
       </c>
       <c r="B109" s="11">
         <v>30</v>
@@ -6328,24 +6350,24 @@
         <v>50</v>
       </c>
       <c r="L109" s="11">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="M109" s="11">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="N109" s="11">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="O109" s="11">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="P109" s="12">
-        <v>43794</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A110" s="10" t="s">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="B110" s="11">
         <v>35</v>
@@ -6378,24 +6400,24 @@
         <v>60</v>
       </c>
       <c r="L110" s="11">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="M110" s="11">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="N110" s="11">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="O110" s="11">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="P110" s="12">
-        <v>43794</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A111" s="10" t="s">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="B111" s="11">
         <v>30</v>
@@ -6428,24 +6450,24 @@
         <v>50</v>
       </c>
       <c r="L111" s="11">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="M111" s="11">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="N111" s="11">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="O111" s="11">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="P111" s="12">
-        <v>43794</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A112" s="10" t="s">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="B112" s="11">
         <v>30</v>
@@ -6475,27 +6497,27 @@
         <v>50</v>
       </c>
       <c r="K112" s="11">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="L112" s="11">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="M112" s="11">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="N112" s="11">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="O112" s="11">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="P112" s="12">
-        <v>43794</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A113" s="10" t="s">
-        <v>110</v>
+        <v>15</v>
       </c>
       <c r="B113" s="11">
         <v>30</v>
@@ -6525,27 +6547,27 @@
         <v>50</v>
       </c>
       <c r="K113" s="11">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="L113" s="11">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="M113" s="11">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="N113" s="11">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="O113" s="11">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="P113" s="12">
-        <v>43794</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A114" s="10" t="s">
-        <v>111</v>
+        <v>16</v>
       </c>
       <c r="B114" s="11">
         <v>30</v>
@@ -6575,27 +6597,27 @@
         <v>50</v>
       </c>
       <c r="K114" s="11">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="L114" s="11">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="M114" s="11">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="N114" s="11">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="O114" s="11">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="P114" s="12">
-        <v>43794</v>
+        <v>45695</v>
       </c>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A115" s="10" t="s">
-        <v>112</v>
+        <v>17</v>
       </c>
       <c r="B115" s="11">
         <v>30</v>
@@ -6625,22 +6647,172 @@
         <v>50</v>
       </c>
       <c r="K115" s="11">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="L115" s="11">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="M115" s="11">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="N115" s="11">
+        <v>50</v>
+      </c>
+      <c r="O115" s="11">
+        <v>50</v>
+      </c>
+      <c r="P115" s="12">
+        <v>45695</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A116" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B116" s="15">
+        <v>100</v>
+      </c>
+      <c r="C116" s="15">
+        <v>100</v>
+      </c>
+      <c r="D116" s="15">
+        <v>100</v>
+      </c>
+      <c r="E116" s="15">
+        <v>100</v>
+      </c>
+      <c r="F116" s="15">
+        <v>100</v>
+      </c>
+      <c r="G116" s="15">
+        <v>100</v>
+      </c>
+      <c r="H116" s="15">
+        <v>100</v>
+      </c>
+      <c r="I116" s="15">
+        <v>100</v>
+      </c>
+      <c r="J116" s="15">
+        <v>100</v>
+      </c>
+      <c r="K116" s="15">
+        <v>100</v>
+      </c>
+      <c r="L116" s="15">
+        <v>100</v>
+      </c>
+      <c r="M116" s="15">
+        <v>100</v>
+      </c>
+      <c r="N116" s="15">
+        <v>100</v>
+      </c>
+      <c r="O116" s="15">
+        <v>100</v>
+      </c>
+      <c r="P116" s="12">
+        <v>45695</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A117" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="B117" s="11">
+        <v>45.87</v>
+      </c>
+      <c r="C117" s="11">
+        <v>50.81</v>
+      </c>
+      <c r="D117" s="11">
+        <v>61.73</v>
+      </c>
+      <c r="E117" s="11">
+        <v>63.04</v>
+      </c>
+      <c r="F117" s="11">
+        <v>70.75</v>
+      </c>
+      <c r="G117" s="11">
+        <v>77.77</v>
+      </c>
+      <c r="H117" s="11">
+        <v>84.94</v>
+      </c>
+      <c r="I117" s="11">
+        <v>91.55</v>
+      </c>
+      <c r="J117" s="11">
+        <v>99.4</v>
+      </c>
+      <c r="K117" s="11">
+        <v>99.4</v>
+      </c>
+      <c r="L117" s="11">
+        <v>99.4</v>
+      </c>
+      <c r="M117" s="11">
+        <v>99.4</v>
+      </c>
+      <c r="N117" s="11">
+        <v>99.4</v>
+      </c>
+      <c r="O117" s="11">
+        <v>99.4</v>
+      </c>
+      <c r="P117" s="12">
+        <v>45695</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A118" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="B118" s="15">
         <v>30</v>
       </c>
-      <c r="O115" s="11">
+      <c r="C118" s="15">
         <v>30</v>
       </c>
-      <c r="P115" s="12">
-        <v>43794</v>
+      <c r="D118" s="15">
+        <v>30</v>
+      </c>
+      <c r="E118" s="15">
+        <v>30</v>
+      </c>
+      <c r="F118" s="15">
+        <v>30</v>
+      </c>
+      <c r="G118" s="15">
+        <v>30</v>
+      </c>
+      <c r="H118" s="15">
+        <v>30</v>
+      </c>
+      <c r="I118" s="15">
+        <v>30</v>
+      </c>
+      <c r="J118" s="15">
+        <v>30</v>
+      </c>
+      <c r="K118" s="15">
+        <v>30</v>
+      </c>
+      <c r="L118" s="15">
+        <v>30</v>
+      </c>
+      <c r="M118" s="15">
+        <v>30</v>
+      </c>
+      <c r="N118" s="15">
+        <v>30</v>
+      </c>
+      <c r="O118" s="15">
+        <v>30</v>
+      </c>
+      <c r="P118" s="12">
+        <v>45695</v>
       </c>
     </row>
   </sheetData>
